--- a/events.xlsx
+++ b/events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\streamlit_tiznados\tiznados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F904637-7AEC-43EC-88D1-CCEFC69A809B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102CAAA2-01BA-4F0B-BB86-98D238CDD4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="360">
   <si>
     <t>XY</t>
   </si>
@@ -1097,6 +1097,9 @@
   </si>
   <si>
     <t>Amistoso #1</t>
+  </si>
+  <si>
+    <t>https://youtu.be/7N6VSnEXyFQ</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1466,7 @@
   <dimension ref="A1:L96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I3" sqref="I3:I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1471,7 +1474,7 @@
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -1537,6 +1540,9 @@
       <c r="H2" t="s">
         <v>358</v>
       </c>
+      <c r="I2" t="s">
+        <v>359</v>
+      </c>
       <c r="K2" t="s">
         <v>10</v>
       </c>
@@ -1566,6 +1572,9 @@
       <c r="H3" t="s">
         <v>358</v>
       </c>
+      <c r="I3" t="s">
+        <v>359</v>
+      </c>
       <c r="J3" t="s">
         <v>349</v>
       </c>
@@ -1601,6 +1610,9 @@
       <c r="H4" t="s">
         <v>358</v>
       </c>
+      <c r="I4" t="s">
+        <v>359</v>
+      </c>
       <c r="K4" t="s">
         <v>10</v>
       </c>
@@ -1630,6 +1642,9 @@
       <c r="H5" t="s">
         <v>358</v>
       </c>
+      <c r="I5" t="s">
+        <v>359</v>
+      </c>
       <c r="J5" t="s">
         <v>350</v>
       </c>
@@ -1665,6 +1680,9 @@
       <c r="H6" t="s">
         <v>358</v>
       </c>
+      <c r="I6" t="s">
+        <v>359</v>
+      </c>
       <c r="K6" t="s">
         <v>10</v>
       </c>
@@ -1694,6 +1712,9 @@
       <c r="H7" t="s">
         <v>358</v>
       </c>
+      <c r="I7" t="s">
+        <v>359</v>
+      </c>
       <c r="J7" t="s">
         <v>349</v>
       </c>
@@ -1726,6 +1747,9 @@
       <c r="H8" t="s">
         <v>358</v>
       </c>
+      <c r="I8" t="s">
+        <v>359</v>
+      </c>
       <c r="J8" t="s">
         <v>349</v>
       </c>
@@ -1761,6 +1785,9 @@
       <c r="H9" t="s">
         <v>358</v>
       </c>
+      <c r="I9" t="s">
+        <v>359</v>
+      </c>
       <c r="K9" t="s">
         <v>10</v>
       </c>
@@ -1787,6 +1814,9 @@
       <c r="H10" t="s">
         <v>358</v>
       </c>
+      <c r="I10" t="s">
+        <v>359</v>
+      </c>
       <c r="J10" t="s">
         <v>351</v>
       </c>
@@ -1819,6 +1849,9 @@
       <c r="H11" t="s">
         <v>358</v>
       </c>
+      <c r="I11" t="s">
+        <v>359</v>
+      </c>
       <c r="J11" t="s">
         <v>349</v>
       </c>
@@ -1854,6 +1887,9 @@
       <c r="H12" t="s">
         <v>358</v>
       </c>
+      <c r="I12" t="s">
+        <v>359</v>
+      </c>
       <c r="K12" t="s">
         <v>10</v>
       </c>
@@ -1883,6 +1919,9 @@
       <c r="H13" t="s">
         <v>358</v>
       </c>
+      <c r="I13" t="s">
+        <v>359</v>
+      </c>
       <c r="J13" t="s">
         <v>349</v>
       </c>
@@ -1912,6 +1951,9 @@
       <c r="H14" t="s">
         <v>358</v>
       </c>
+      <c r="I14" t="s">
+        <v>359</v>
+      </c>
       <c r="J14" t="s">
         <v>350</v>
       </c>
@@ -1947,6 +1989,9 @@
       <c r="H15" t="s">
         <v>358</v>
       </c>
+      <c r="I15" t="s">
+        <v>359</v>
+      </c>
       <c r="K15" t="s">
         <v>10</v>
       </c>
@@ -1976,6 +2021,9 @@
       <c r="H16" t="s">
         <v>358</v>
       </c>
+      <c r="I16" t="s">
+        <v>359</v>
+      </c>
       <c r="J16" t="s">
         <v>349</v>
       </c>
@@ -2011,6 +2059,9 @@
       <c r="H17" t="s">
         <v>358</v>
       </c>
+      <c r="I17" t="s">
+        <v>359</v>
+      </c>
       <c r="K17" t="s">
         <v>10</v>
       </c>
@@ -2040,6 +2091,9 @@
       <c r="H18" t="s">
         <v>358</v>
       </c>
+      <c r="I18" t="s">
+        <v>359</v>
+      </c>
       <c r="K18" t="s">
         <v>10</v>
       </c>
@@ -2069,6 +2123,9 @@
       <c r="H19" t="s">
         <v>358</v>
       </c>
+      <c r="I19" t="s">
+        <v>359</v>
+      </c>
       <c r="J19" t="s">
         <v>349</v>
       </c>
@@ -2104,6 +2161,9 @@
       <c r="H20" t="s">
         <v>358</v>
       </c>
+      <c r="I20" t="s">
+        <v>359</v>
+      </c>
       <c r="K20" t="s">
         <v>10</v>
       </c>
@@ -2136,6 +2196,9 @@
       <c r="H21" t="s">
         <v>358</v>
       </c>
+      <c r="I21" t="s">
+        <v>359</v>
+      </c>
       <c r="K21" t="s">
         <v>10</v>
       </c>
@@ -2165,6 +2228,9 @@
       <c r="H22" t="s">
         <v>358</v>
       </c>
+      <c r="I22" t="s">
+        <v>359</v>
+      </c>
       <c r="J22" t="s">
         <v>352</v>
       </c>
@@ -2200,6 +2266,9 @@
       <c r="H23" t="s">
         <v>358</v>
       </c>
+      <c r="I23" t="s">
+        <v>359</v>
+      </c>
       <c r="K23" t="s">
         <v>10</v>
       </c>
@@ -2229,6 +2298,9 @@
       <c r="H24" t="s">
         <v>358</v>
       </c>
+      <c r="I24" t="s">
+        <v>359</v>
+      </c>
       <c r="J24" t="s">
         <v>353</v>
       </c>
@@ -2264,6 +2336,9 @@
       <c r="H25" t="s">
         <v>358</v>
       </c>
+      <c r="I25" t="s">
+        <v>359</v>
+      </c>
       <c r="K25" t="s">
         <v>10</v>
       </c>
@@ -2293,6 +2368,9 @@
       <c r="H26" t="s">
         <v>358</v>
       </c>
+      <c r="I26" t="s">
+        <v>359</v>
+      </c>
       <c r="J26" t="s">
         <v>350</v>
       </c>
@@ -2328,6 +2406,9 @@
       <c r="H27" t="s">
         <v>358</v>
       </c>
+      <c r="I27" t="s">
+        <v>359</v>
+      </c>
       <c r="K27" t="s">
         <v>10</v>
       </c>
@@ -2357,6 +2438,9 @@
       <c r="H28" t="s">
         <v>358</v>
       </c>
+      <c r="I28" t="s">
+        <v>359</v>
+      </c>
       <c r="J28" t="s">
         <v>354</v>
       </c>
@@ -2392,6 +2476,9 @@
       <c r="H29" t="s">
         <v>358</v>
       </c>
+      <c r="I29" t="s">
+        <v>359</v>
+      </c>
       <c r="K29" t="s">
         <v>10</v>
       </c>
@@ -2424,6 +2511,9 @@
       <c r="H30" t="s">
         <v>358</v>
       </c>
+      <c r="I30" t="s">
+        <v>359</v>
+      </c>
       <c r="K30" t="s">
         <v>10</v>
       </c>
@@ -2453,6 +2543,9 @@
       <c r="H31" t="s">
         <v>358</v>
       </c>
+      <c r="I31" t="s">
+        <v>359</v>
+      </c>
       <c r="J31" t="s">
         <v>350</v>
       </c>
@@ -2488,6 +2581,9 @@
       <c r="H32" t="s">
         <v>358</v>
       </c>
+      <c r="I32" t="s">
+        <v>359</v>
+      </c>
       <c r="K32" t="s">
         <v>10</v>
       </c>
@@ -2517,6 +2613,9 @@
       <c r="H33" t="s">
         <v>358</v>
       </c>
+      <c r="I33" t="s">
+        <v>359</v>
+      </c>
       <c r="J33" t="s">
         <v>349</v>
       </c>
@@ -2552,6 +2651,9 @@
       <c r="H34" t="s">
         <v>358</v>
       </c>
+      <c r="I34" t="s">
+        <v>359</v>
+      </c>
       <c r="K34" t="s">
         <v>10</v>
       </c>
@@ -2581,6 +2683,9 @@
       <c r="H35" t="s">
         <v>358</v>
       </c>
+      <c r="I35" t="s">
+        <v>359</v>
+      </c>
       <c r="J35" t="s">
         <v>349</v>
       </c>
@@ -2616,6 +2721,9 @@
       <c r="H36" t="s">
         <v>358</v>
       </c>
+      <c r="I36" t="s">
+        <v>359</v>
+      </c>
       <c r="K36" t="s">
         <v>10</v>
       </c>
@@ -2645,6 +2753,9 @@
       <c r="H37" t="s">
         <v>358</v>
       </c>
+      <c r="I37" t="s">
+        <v>359</v>
+      </c>
       <c r="J37" t="s">
         <v>355</v>
       </c>
@@ -2680,6 +2791,9 @@
       <c r="H38" t="s">
         <v>358</v>
       </c>
+      <c r="I38" t="s">
+        <v>359</v>
+      </c>
       <c r="K38" t="s">
         <v>10</v>
       </c>
@@ -2712,6 +2826,9 @@
       <c r="H39" t="s">
         <v>358</v>
       </c>
+      <c r="I39" t="s">
+        <v>359</v>
+      </c>
       <c r="K39" t="s">
         <v>10</v>
       </c>
@@ -2744,6 +2861,9 @@
       <c r="H40" t="s">
         <v>358</v>
       </c>
+      <c r="I40" t="s">
+        <v>359</v>
+      </c>
       <c r="K40" t="s">
         <v>10</v>
       </c>
@@ -2776,6 +2896,9 @@
       <c r="H41" t="s">
         <v>358</v>
       </c>
+      <c r="I41" t="s">
+        <v>359</v>
+      </c>
       <c r="K41" t="s">
         <v>10</v>
       </c>
@@ -2808,6 +2931,9 @@
       <c r="H42" t="s">
         <v>358</v>
       </c>
+      <c r="I42" t="s">
+        <v>359</v>
+      </c>
       <c r="J42" t="s">
         <v>350</v>
       </c>
@@ -2837,6 +2963,9 @@
       <c r="H43" t="s">
         <v>358</v>
       </c>
+      <c r="I43" t="s">
+        <v>359</v>
+      </c>
       <c r="J43" t="s">
         <v>350</v>
       </c>
@@ -2872,6 +3001,9 @@
       <c r="H44" t="s">
         <v>358</v>
       </c>
+      <c r="I44" t="s">
+        <v>359</v>
+      </c>
       <c r="K44" t="s">
         <v>10</v>
       </c>
@@ -2904,6 +3036,9 @@
       <c r="H45" t="s">
         <v>358</v>
       </c>
+      <c r="I45" t="s">
+        <v>359</v>
+      </c>
       <c r="K45" t="s">
         <v>10</v>
       </c>
@@ -2933,6 +3068,9 @@
       <c r="H46" t="s">
         <v>358</v>
       </c>
+      <c r="I46" t="s">
+        <v>359</v>
+      </c>
       <c r="J46" t="s">
         <v>350</v>
       </c>
@@ -2968,6 +3106,9 @@
       <c r="H47" t="s">
         <v>358</v>
       </c>
+      <c r="I47" t="s">
+        <v>359</v>
+      </c>
       <c r="K47" t="s">
         <v>10</v>
       </c>
@@ -3000,6 +3141,9 @@
       <c r="H48" t="s">
         <v>358</v>
       </c>
+      <c r="I48" t="s">
+        <v>359</v>
+      </c>
       <c r="K48" t="s">
         <v>10</v>
       </c>
@@ -3026,6 +3170,9 @@
       <c r="H49" t="s">
         <v>358</v>
       </c>
+      <c r="I49" t="s">
+        <v>359</v>
+      </c>
       <c r="J49" t="s">
         <v>356</v>
       </c>
@@ -3058,6 +3205,9 @@
       <c r="H50" t="s">
         <v>358</v>
       </c>
+      <c r="I50" t="s">
+        <v>359</v>
+      </c>
       <c r="J50" t="s">
         <v>349</v>
       </c>
@@ -3093,6 +3243,9 @@
       <c r="H51" t="s">
         <v>358</v>
       </c>
+      <c r="I51" t="s">
+        <v>359</v>
+      </c>
       <c r="K51" t="s">
         <v>10</v>
       </c>
@@ -3125,6 +3278,9 @@
       <c r="H52" t="s">
         <v>358</v>
       </c>
+      <c r="I52" t="s">
+        <v>359</v>
+      </c>
       <c r="K52" t="s">
         <v>10</v>
       </c>
@@ -3151,6 +3307,9 @@
       <c r="H53" t="s">
         <v>358</v>
       </c>
+      <c r="I53" t="s">
+        <v>359</v>
+      </c>
       <c r="J53" t="s">
         <v>356</v>
       </c>
@@ -3186,6 +3345,9 @@
       <c r="H54" t="s">
         <v>358</v>
       </c>
+      <c r="I54" t="s">
+        <v>359</v>
+      </c>
       <c r="J54" t="s">
         <v>350</v>
       </c>
@@ -3215,6 +3377,9 @@
       <c r="H55" t="s">
         <v>358</v>
       </c>
+      <c r="I55" t="s">
+        <v>359</v>
+      </c>
       <c r="J55" t="s">
         <v>356</v>
       </c>
@@ -3247,6 +3412,9 @@
       <c r="H56" t="s">
         <v>358</v>
       </c>
+      <c r="I56" t="s">
+        <v>359</v>
+      </c>
       <c r="J56" t="s">
         <v>349</v>
       </c>
@@ -3282,6 +3450,9 @@
       <c r="H57" t="s">
         <v>358</v>
       </c>
+      <c r="I57" t="s">
+        <v>359</v>
+      </c>
       <c r="K57" t="s">
         <v>10</v>
       </c>
@@ -3311,6 +3482,9 @@
       <c r="H58" t="s">
         <v>358</v>
       </c>
+      <c r="I58" t="s">
+        <v>359</v>
+      </c>
       <c r="K58" t="s">
         <v>10</v>
       </c>
@@ -3343,6 +3517,9 @@
       <c r="H59" t="s">
         <v>358</v>
       </c>
+      <c r="I59" t="s">
+        <v>359</v>
+      </c>
       <c r="K59" t="s">
         <v>10</v>
       </c>
@@ -3372,6 +3549,9 @@
       <c r="H60" t="s">
         <v>358</v>
       </c>
+      <c r="I60" t="s">
+        <v>359</v>
+      </c>
       <c r="J60" t="s">
         <v>349</v>
       </c>
@@ -3404,6 +3584,9 @@
       <c r="H61" t="s">
         <v>358</v>
       </c>
+      <c r="I61" t="s">
+        <v>359</v>
+      </c>
       <c r="J61" t="s">
         <v>349</v>
       </c>
@@ -3439,6 +3622,9 @@
       <c r="H62" t="s">
         <v>358</v>
       </c>
+      <c r="I62" t="s">
+        <v>359</v>
+      </c>
       <c r="K62" t="s">
         <v>10</v>
       </c>
@@ -3468,6 +3654,9 @@
       <c r="H63" t="s">
         <v>358</v>
       </c>
+      <c r="I63" t="s">
+        <v>359</v>
+      </c>
       <c r="J63" t="s">
         <v>349</v>
       </c>
@@ -3503,6 +3692,9 @@
       <c r="H64" t="s">
         <v>358</v>
       </c>
+      <c r="I64" t="s">
+        <v>359</v>
+      </c>
       <c r="K64" t="s">
         <v>10</v>
       </c>
@@ -3529,6 +3721,9 @@
       <c r="H65" t="s">
         <v>358</v>
       </c>
+      <c r="I65" t="s">
+        <v>359</v>
+      </c>
       <c r="J65" t="s">
         <v>350</v>
       </c>
@@ -3561,6 +3756,9 @@
       <c r="H66" t="s">
         <v>358</v>
       </c>
+      <c r="I66" t="s">
+        <v>359</v>
+      </c>
       <c r="J66" t="s">
         <v>353</v>
       </c>
@@ -3596,6 +3794,9 @@
       <c r="H67" t="s">
         <v>358</v>
       </c>
+      <c r="I67" t="s">
+        <v>359</v>
+      </c>
       <c r="K67" t="s">
         <v>10</v>
       </c>
@@ -3628,6 +3829,9 @@
       <c r="H68" t="s">
         <v>358</v>
       </c>
+      <c r="I68" t="s">
+        <v>359</v>
+      </c>
       <c r="K68" t="s">
         <v>10</v>
       </c>
@@ -3660,6 +3864,9 @@
       <c r="H69" t="s">
         <v>358</v>
       </c>
+      <c r="I69" t="s">
+        <v>359</v>
+      </c>
       <c r="J69" t="s">
         <v>350</v>
       </c>
@@ -3689,6 +3896,9 @@
       <c r="H70" t="s">
         <v>358</v>
       </c>
+      <c r="I70" t="s">
+        <v>359</v>
+      </c>
       <c r="J70" t="s">
         <v>356</v>
       </c>
@@ -3721,6 +3931,9 @@
       <c r="H71" t="s">
         <v>358</v>
       </c>
+      <c r="I71" t="s">
+        <v>359</v>
+      </c>
       <c r="J71" t="s">
         <v>349</v>
       </c>
@@ -3756,6 +3969,9 @@
       <c r="H72" t="s">
         <v>358</v>
       </c>
+      <c r="I72" t="s">
+        <v>359</v>
+      </c>
       <c r="K72" t="s">
         <v>10</v>
       </c>
@@ -3785,6 +4001,9 @@
       <c r="H73" t="s">
         <v>358</v>
       </c>
+      <c r="I73" t="s">
+        <v>359</v>
+      </c>
       <c r="K73" t="s">
         <v>10</v>
       </c>
@@ -3817,6 +4036,9 @@
       <c r="H74" t="s">
         <v>358</v>
       </c>
+      <c r="I74" t="s">
+        <v>359</v>
+      </c>
       <c r="K74" t="s">
         <v>10</v>
       </c>
@@ -3846,6 +4068,9 @@
       <c r="H75" t="s">
         <v>358</v>
       </c>
+      <c r="I75" t="s">
+        <v>359</v>
+      </c>
       <c r="J75" t="s">
         <v>349</v>
       </c>
@@ -3875,6 +4100,9 @@
       <c r="H76" t="s">
         <v>358</v>
       </c>
+      <c r="I76" t="s">
+        <v>359</v>
+      </c>
       <c r="J76" t="s">
         <v>356</v>
       </c>
@@ -3907,6 +4135,9 @@
       <c r="H77" t="s">
         <v>358</v>
       </c>
+      <c r="I77" t="s">
+        <v>359</v>
+      </c>
       <c r="K77" t="s">
         <v>10</v>
       </c>
@@ -3939,6 +4170,9 @@
       <c r="H78" t="s">
         <v>358</v>
       </c>
+      <c r="I78" t="s">
+        <v>359</v>
+      </c>
       <c r="K78" t="s">
         <v>10</v>
       </c>
@@ -3968,6 +4202,9 @@
       <c r="H79" t="s">
         <v>358</v>
       </c>
+      <c r="I79" t="s">
+        <v>359</v>
+      </c>
       <c r="K79" t="s">
         <v>10</v>
       </c>
@@ -4000,6 +4237,9 @@
       <c r="H80" t="s">
         <v>358</v>
       </c>
+      <c r="I80" t="s">
+        <v>359</v>
+      </c>
       <c r="K80" t="s">
         <v>10</v>
       </c>
@@ -4029,6 +4269,9 @@
       <c r="H81" t="s">
         <v>358</v>
       </c>
+      <c r="I81" t="s">
+        <v>359</v>
+      </c>
       <c r="K81" t="s">
         <v>10</v>
       </c>
@@ -4061,6 +4304,9 @@
       <c r="H82" t="s">
         <v>358</v>
       </c>
+      <c r="I82" t="s">
+        <v>359</v>
+      </c>
       <c r="K82" t="s">
         <v>10</v>
       </c>
@@ -4090,6 +4336,9 @@
       <c r="H83" t="s">
         <v>358</v>
       </c>
+      <c r="I83" t="s">
+        <v>359</v>
+      </c>
       <c r="J83" t="s">
         <v>349</v>
       </c>
@@ -4125,6 +4374,9 @@
       <c r="H84" t="s">
         <v>358</v>
       </c>
+      <c r="I84" t="s">
+        <v>359</v>
+      </c>
       <c r="K84" t="s">
         <v>10</v>
       </c>
@@ -4157,6 +4409,9 @@
       <c r="H85" t="s">
         <v>358</v>
       </c>
+      <c r="I85" t="s">
+        <v>359</v>
+      </c>
       <c r="K85" t="s">
         <v>10</v>
       </c>
@@ -4186,6 +4441,9 @@
       <c r="H86" t="s">
         <v>358</v>
       </c>
+      <c r="I86" t="s">
+        <v>359</v>
+      </c>
       <c r="K86" t="s">
         <v>10</v>
       </c>
@@ -4218,6 +4476,9 @@
       <c r="H87" t="s">
         <v>358</v>
       </c>
+      <c r="I87" t="s">
+        <v>359</v>
+      </c>
       <c r="K87" t="s">
         <v>10</v>
       </c>
@@ -4250,6 +4511,9 @@
       <c r="H88" t="s">
         <v>358</v>
       </c>
+      <c r="I88" t="s">
+        <v>359</v>
+      </c>
       <c r="K88" t="s">
         <v>10</v>
       </c>
@@ -4282,6 +4546,9 @@
       <c r="H89" t="s">
         <v>358</v>
       </c>
+      <c r="I89" t="s">
+        <v>359</v>
+      </c>
       <c r="K89" t="s">
         <v>10</v>
       </c>
@@ -4314,6 +4581,9 @@
       <c r="H90" t="s">
         <v>358</v>
       </c>
+      <c r="I90" t="s">
+        <v>359</v>
+      </c>
       <c r="K90" t="s">
         <v>10</v>
       </c>
@@ -4346,6 +4616,9 @@
       <c r="H91" t="s">
         <v>358</v>
       </c>
+      <c r="I91" t="s">
+        <v>359</v>
+      </c>
       <c r="K91" t="s">
         <v>10</v>
       </c>
@@ -4378,6 +4651,9 @@
       <c r="H92" t="s">
         <v>358</v>
       </c>
+      <c r="I92" t="s">
+        <v>359</v>
+      </c>
       <c r="K92" t="s">
         <v>10</v>
       </c>
@@ -4407,6 +4683,9 @@
       <c r="H93" t="s">
         <v>358</v>
       </c>
+      <c r="I93" t="s">
+        <v>359</v>
+      </c>
       <c r="J93" t="s">
         <v>353</v>
       </c>
@@ -4442,6 +4721,9 @@
       <c r="H94" t="s">
         <v>358</v>
       </c>
+      <c r="I94" t="s">
+        <v>359</v>
+      </c>
       <c r="K94" t="s">
         <v>10</v>
       </c>
@@ -4471,6 +4753,9 @@
       <c r="H95" t="s">
         <v>358</v>
       </c>
+      <c r="I95" t="s">
+        <v>359</v>
+      </c>
       <c r="J95" t="s">
         <v>349</v>
       </c>
@@ -4487,6 +4772,9 @@
       </c>
       <c r="H96" t="s">
         <v>358</v>
+      </c>
+      <c r="I96" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/events.xlsx
+++ b/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\streamlit_tiznados\tiznados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102CAAA2-01BA-4F0B-BB86-98D238CDD4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D169907C-4C7A-4B0E-A043-F2A338B96FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="361">
   <si>
     <t>XY</t>
   </si>
@@ -1100,6 +1100,9 @@
   </si>
   <si>
     <t>https://youtu.be/7N6VSnEXyFQ</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1466,7 +1469,7 @@
   <dimension ref="A1:L96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I96"/>
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1811,6 +1814,9 @@
       <c r="E10" t="s">
         <v>59</v>
       </c>
+      <c r="G10" t="s">
+        <v>360</v>
+      </c>
       <c r="H10" t="s">
         <v>358</v>
       </c>
@@ -1948,6 +1954,9 @@
       <c r="E14" t="s">
         <v>76</v>
       </c>
+      <c r="G14" t="s">
+        <v>360</v>
+      </c>
       <c r="H14" t="s">
         <v>358</v>
       </c>
@@ -2960,6 +2969,9 @@
       <c r="E43" t="s">
         <v>184</v>
       </c>
+      <c r="G43" t="s">
+        <v>360</v>
+      </c>
       <c r="H43" t="s">
         <v>358</v>
       </c>
@@ -3167,6 +3179,9 @@
       <c r="E49" t="s">
         <v>207</v>
       </c>
+      <c r="G49" t="s">
+        <v>360</v>
+      </c>
       <c r="H49" t="s">
         <v>358</v>
       </c>
@@ -3304,6 +3319,9 @@
       <c r="E53" t="s">
         <v>221</v>
       </c>
+      <c r="G53" t="s">
+        <v>360</v>
+      </c>
       <c r="H53" t="s">
         <v>358</v>
       </c>
@@ -3374,6 +3392,9 @@
       <c r="E55" t="s">
         <v>228</v>
       </c>
+      <c r="G55" t="s">
+        <v>360</v>
+      </c>
       <c r="H55" t="s">
         <v>358</v>
       </c>
@@ -3718,6 +3739,9 @@
       <c r="E65" t="s">
         <v>256</v>
       </c>
+      <c r="G65" t="s">
+        <v>360</v>
+      </c>
       <c r="H65" t="s">
         <v>358</v>
       </c>
@@ -3893,6 +3917,9 @@
       <c r="E70" t="s">
         <v>271</v>
       </c>
+      <c r="G70" t="s">
+        <v>360</v>
+      </c>
       <c r="H70" t="s">
         <v>358</v>
       </c>
@@ -4096,6 +4123,9 @@
       </c>
       <c r="E76" t="s">
         <v>287</v>
+      </c>
+      <c r="G76" t="s">
+        <v>360</v>
       </c>
       <c r="H76" t="s">
         <v>358</v>

--- a/events.xlsx
+++ b/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\streamlit_tiznados\tiznados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D169907C-4C7A-4B0E-A043-F2A338B96FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF84272-FD20-4CE0-B8E3-88FFC1DCBE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="360">
   <si>
     <t>XY</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>19:05</t>
-  </si>
-  <si>
-    <t>2T</t>
   </si>
   <si>
     <t>True</t>
@@ -1159,8 +1156,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1975CA6-E80E-40A4-A9D5-728F867A63BD}" name="Tabla1" displayName="Tabla1" ref="A1:L96" totalsRowShown="0">
-  <autoFilter ref="A1:L96" xr:uid="{C1975CA6-E80E-40A4-A9D5-728F867A63BD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1975CA6-E80E-40A4-A9D5-728F867A63BD}" name="Tabla1" displayName="Tabla1" ref="A1:L95" totalsRowShown="0">
+  <autoFilter ref="A1:L95" xr:uid="{C1975CA6-E80E-40A4-A9D5-728F867A63BD}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{45CCCD5A-AFCF-487D-ADA1-0BFBB6505772}" name="Fase"/>
     <tableColumn id="2" xr3:uid="{4A939A0F-B787-4665-B94F-35DE80E0B243}" name="start_time"/>
@@ -1466,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77939FC4-FC73-4262-977F-310955BE7B1D}">
-  <dimension ref="A1:L96"/>
+  <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1500,7 +1497,7 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
@@ -1509,7 +1506,7 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
@@ -1523,69 +1520,69 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
       <c r="F2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
       <c r="G3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1593,69 +1590,69 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
       <c r="F4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
       <c r="G5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1663,104 +1660,104 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
       <c r="G7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>49</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>50</v>
       </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
       <c r="G8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K8" t="s">
         <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1768,34 +1765,34 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
         <v>52</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>53</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>54</v>
       </c>
-      <c r="E9" t="s">
-        <v>55</v>
-      </c>
       <c r="F9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1803,69 +1800,69 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>58</v>
       </c>
-      <c r="E10" t="s">
-        <v>59</v>
-      </c>
       <c r="G10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>61</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>62</v>
       </c>
-      <c r="E11" t="s">
-        <v>63</v>
-      </c>
       <c r="G11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K11" t="s">
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1873,104 +1870,104 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
         <v>64</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>65</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>66</v>
       </c>
-      <c r="E12" t="s">
-        <v>67</v>
-      </c>
       <c r="F12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K12" t="s">
         <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
         <v>68</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>69</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>70</v>
       </c>
-      <c r="E13" t="s">
-        <v>71</v>
-      </c>
       <c r="G13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K13" t="s">
         <v>10</v>
       </c>
       <c r="L13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
         <v>72</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>73</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>74</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>75</v>
       </c>
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
       <c r="G14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K14" t="s">
         <v>10</v>
       </c>
       <c r="L14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1978,69 +1975,69 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
         <v>77</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>78</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>79</v>
-      </c>
-      <c r="E15" t="s">
-        <v>80</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K15" t="s">
         <v>10</v>
       </c>
       <c r="L15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
         <v>81</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>82</v>
       </c>
-      <c r="E16" t="s">
-        <v>83</v>
-      </c>
       <c r="G16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K16" t="s">
         <v>10</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2048,101 +2045,101 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
         <v>84</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>85</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>86</v>
       </c>
-      <c r="E17" t="s">
-        <v>87</v>
-      </c>
       <c r="F17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K17" t="s">
         <v>10</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
         <v>88</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>89</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>90</v>
       </c>
-      <c r="E18" t="s">
-        <v>91</v>
-      </c>
       <c r="G18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K18" t="s">
         <v>10</v>
       </c>
       <c r="L18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
         <v>92</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>93</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>94</v>
       </c>
-      <c r="E19" t="s">
-        <v>95</v>
-      </c>
       <c r="G19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K19" t="s">
         <v>10</v>
       </c>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -2150,34 +2147,34 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
         <v>96</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>97</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>98</v>
       </c>
-      <c r="E20" t="s">
-        <v>99</v>
-      </c>
       <c r="F20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K20" t="s">
         <v>10</v>
       </c>
       <c r="L20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -2185,69 +2182,69 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" t="s">
         <v>100</v>
       </c>
-      <c r="C21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>101</v>
       </c>
-      <c r="E21" t="s">
-        <v>102</v>
-      </c>
       <c r="F21" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K21" t="s">
         <v>10</v>
       </c>
       <c r="L21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
         <v>103</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>104</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>105</v>
       </c>
-      <c r="E22" t="s">
-        <v>106</v>
-      </c>
       <c r="G22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K22" t="s">
         <v>10</v>
       </c>
       <c r="L22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -2255,69 +2252,69 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" t="s">
         <v>107</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>108</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>109</v>
       </c>
-      <c r="E23" t="s">
-        <v>110</v>
-      </c>
       <c r="F23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K23" t="s">
         <v>10</v>
       </c>
       <c r="L23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>112</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>113</v>
       </c>
-      <c r="E24" t="s">
-        <v>114</v>
-      </c>
       <c r="G24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K24" t="s">
         <v>10</v>
       </c>
       <c r="L24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -2325,69 +2322,69 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" t="s">
         <v>115</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>116</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>117</v>
-      </c>
-      <c r="E25" t="s">
-        <v>118</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K25" t="s">
         <v>10</v>
       </c>
       <c r="L25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" t="s">
         <v>119</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>120</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>121</v>
       </c>
-      <c r="E26" t="s">
-        <v>122</v>
-      </c>
       <c r="G26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K26" t="s">
         <v>10</v>
       </c>
       <c r="L26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -2395,69 +2392,69 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
         <v>123</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>124</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>125</v>
       </c>
-      <c r="E27" t="s">
-        <v>126</v>
-      </c>
       <c r="F27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K27" t="s">
         <v>10</v>
       </c>
       <c r="L27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" t="s">
         <v>127</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>128</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>129</v>
       </c>
-      <c r="E28" t="s">
-        <v>130</v>
-      </c>
       <c r="G28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K28" t="s">
         <v>10</v>
       </c>
       <c r="L28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -2465,34 +2462,34 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" t="s">
         <v>131</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>132</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>133</v>
       </c>
-      <c r="E29" t="s">
-        <v>134</v>
-      </c>
       <c r="F29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I29" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K29" t="s">
         <v>10</v>
       </c>
       <c r="L29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -2500,69 +2497,69 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" t="s">
         <v>135</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>136</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>137</v>
       </c>
-      <c r="E30" t="s">
-        <v>138</v>
-      </c>
       <c r="F30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K30" t="s">
         <v>10</v>
       </c>
       <c r="L30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" t="s">
         <v>139</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>140</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>141</v>
       </c>
-      <c r="E31" t="s">
-        <v>142</v>
-      </c>
       <c r="G31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K31" t="s">
         <v>10</v>
       </c>
       <c r="L31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -2570,69 +2567,69 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" t="s">
         <v>143</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>144</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>145</v>
       </c>
-      <c r="E32" t="s">
-        <v>146</v>
-      </c>
       <c r="F32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K32" t="s">
         <v>10</v>
       </c>
       <c r="L32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" t="s">
         <v>147</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>148</v>
       </c>
-      <c r="E33" t="s">
-        <v>149</v>
-      </c>
       <c r="G33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K33" t="s">
         <v>10</v>
       </c>
       <c r="L33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -2640,69 +2637,69 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" t="s">
         <v>150</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>151</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>152</v>
-      </c>
-      <c r="E34" t="s">
-        <v>153</v>
       </c>
       <c r="F34" t="s">
         <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I34" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K34" t="s">
         <v>10</v>
       </c>
       <c r="L34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" t="s">
         <v>154</v>
       </c>
-      <c r="C35" t="s">
-        <v>154</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>155</v>
       </c>
-      <c r="E35" t="s">
-        <v>156</v>
-      </c>
       <c r="G35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I35" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K35" t="s">
         <v>10</v>
       </c>
       <c r="L35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -2710,69 +2707,69 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" t="s">
         <v>157</v>
       </c>
-      <c r="C36" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>158</v>
       </c>
-      <c r="E36" t="s">
-        <v>159</v>
-      </c>
       <c r="F36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K36" t="s">
         <v>10</v>
       </c>
       <c r="L36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" t="s">
         <v>160</v>
       </c>
-      <c r="C37" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>161</v>
       </c>
-      <c r="E37" t="s">
-        <v>162</v>
-      </c>
       <c r="G37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I37" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K37" t="s">
         <v>10</v>
       </c>
       <c r="L37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -2780,34 +2777,34 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" t="s">
         <v>163</v>
       </c>
-      <c r="C38" t="s">
-        <v>163</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>164</v>
-      </c>
-      <c r="E38" t="s">
-        <v>165</v>
       </c>
       <c r="F38" t="s">
         <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I38" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K38" t="s">
         <v>10</v>
       </c>
       <c r="L38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -2815,34 +2812,34 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" t="s">
         <v>166</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>167</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>168</v>
       </c>
-      <c r="E39" t="s">
-        <v>169</v>
-      </c>
       <c r="F39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I39" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K39" t="s">
         <v>10</v>
       </c>
       <c r="L39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -2850,34 +2847,34 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" t="s">
         <v>170</v>
       </c>
-      <c r="C40" t="s">
-        <v>170</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>171</v>
-      </c>
-      <c r="E40" t="s">
-        <v>172</v>
       </c>
       <c r="F40" t="s">
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I40" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K40" t="s">
         <v>10</v>
       </c>
       <c r="L40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -2885,34 +2882,34 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" t="s">
         <v>173</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>174</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>175</v>
       </c>
-      <c r="E41" t="s">
-        <v>176</v>
-      </c>
       <c r="F41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G41" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H41" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I41" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K41" t="s">
         <v>10</v>
       </c>
       <c r="L41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -2920,72 +2917,72 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" t="s">
         <v>177</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>178</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>179</v>
       </c>
-      <c r="E42" t="s">
-        <v>180</v>
-      </c>
       <c r="F42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H42" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K42" t="s">
         <v>10</v>
       </c>
       <c r="L42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" t="s">
         <v>181</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>182</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>183</v>
       </c>
-      <c r="E43" t="s">
-        <v>184</v>
-      </c>
       <c r="G43" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I43" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J43" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K43" t="s">
         <v>10</v>
       </c>
       <c r="L43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -2993,34 +2990,34 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" t="s">
         <v>185</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>186</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>187</v>
-      </c>
-      <c r="E44" t="s">
-        <v>188</v>
       </c>
       <c r="F44" t="s">
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H44" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I44" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K44" t="s">
         <v>10</v>
       </c>
       <c r="L44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -3028,69 +3025,69 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" t="s">
         <v>189</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>190</v>
       </c>
-      <c r="E45" t="s">
-        <v>191</v>
-      </c>
       <c r="F45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G45" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H45" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I45" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K45" t="s">
         <v>10</v>
       </c>
       <c r="L45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46" t="s">
+        <v>191</v>
+      </c>
+      <c r="C46" t="s">
         <v>192</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>193</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>194</v>
       </c>
-      <c r="E46" t="s">
-        <v>195</v>
-      </c>
       <c r="G46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H46" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I46" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J46" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K46" t="s">
         <v>10</v>
       </c>
       <c r="L46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -3098,34 +3095,34 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C47" t="s">
         <v>196</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>197</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>198</v>
       </c>
-      <c r="E47" t="s">
-        <v>199</v>
-      </c>
       <c r="F47" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G47" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H47" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I47" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K47" t="s">
         <v>10</v>
       </c>
       <c r="L47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -3133,34 +3130,34 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" t="s">
         <v>200</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>201</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>202</v>
       </c>
-      <c r="E48" t="s">
-        <v>203</v>
-      </c>
       <c r="F48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H48" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I48" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K48" t="s">
         <v>10</v>
       </c>
       <c r="L48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -3168,69 +3165,69 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" t="s">
         <v>204</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>205</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>206</v>
       </c>
-      <c r="E49" t="s">
-        <v>207</v>
-      </c>
       <c r="G49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H49" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I49" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J49" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K49" t="s">
         <v>10</v>
       </c>
       <c r="L49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
+        <v>207</v>
+      </c>
+      <c r="C50" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" t="s">
         <v>208</v>
       </c>
-      <c r="C50" t="s">
-        <v>208</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>209</v>
       </c>
-      <c r="E50" t="s">
-        <v>210</v>
-      </c>
       <c r="G50" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H50" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I50" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J50" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K50" t="s">
         <v>10</v>
       </c>
       <c r="L50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -3238,34 +3235,34 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51" t="s">
         <v>211</v>
       </c>
-      <c r="C51" t="s">
-        <v>211</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>212</v>
-      </c>
-      <c r="E51" t="s">
-        <v>213</v>
       </c>
       <c r="F51" t="s">
         <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H51" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K51" t="s">
         <v>10</v>
       </c>
       <c r="L51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -3273,69 +3270,69 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
+        <v>213</v>
+      </c>
+      <c r="C52" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" t="s">
         <v>214</v>
       </c>
-      <c r="C52" t="s">
-        <v>214</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>215</v>
       </c>
-      <c r="E52" t="s">
-        <v>216</v>
-      </c>
       <c r="F52" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G52" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H52" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K52" t="s">
         <v>10</v>
       </c>
       <c r="L52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>216</v>
+      </c>
+      <c r="B53" t="s">
         <v>217</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>218</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>219</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>220</v>
       </c>
-      <c r="E53" t="s">
-        <v>221</v>
-      </c>
       <c r="G53" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H53" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I53" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J53" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K53" t="s">
         <v>10</v>
       </c>
       <c r="L53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -3343,37 +3340,37 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
+        <v>221</v>
+      </c>
+      <c r="C54" t="s">
+        <v>221</v>
+      </c>
+      <c r="D54" t="s">
         <v>222</v>
       </c>
-      <c r="C54" t="s">
-        <v>222</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>223</v>
       </c>
-      <c r="E54" t="s">
-        <v>224</v>
-      </c>
       <c r="F54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G54" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H54" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I54" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J54" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K54" t="s">
         <v>10</v>
       </c>
       <c r="L54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -3381,69 +3378,69 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
+        <v>224</v>
+      </c>
+      <c r="C55" t="s">
         <v>225</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>226</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>227</v>
       </c>
-      <c r="E55" t="s">
-        <v>228</v>
-      </c>
       <c r="G55" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H55" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I55" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J55" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K55" t="s">
         <v>10</v>
       </c>
       <c r="L55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C56" t="s">
+        <v>228</v>
+      </c>
+      <c r="D56" t="s">
         <v>229</v>
       </c>
-      <c r="C56" t="s">
-        <v>229</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>230</v>
       </c>
-      <c r="E56" t="s">
-        <v>231</v>
-      </c>
       <c r="G56" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H56" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I56" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J56" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K56" t="s">
         <v>10</v>
       </c>
       <c r="L56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -3451,66 +3448,66 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
+        <v>231</v>
+      </c>
+      <c r="C57" t="s">
+        <v>231</v>
+      </c>
+      <c r="D57" t="s">
         <v>232</v>
       </c>
-      <c r="C57" t="s">
-        <v>232</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>233</v>
       </c>
-      <c r="E57" t="s">
-        <v>234</v>
-      </c>
       <c r="F57" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G57" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H57" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I57" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K57" t="s">
         <v>10</v>
       </c>
       <c r="L57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B58" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" t="s">
+        <v>234</v>
+      </c>
+      <c r="D58" t="s">
         <v>235</v>
       </c>
-      <c r="C58" t="s">
-        <v>235</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>236</v>
       </c>
-      <c r="E58" t="s">
-        <v>237</v>
-      </c>
       <c r="G58" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H58" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I58" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K58" t="s">
         <v>10</v>
       </c>
       <c r="L58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -3518,104 +3515,104 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D59" t="s">
+        <v>237</v>
+      </c>
+      <c r="E59" t="s">
         <v>238</v>
       </c>
-      <c r="E59" t="s">
-        <v>239</v>
-      </c>
       <c r="F59" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G59" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H59" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I59" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K59" t="s">
         <v>10</v>
       </c>
       <c r="L59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D60" t="s">
+        <v>239</v>
+      </c>
+      <c r="E60" t="s">
         <v>240</v>
       </c>
-      <c r="E60" t="s">
-        <v>241</v>
-      </c>
       <c r="G60" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H60" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I60" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J60" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K60" t="s">
         <v>10</v>
       </c>
       <c r="L60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G61" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H61" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I61" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K61" t="s">
         <v>10</v>
       </c>
       <c r="L61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -3623,69 +3620,69 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
+        <v>243</v>
+      </c>
+      <c r="C62" t="s">
+        <v>243</v>
+      </c>
+      <c r="D62" t="s">
         <v>244</v>
       </c>
-      <c r="C62" t="s">
-        <v>244</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>245</v>
       </c>
-      <c r="E62" t="s">
-        <v>246</v>
-      </c>
       <c r="F62" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G62" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H62" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I62" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K62" t="s">
         <v>10</v>
       </c>
       <c r="L62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
+        <v>246</v>
+      </c>
+      <c r="C63" t="s">
+        <v>246</v>
+      </c>
+      <c r="D63" t="s">
         <v>247</v>
       </c>
-      <c r="C63" t="s">
-        <v>247</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>248</v>
       </c>
-      <c r="E63" t="s">
-        <v>249</v>
-      </c>
       <c r="G63" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I63" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J63" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K63" t="s">
         <v>10</v>
       </c>
       <c r="L63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -3693,34 +3690,34 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
+        <v>249</v>
+      </c>
+      <c r="C64" t="s">
+        <v>249</v>
+      </c>
+      <c r="D64" t="s">
         <v>250</v>
       </c>
-      <c r="C64" t="s">
-        <v>250</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>251</v>
       </c>
-      <c r="E64" t="s">
-        <v>252</v>
-      </c>
       <c r="F64" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G64" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H64" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I64" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K64" t="s">
         <v>10</v>
       </c>
       <c r="L64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -3728,69 +3725,69 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
+        <v>252</v>
+      </c>
+      <c r="C65" t="s">
         <v>253</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>254</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>255</v>
       </c>
-      <c r="E65" t="s">
-        <v>256</v>
-      </c>
       <c r="G65" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H65" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I65" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J65" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K65" t="s">
         <v>10</v>
       </c>
       <c r="L65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D66" t="s">
         <v>19</v>
       </c>
       <c r="E66" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G66" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H66" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I66" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J66" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K66" t="s">
         <v>10</v>
       </c>
       <c r="L66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -3798,34 +3795,34 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
+        <v>258</v>
+      </c>
+      <c r="C67" t="s">
+        <v>258</v>
+      </c>
+      <c r="D67" t="s">
         <v>259</v>
       </c>
-      <c r="C67" t="s">
-        <v>259</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>260</v>
-      </c>
-      <c r="E67" t="s">
-        <v>261</v>
       </c>
       <c r="F67" t="s">
         <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H67" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I67" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K67" t="s">
         <v>10</v>
       </c>
       <c r="L67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -3833,34 +3830,34 @@
         <v>3</v>
       </c>
       <c r="B68" t="s">
+        <v>261</v>
+      </c>
+      <c r="C68" t="s">
+        <v>261</v>
+      </c>
+      <c r="D68" t="s">
         <v>262</v>
       </c>
-      <c r="C68" t="s">
-        <v>262</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>263</v>
-      </c>
-      <c r="E68" t="s">
-        <v>264</v>
       </c>
       <c r="F68" t="s">
         <v>6</v>
       </c>
       <c r="G68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H68" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I68" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K68" t="s">
         <v>10</v>
       </c>
       <c r="L68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -3868,37 +3865,37 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
+        <v>264</v>
+      </c>
+      <c r="C69" t="s">
+        <v>264</v>
+      </c>
+      <c r="D69" t="s">
         <v>265</v>
       </c>
-      <c r="C69" t="s">
-        <v>265</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>266</v>
       </c>
-      <c r="E69" t="s">
-        <v>267</v>
-      </c>
       <c r="F69" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G69" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H69" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I69" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K69" t="s">
         <v>10</v>
       </c>
       <c r="L69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -3906,69 +3903,69 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
+        <v>267</v>
+      </c>
+      <c r="C70" t="s">
         <v>268</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>269</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>270</v>
       </c>
-      <c r="E70" t="s">
-        <v>271</v>
-      </c>
       <c r="G70" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H70" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I70" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J70" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K70" t="s">
         <v>10</v>
       </c>
       <c r="L70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B71" t="s">
+        <v>271</v>
+      </c>
+      <c r="C71" t="s">
+        <v>271</v>
+      </c>
+      <c r="D71" t="s">
         <v>272</v>
       </c>
-      <c r="C71" t="s">
-        <v>272</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>273</v>
       </c>
-      <c r="E71" t="s">
-        <v>274</v>
-      </c>
       <c r="G71" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H71" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I71" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J71" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K71" t="s">
         <v>10</v>
       </c>
       <c r="L71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -3976,66 +3973,66 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C72" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F72" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G72" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H72" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I72" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K72" t="s">
         <v>10</v>
       </c>
       <c r="L72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B73" t="s">
+        <v>275</v>
+      </c>
+      <c r="C73" t="s">
+        <v>275</v>
+      </c>
+      <c r="D73" t="s">
         <v>276</v>
       </c>
-      <c r="C73" t="s">
-        <v>276</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>277</v>
       </c>
-      <c r="E73" t="s">
-        <v>278</v>
-      </c>
       <c r="G73" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H73" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I73" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K73" t="s">
         <v>10</v>
       </c>
       <c r="L73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -4043,69 +4040,69 @@
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C74" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D74" t="s">
+        <v>278</v>
+      </c>
+      <c r="E74" t="s">
         <v>279</v>
       </c>
-      <c r="E74" t="s">
-        <v>280</v>
-      </c>
       <c r="F74" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H74" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I74" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K74" t="s">
         <v>10</v>
       </c>
       <c r="L74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B75" t="s">
+        <v>280</v>
+      </c>
+      <c r="C75" t="s">
+        <v>280</v>
+      </c>
+      <c r="D75" t="s">
         <v>281</v>
       </c>
-      <c r="C75" t="s">
-        <v>281</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>282</v>
       </c>
-      <c r="E75" t="s">
-        <v>283</v>
-      </c>
       <c r="G75" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H75" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I75" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J75" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K75" t="s">
         <v>10</v>
       </c>
       <c r="L75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -4113,66 +4110,66 @@
         <v>7</v>
       </c>
       <c r="B76" t="s">
+        <v>283</v>
+      </c>
+      <c r="C76" t="s">
         <v>284</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>285</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>286</v>
       </c>
-      <c r="E76" t="s">
-        <v>287</v>
-      </c>
       <c r="G76" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H76" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I76" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J76" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K76" t="s">
         <v>10</v>
       </c>
       <c r="L76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B77" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C77" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D77" t="s">
+        <v>287</v>
+      </c>
+      <c r="E77" t="s">
         <v>288</v>
       </c>
-      <c r="E77" t="s">
-        <v>289</v>
-      </c>
       <c r="G77" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H77" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I77" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K77" t="s">
         <v>10</v>
       </c>
       <c r="L77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -4180,66 +4177,66 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
+        <v>289</v>
+      </c>
+      <c r="C78" t="s">
+        <v>289</v>
+      </c>
+      <c r="D78" t="s">
         <v>290</v>
       </c>
-      <c r="C78" t="s">
-        <v>290</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>291</v>
       </c>
-      <c r="E78" t="s">
-        <v>292</v>
-      </c>
       <c r="F78" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G78" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H78" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I78" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K78" t="s">
         <v>10</v>
       </c>
       <c r="L78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B79" t="s">
+        <v>292</v>
+      </c>
+      <c r="C79" t="s">
+        <v>292</v>
+      </c>
+      <c r="D79" t="s">
         <v>293</v>
       </c>
-      <c r="C79" t="s">
-        <v>293</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>294</v>
       </c>
-      <c r="E79" t="s">
-        <v>295</v>
-      </c>
       <c r="G79" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H79" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I79" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K79" t="s">
         <v>10</v>
       </c>
       <c r="L79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -4247,66 +4244,66 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
+        <v>295</v>
+      </c>
+      <c r="C80" t="s">
+        <v>295</v>
+      </c>
+      <c r="D80" t="s">
         <v>296</v>
       </c>
-      <c r="C80" t="s">
-        <v>296</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>297</v>
-      </c>
-      <c r="E80" t="s">
-        <v>298</v>
       </c>
       <c r="F80" t="s">
         <v>6</v>
       </c>
       <c r="G80" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H80" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I80" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K80" t="s">
         <v>10</v>
       </c>
       <c r="L80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B81" t="s">
+        <v>298</v>
+      </c>
+      <c r="C81" t="s">
+        <v>298</v>
+      </c>
+      <c r="D81" t="s">
         <v>299</v>
       </c>
-      <c r="C81" t="s">
-        <v>299</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>300</v>
       </c>
-      <c r="E81" t="s">
-        <v>301</v>
-      </c>
       <c r="G81" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H81" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I81" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K81" t="s">
         <v>10</v>
       </c>
       <c r="L81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -4314,69 +4311,69 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
+        <v>301</v>
+      </c>
+      <c r="C82" t="s">
+        <v>301</v>
+      </c>
+      <c r="D82" t="s">
         <v>302</v>
       </c>
-      <c r="C82" t="s">
-        <v>302</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>303</v>
       </c>
-      <c r="E82" t="s">
-        <v>304</v>
-      </c>
       <c r="F82" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G82" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H82" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I82" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K82" t="s">
         <v>10</v>
       </c>
       <c r="L82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B83" t="s">
+        <v>304</v>
+      </c>
+      <c r="C83" t="s">
+        <v>304</v>
+      </c>
+      <c r="D83" t="s">
         <v>305</v>
       </c>
-      <c r="C83" t="s">
-        <v>305</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>306</v>
       </c>
-      <c r="E83" t="s">
-        <v>307</v>
-      </c>
       <c r="G83" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H83" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I83" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J83" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K83" t="s">
         <v>10</v>
       </c>
       <c r="L83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -4384,34 +4381,34 @@
         <v>1</v>
       </c>
       <c r="B84" t="s">
+        <v>307</v>
+      </c>
+      <c r="C84" t="s">
+        <v>307</v>
+      </c>
+      <c r="D84" t="s">
         <v>308</v>
       </c>
-      <c r="C84" t="s">
-        <v>308</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>309</v>
       </c>
-      <c r="E84" t="s">
-        <v>310</v>
-      </c>
       <c r="F84" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G84" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H84" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I84" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K84" t="s">
         <v>10</v>
       </c>
       <c r="L84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -4419,66 +4416,66 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
+        <v>310</v>
+      </c>
+      <c r="C85" t="s">
+        <v>310</v>
+      </c>
+      <c r="D85" t="s">
         <v>311</v>
       </c>
-      <c r="C85" t="s">
-        <v>311</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>312</v>
       </c>
-      <c r="E85" t="s">
-        <v>313</v>
-      </c>
       <c r="F85" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G85" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H85" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I85" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K85" t="s">
         <v>10</v>
       </c>
       <c r="L85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B86" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C86" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D86" t="s">
+        <v>313</v>
+      </c>
+      <c r="E86" t="s">
         <v>314</v>
       </c>
-      <c r="E86" t="s">
-        <v>315</v>
-      </c>
       <c r="G86" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H86" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I86" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K86" t="s">
         <v>10</v>
       </c>
       <c r="L86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -4486,34 +4483,34 @@
         <v>1</v>
       </c>
       <c r="B87" t="s">
+        <v>315</v>
+      </c>
+      <c r="C87" t="s">
+        <v>315</v>
+      </c>
+      <c r="D87" t="s">
         <v>316</v>
       </c>
-      <c r="C87" t="s">
-        <v>316</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>317</v>
-      </c>
-      <c r="E87" t="s">
-        <v>318</v>
       </c>
       <c r="F87" t="s">
         <v>2</v>
       </c>
       <c r="G87" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H87" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I87" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K87" t="s">
         <v>10</v>
       </c>
       <c r="L87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -4521,34 +4518,34 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C88" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D88" t="s">
+        <v>318</v>
+      </c>
+      <c r="E88" t="s">
         <v>319</v>
       </c>
-      <c r="E88" t="s">
-        <v>320</v>
-      </c>
       <c r="F88" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G88" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H88" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I88" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K88" t="s">
         <v>10</v>
       </c>
       <c r="L88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -4556,34 +4553,34 @@
         <v>1</v>
       </c>
       <c r="B89" t="s">
+        <v>320</v>
+      </c>
+      <c r="C89" t="s">
+        <v>320</v>
+      </c>
+      <c r="D89" t="s">
         <v>321</v>
       </c>
-      <c r="C89" t="s">
-        <v>321</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>322</v>
       </c>
-      <c r="E89" t="s">
-        <v>323</v>
-      </c>
       <c r="F89" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G89" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H89" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I89" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K89" t="s">
         <v>10</v>
       </c>
       <c r="L89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -4591,34 +4588,34 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
+        <v>323</v>
+      </c>
+      <c r="C90" t="s">
+        <v>323</v>
+      </c>
+      <c r="D90" t="s">
         <v>324</v>
       </c>
-      <c r="C90" t="s">
-        <v>324</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>325</v>
       </c>
-      <c r="E90" t="s">
-        <v>326</v>
-      </c>
       <c r="F90" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G90" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H90" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I90" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K90" t="s">
         <v>10</v>
       </c>
       <c r="L90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -4626,34 +4623,34 @@
         <v>1</v>
       </c>
       <c r="B91" t="s">
+        <v>326</v>
+      </c>
+      <c r="C91" t="s">
+        <v>326</v>
+      </c>
+      <c r="D91" t="s">
         <v>327</v>
       </c>
-      <c r="C91" t="s">
-        <v>327</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>328</v>
       </c>
-      <c r="E91" t="s">
-        <v>329</v>
-      </c>
       <c r="F91" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G91" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H91" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I91" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K91" t="s">
         <v>10</v>
       </c>
       <c r="L91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -4661,69 +4658,69 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
+        <v>329</v>
+      </c>
+      <c r="C92" t="s">
+        <v>329</v>
+      </c>
+      <c r="D92" t="s">
         <v>330</v>
       </c>
-      <c r="C92" t="s">
-        <v>330</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>331</v>
       </c>
-      <c r="E92" t="s">
-        <v>332</v>
-      </c>
       <c r="F92" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G92" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H92" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I92" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K92" t="s">
         <v>10</v>
       </c>
       <c r="L92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B93" t="s">
+        <v>332</v>
+      </c>
+      <c r="C93" t="s">
+        <v>332</v>
+      </c>
+      <c r="D93" t="s">
         <v>333</v>
       </c>
-      <c r="C93" t="s">
-        <v>333</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>334</v>
       </c>
-      <c r="E93" t="s">
-        <v>335</v>
-      </c>
       <c r="G93" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H93" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I93" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J93" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K93" t="s">
         <v>10</v>
       </c>
       <c r="L93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -4731,80 +4728,69 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
+        <v>335</v>
+      </c>
+      <c r="C94" t="s">
+        <v>335</v>
+      </c>
+      <c r="D94" t="s">
         <v>336</v>
       </c>
-      <c r="C94" t="s">
-        <v>336</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>337</v>
       </c>
-      <c r="E94" t="s">
-        <v>338</v>
-      </c>
       <c r="F94" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G94" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H94" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I94" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K94" t="s">
         <v>10</v>
       </c>
       <c r="L94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B95" t="s">
+        <v>338</v>
+      </c>
+      <c r="C95" t="s">
+        <v>338</v>
+      </c>
+      <c r="D95" t="s">
         <v>339</v>
       </c>
-      <c r="C95" t="s">
-        <v>339</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>340</v>
       </c>
-      <c r="E95" t="s">
-        <v>341</v>
-      </c>
       <c r="G95" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I95" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J95" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K95" t="s">
         <v>10</v>
       </c>
       <c r="L95" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>20</v>
-      </c>
-      <c r="H96" t="s">
-        <v>358</v>
-      </c>
-      <c r="I96" t="s">
-        <v>359</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/events.xlsx
+++ b/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\streamlit_tiznados\tiznados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF84272-FD20-4CE0-B8E3-88FFC1DCBE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCBBE30-891B-4E22-9130-1295F615299B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,9 +94,6 @@
     <t>00:23</t>
   </si>
   <si>
-    <t>67;56 33;2</t>
-  </si>
-  <si>
     <t>Defensa</t>
   </si>
   <si>
@@ -1100,6 +1097,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>64;56 33;2</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1157,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1975CA6-E80E-40A4-A9D5-728F867A63BD}" name="Tabla1" displayName="Tabla1" ref="A1:L95" totalsRowShown="0">
-  <autoFilter ref="A1:L95" xr:uid="{C1975CA6-E80E-40A4-A9D5-728F867A63BD}"/>
+  <autoFilter ref="A1:L95" xr:uid="{C1975CA6-E80E-40A4-A9D5-728F867A63BD}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Ataque"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{45CCCD5A-AFCF-487D-ADA1-0BFBB6505772}" name="Fase"/>
     <tableColumn id="2" xr3:uid="{4A939A0F-B787-4665-B94F-35DE80E0B243}" name="start_time"/>
@@ -1465,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77939FC4-FC73-4262-977F-310955BE7B1D}">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96:XFD96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1497,7 +1503,7 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
@@ -1506,7 +1512,7 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
@@ -1529,54 +1535,54 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I2" t="s">
+        <v>357</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
         <v>345</v>
       </c>
-      <c r="H2" t="s">
-        <v>357</v>
-      </c>
-      <c r="I2" t="s">
-        <v>358</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>346</v>
-      </c>
       <c r="H3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
@@ -1590,63 +1596,63 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H4" t="s">
+        <v>356</v>
+      </c>
+      <c r="I4" t="s">
+        <v>357</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
-        <v>341</v>
-      </c>
-      <c r="G4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H4" t="s">
-        <v>357</v>
-      </c>
-      <c r="I4" t="s">
-        <v>358</v>
-      </c>
-      <c r="K4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
       <c r="G5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
@@ -1660,98 +1666,98 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
       <c r="G6" t="s">
+        <v>344</v>
+      </c>
+      <c r="H6" t="s">
+        <v>356</v>
+      </c>
+      <c r="I6" t="s">
+        <v>357</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
         <v>345</v>
       </c>
-      <c r="H6" t="s">
-        <v>357</v>
-      </c>
-      <c r="I6" t="s">
-        <v>358</v>
-      </c>
-      <c r="K6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
+        <v>356</v>
+      </c>
+      <c r="I7" t="s">
+        <v>357</v>
+      </c>
+      <c r="J7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>46</v>
       </c>
-      <c r="G7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H7" t="s">
-        <v>357</v>
-      </c>
-      <c r="I7" t="s">
-        <v>358</v>
-      </c>
-      <c r="J7" t="s">
-        <v>348</v>
-      </c>
-      <c r="K7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>48</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>49</v>
       </c>
-      <c r="E8" t="s">
-        <v>50</v>
-      </c>
       <c r="G8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K8" t="s">
         <v>10</v>
@@ -1760,33 +1766,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>52</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>53</v>
       </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
       <c r="F9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
@@ -1795,68 +1801,68 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
         <v>55</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
+        <v>358</v>
+      </c>
+      <c r="H10" t="s">
+        <v>356</v>
+      </c>
+      <c r="I10" t="s">
+        <v>357</v>
+      </c>
+      <c r="J10" t="s">
+        <v>349</v>
+      </c>
+      <c r="K10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
         <v>58</v>
       </c>
-      <c r="G10" t="s">
-        <v>359</v>
-      </c>
-      <c r="H10" t="s">
-        <v>357</v>
-      </c>
-      <c r="I10" t="s">
-        <v>358</v>
-      </c>
-      <c r="J10" t="s">
-        <v>350</v>
-      </c>
-      <c r="K10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>59</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>60</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>61</v>
       </c>
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
       <c r="G11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K11" t="s">
         <v>10</v>
@@ -1870,98 +1876,98 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>340</v>
+      </c>
+      <c r="G12" t="s">
+        <v>344</v>
+      </c>
+      <c r="H12" t="s">
+        <v>356</v>
+      </c>
+      <c r="I12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>66</v>
       </c>
-      <c r="F12" t="s">
-        <v>341</v>
-      </c>
-      <c r="G12" t="s">
-        <v>345</v>
-      </c>
-      <c r="H12" t="s">
-        <v>357</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>344</v>
+      </c>
+      <c r="H13" t="s">
+        <v>356</v>
+      </c>
+      <c r="I13" t="s">
+        <v>357</v>
+      </c>
+      <c r="J13" t="s">
+        <v>347</v>
+      </c>
+      <c r="K13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
         <v>358</v>
       </c>
-      <c r="K12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" t="s">
-        <v>345</v>
-      </c>
-      <c r="H13" t="s">
-        <v>357</v>
-      </c>
-      <c r="I13" t="s">
-        <v>358</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="H14" t="s">
+        <v>356</v>
+      </c>
+      <c r="I14" t="s">
+        <v>357</v>
+      </c>
+      <c r="J14" t="s">
         <v>348</v>
-      </c>
-      <c r="K13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" t="s">
-        <v>359</v>
-      </c>
-      <c r="H14" t="s">
-        <v>357</v>
-      </c>
-      <c r="I14" t="s">
-        <v>358</v>
-      </c>
-      <c r="J14" t="s">
-        <v>349</v>
       </c>
       <c r="K14" t="s">
         <v>10</v>
@@ -1975,28 +1981,28 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
         <v>76</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>77</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>78</v>
-      </c>
-      <c r="E15" t="s">
-        <v>79</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K15" t="s">
         <v>10</v>
@@ -2005,33 +2011,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
         <v>80</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>81</v>
       </c>
-      <c r="E16" t="s">
-        <v>82</v>
-      </c>
       <c r="G16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K16" t="s">
         <v>10</v>
@@ -2045,95 +2051,95 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
         <v>83</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>84</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>85</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>342</v>
+      </c>
+      <c r="G17" t="s">
+        <v>344</v>
+      </c>
+      <c r="H17" t="s">
+        <v>356</v>
+      </c>
+      <c r="I17" t="s">
+        <v>357</v>
+      </c>
+      <c r="K17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
         <v>86</v>
       </c>
-      <c r="F17" t="s">
-        <v>343</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
         <v>345</v>
       </c>
-      <c r="H17" t="s">
-        <v>357</v>
-      </c>
-      <c r="I17" t="s">
-        <v>358</v>
-      </c>
-      <c r="K17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
+        <v>356</v>
+      </c>
+      <c r="I18" t="s">
+        <v>357</v>
+      </c>
+      <c r="K18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
         <v>90</v>
       </c>
-      <c r="G18" t="s">
-        <v>346</v>
-      </c>
-      <c r="H18" t="s">
-        <v>357</v>
-      </c>
-      <c r="I18" t="s">
-        <v>358</v>
-      </c>
-      <c r="K18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>91</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>92</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>93</v>
       </c>
-      <c r="E19" t="s">
-        <v>94</v>
-      </c>
       <c r="G19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K19" t="s">
         <v>10</v>
@@ -2142,33 +2148,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
       <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
         <v>95</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>96</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>97</v>
       </c>
-      <c r="E20" t="s">
-        <v>98</v>
-      </c>
       <c r="F20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K20" t="s">
         <v>10</v>
@@ -2182,63 +2188,63 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
         <v>99</v>
       </c>
-      <c r="C21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>100</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>340</v>
+      </c>
+      <c r="G21" t="s">
+        <v>344</v>
+      </c>
+      <c r="H21" t="s">
+        <v>356</v>
+      </c>
+      <c r="I21" t="s">
+        <v>357</v>
+      </c>
+      <c r="K21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
         <v>101</v>
       </c>
-      <c r="F21" t="s">
-        <v>341</v>
-      </c>
-      <c r="G21" t="s">
-        <v>345</v>
-      </c>
-      <c r="H21" t="s">
-        <v>357</v>
-      </c>
-      <c r="I21" t="s">
-        <v>358</v>
-      </c>
-      <c r="K21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>102</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>103</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>104</v>
       </c>
-      <c r="E22" t="s">
-        <v>105</v>
-      </c>
       <c r="G22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K22" t="s">
         <v>10</v>
@@ -2252,63 +2258,63 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
         <v>106</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>107</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>108</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>342</v>
+      </c>
+      <c r="G23" t="s">
+        <v>344</v>
+      </c>
+      <c r="H23" t="s">
+        <v>356</v>
+      </c>
+      <c r="I23" t="s">
+        <v>357</v>
+      </c>
+      <c r="K23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
         <v>109</v>
       </c>
-      <c r="F23" t="s">
-        <v>343</v>
-      </c>
-      <c r="G23" t="s">
-        <v>345</v>
-      </c>
-      <c r="H23" t="s">
-        <v>357</v>
-      </c>
-      <c r="I23" t="s">
-        <v>358</v>
-      </c>
-      <c r="K23" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>110</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>111</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>112</v>
       </c>
-      <c r="E24" t="s">
-        <v>113</v>
-      </c>
       <c r="G24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K24" t="s">
         <v>10</v>
@@ -2322,28 +2328,28 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" t="s">
         <v>114</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>115</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>116</v>
-      </c>
-      <c r="E25" t="s">
-        <v>117</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K25" t="s">
         <v>10</v>
@@ -2352,33 +2358,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
         <v>118</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>119</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>120</v>
       </c>
-      <c r="E26" t="s">
-        <v>121</v>
-      </c>
       <c r="G26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K26" t="s">
         <v>10</v>
@@ -2392,63 +2398,63 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
         <v>122</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>123</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>124</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>340</v>
+      </c>
+      <c r="G27" t="s">
+        <v>344</v>
+      </c>
+      <c r="H27" t="s">
+        <v>356</v>
+      </c>
+      <c r="I27" t="s">
+        <v>357</v>
+      </c>
+      <c r="K27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
         <v>125</v>
       </c>
-      <c r="F27" t="s">
-        <v>341</v>
-      </c>
-      <c r="G27" t="s">
-        <v>345</v>
-      </c>
-      <c r="H27" t="s">
-        <v>357</v>
-      </c>
-      <c r="I27" t="s">
-        <v>358</v>
-      </c>
-      <c r="K27" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>126</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>127</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>128</v>
       </c>
-      <c r="E28" t="s">
-        <v>129</v>
-      </c>
       <c r="G28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K28" t="s">
         <v>10</v>
@@ -2462,28 +2468,28 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" t="s">
         <v>130</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>131</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>132</v>
       </c>
-      <c r="E29" t="s">
-        <v>133</v>
-      </c>
       <c r="F29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K29" t="s">
         <v>10</v>
@@ -2492,68 +2498,68 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
       <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" t="s">
         <v>134</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>135</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>136</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>341</v>
+      </c>
+      <c r="G30" t="s">
+        <v>344</v>
+      </c>
+      <c r="H30" t="s">
+        <v>356</v>
+      </c>
+      <c r="I30" t="s">
+        <v>357</v>
+      </c>
+      <c r="K30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
         <v>137</v>
       </c>
-      <c r="F30" t="s">
-        <v>342</v>
-      </c>
-      <c r="G30" t="s">
-        <v>345</v>
-      </c>
-      <c r="H30" t="s">
-        <v>357</v>
-      </c>
-      <c r="I30" t="s">
-        <v>358</v>
-      </c>
-      <c r="K30" t="s">
-        <v>10</v>
-      </c>
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>138</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>139</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>140</v>
       </c>
-      <c r="E31" t="s">
-        <v>141</v>
-      </c>
       <c r="G31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K31" t="s">
         <v>10</v>
@@ -2567,63 +2573,63 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" t="s">
         <v>142</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>143</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>144</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
+        <v>340</v>
+      </c>
+      <c r="G32" t="s">
+        <v>344</v>
+      </c>
+      <c r="H32" t="s">
+        <v>356</v>
+      </c>
+      <c r="I32" t="s">
+        <v>357</v>
+      </c>
+      <c r="K32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" t="s">
         <v>145</v>
       </c>
-      <c r="F32" t="s">
-        <v>341</v>
-      </c>
-      <c r="G32" t="s">
-        <v>345</v>
-      </c>
-      <c r="H32" t="s">
-        <v>357</v>
-      </c>
-      <c r="I32" t="s">
-        <v>358</v>
-      </c>
-      <c r="K32" t="s">
-        <v>10</v>
-      </c>
-      <c r="L32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>146</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>147</v>
       </c>
-      <c r="E33" t="s">
-        <v>148</v>
-      </c>
       <c r="G33" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K33" t="s">
         <v>10</v>
@@ -2637,28 +2643,28 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" t="s">
         <v>149</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>150</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>151</v>
-      </c>
-      <c r="E34" t="s">
-        <v>152</v>
       </c>
       <c r="F34" t="s">
         <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K34" t="s">
         <v>10</v>
@@ -2667,33 +2673,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" t="s">
         <v>153</v>
       </c>
-      <c r="C35" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>154</v>
       </c>
-      <c r="E35" t="s">
-        <v>155</v>
-      </c>
       <c r="G35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K35" t="s">
         <v>10</v>
@@ -2702,68 +2708,68 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1</v>
       </c>
       <c r="B36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" t="s">
         <v>156</v>
       </c>
-      <c r="C36" t="s">
-        <v>156</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>157</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
+        <v>341</v>
+      </c>
+      <c r="G36" t="s">
+        <v>344</v>
+      </c>
+      <c r="H36" t="s">
+        <v>356</v>
+      </c>
+      <c r="I36" t="s">
+        <v>357</v>
+      </c>
+      <c r="K36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
         <v>158</v>
       </c>
-      <c r="F36" t="s">
-        <v>342</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="C37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" t="s">
+        <v>160</v>
+      </c>
+      <c r="G37" t="s">
         <v>345</v>
       </c>
-      <c r="H36" t="s">
-        <v>357</v>
-      </c>
-      <c r="I36" t="s">
-        <v>358</v>
-      </c>
-      <c r="K36" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" t="s">
-        <v>159</v>
-      </c>
-      <c r="D37" t="s">
-        <v>160</v>
-      </c>
-      <c r="E37" t="s">
-        <v>161</v>
-      </c>
-      <c r="G37" t="s">
-        <v>346</v>
-      </c>
       <c r="H37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K37" t="s">
         <v>10</v>
@@ -2772,33 +2778,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1</v>
       </c>
       <c r="B38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" t="s">
         <v>162</v>
       </c>
-      <c r="C38" t="s">
-        <v>162</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>163</v>
-      </c>
-      <c r="E38" t="s">
-        <v>164</v>
       </c>
       <c r="F38" t="s">
         <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H38" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K38" t="s">
         <v>10</v>
@@ -2812,28 +2818,28 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" t="s">
         <v>165</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>166</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>167</v>
       </c>
-      <c r="E39" t="s">
-        <v>168</v>
-      </c>
       <c r="F39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K39" t="s">
         <v>10</v>
@@ -2847,28 +2853,28 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" t="s">
         <v>169</v>
       </c>
-      <c r="C40" t="s">
-        <v>169</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>170</v>
-      </c>
-      <c r="E40" t="s">
-        <v>171</v>
       </c>
       <c r="F40" t="s">
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K40" t="s">
         <v>10</v>
@@ -2882,28 +2888,28 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" t="s">
         <v>172</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>173</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>174</v>
       </c>
-      <c r="E41" t="s">
-        <v>175</v>
-      </c>
       <c r="F41" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H41" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I41" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K41" t="s">
         <v>10</v>
@@ -2912,71 +2918,71 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1</v>
       </c>
       <c r="B42" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" t="s">
         <v>176</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>177</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>178</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
+        <v>341</v>
+      </c>
+      <c r="G42" t="s">
+        <v>345</v>
+      </c>
+      <c r="H42" t="s">
+        <v>356</v>
+      </c>
+      <c r="I42" t="s">
+        <v>357</v>
+      </c>
+      <c r="J42" t="s">
+        <v>348</v>
+      </c>
+      <c r="K42" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" t="s">
         <v>179</v>
       </c>
-      <c r="F42" t="s">
-        <v>342</v>
-      </c>
-      <c r="G42" t="s">
-        <v>346</v>
-      </c>
-      <c r="H42" t="s">
-        <v>357</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="C43" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" t="s">
+        <v>182</v>
+      </c>
+      <c r="G43" t="s">
         <v>358</v>
       </c>
-      <c r="J42" t="s">
-        <v>349</v>
-      </c>
-      <c r="K42" t="s">
-        <v>10</v>
-      </c>
-      <c r="L42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C43" t="s">
-        <v>181</v>
-      </c>
-      <c r="D43" t="s">
-        <v>182</v>
-      </c>
-      <c r="E43" t="s">
-        <v>183</v>
-      </c>
-      <c r="G43" t="s">
-        <v>359</v>
-      </c>
       <c r="H43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K43" t="s">
         <v>10</v>
@@ -2990,28 +2996,28 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" t="s">
         <v>184</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>185</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>186</v>
-      </c>
-      <c r="E44" t="s">
-        <v>187</v>
       </c>
       <c r="F44" t="s">
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H44" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I44" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K44" t="s">
         <v>10</v>
@@ -3025,63 +3031,63 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C45" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" t="s">
         <v>188</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>189</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
+        <v>340</v>
+      </c>
+      <c r="G45" t="s">
+        <v>344</v>
+      </c>
+      <c r="H45" t="s">
+        <v>356</v>
+      </c>
+      <c r="I45" t="s">
+        <v>357</v>
+      </c>
+      <c r="K45" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" t="s">
         <v>190</v>
       </c>
-      <c r="F45" t="s">
-        <v>341</v>
-      </c>
-      <c r="G45" t="s">
-        <v>345</v>
-      </c>
-      <c r="H45" t="s">
-        <v>357</v>
-      </c>
-      <c r="I45" t="s">
-        <v>358</v>
-      </c>
-      <c r="K45" t="s">
-        <v>10</v>
-      </c>
-      <c r="L45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>191</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>192</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>193</v>
       </c>
-      <c r="E46" t="s">
-        <v>194</v>
-      </c>
       <c r="G46" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H46" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I46" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J46" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K46" t="s">
         <v>10</v>
@@ -3095,28 +3101,28 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" t="s">
         <v>195</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>196</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>197</v>
       </c>
-      <c r="E47" t="s">
-        <v>198</v>
-      </c>
       <c r="F47" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G47" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H47" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I47" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K47" t="s">
         <v>10</v>
@@ -3130,28 +3136,28 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
+        <v>198</v>
+      </c>
+      <c r="C48" t="s">
         <v>199</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>200</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>201</v>
       </c>
-      <c r="E48" t="s">
-        <v>202</v>
-      </c>
       <c r="F48" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G48" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H48" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I48" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K48" t="s">
         <v>10</v>
@@ -3160,68 +3166,68 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
       <c r="B49" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49" t="s">
         <v>203</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>204</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>205</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
+        <v>358</v>
+      </c>
+      <c r="H49" t="s">
+        <v>356</v>
+      </c>
+      <c r="I49" t="s">
+        <v>357</v>
+      </c>
+      <c r="J49" t="s">
+        <v>354</v>
+      </c>
+      <c r="K49" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" t="s">
         <v>206</v>
       </c>
-      <c r="G49" t="s">
-        <v>359</v>
-      </c>
-      <c r="H49" t="s">
-        <v>357</v>
-      </c>
-      <c r="I49" t="s">
-        <v>358</v>
-      </c>
-      <c r="J49" t="s">
-        <v>355</v>
-      </c>
-      <c r="K49" t="s">
-        <v>10</v>
-      </c>
-      <c r="L49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
+        <v>206</v>
+      </c>
+      <c r="D50" t="s">
         <v>207</v>
       </c>
-      <c r="C50" t="s">
-        <v>207</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>208</v>
       </c>
-      <c r="E50" t="s">
-        <v>209</v>
-      </c>
       <c r="G50" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H50" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I50" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J50" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K50" t="s">
         <v>10</v>
@@ -3230,33 +3236,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1</v>
       </c>
       <c r="B51" t="s">
+        <v>209</v>
+      </c>
+      <c r="C51" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" t="s">
         <v>210</v>
       </c>
-      <c r="C51" t="s">
-        <v>210</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>211</v>
-      </c>
-      <c r="E51" t="s">
-        <v>212</v>
       </c>
       <c r="F51" t="s">
         <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I51" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K51" t="s">
         <v>10</v>
@@ -3270,63 +3276,63 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" t="s">
+        <v>212</v>
+      </c>
+      <c r="D52" t="s">
         <v>213</v>
       </c>
-      <c r="C52" t="s">
-        <v>213</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>214</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
+        <v>340</v>
+      </c>
+      <c r="G52" t="s">
+        <v>344</v>
+      </c>
+      <c r="H52" t="s">
+        <v>356</v>
+      </c>
+      <c r="I52" t="s">
+        <v>357</v>
+      </c>
+      <c r="K52" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>215</v>
       </c>
-      <c r="F52" t="s">
-        <v>341</v>
-      </c>
-      <c r="G52" t="s">
-        <v>345</v>
-      </c>
-      <c r="H52" t="s">
-        <v>357</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="B53" t="s">
+        <v>216</v>
+      </c>
+      <c r="C53" t="s">
+        <v>217</v>
+      </c>
+      <c r="D53" t="s">
+        <v>218</v>
+      </c>
+      <c r="E53" t="s">
+        <v>219</v>
+      </c>
+      <c r="G53" t="s">
         <v>358</v>
       </c>
-      <c r="K52" t="s">
-        <v>10</v>
-      </c>
-      <c r="L52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>216</v>
-      </c>
-      <c r="B53" t="s">
-        <v>217</v>
-      </c>
-      <c r="C53" t="s">
-        <v>218</v>
-      </c>
-      <c r="D53" t="s">
-        <v>219</v>
-      </c>
-      <c r="E53" t="s">
-        <v>220</v>
-      </c>
-      <c r="G53" t="s">
-        <v>359</v>
-      </c>
       <c r="H53" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I53" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J53" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K53" t="s">
         <v>10</v>
@@ -3335,36 +3341,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1</v>
       </c>
       <c r="B54" t="s">
+        <v>220</v>
+      </c>
+      <c r="C54" t="s">
+        <v>220</v>
+      </c>
+      <c r="D54" t="s">
         <v>221</v>
       </c>
-      <c r="C54" t="s">
-        <v>221</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>222</v>
       </c>
-      <c r="E54" t="s">
-        <v>223</v>
-      </c>
       <c r="F54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H54" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I54" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J54" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K54" t="s">
         <v>10</v>
@@ -3373,68 +3379,68 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
       <c r="B55" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" t="s">
         <v>224</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>225</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>226</v>
       </c>
-      <c r="E55" t="s">
+      <c r="G55" t="s">
+        <v>358</v>
+      </c>
+      <c r="H55" t="s">
+        <v>356</v>
+      </c>
+      <c r="I55" t="s">
+        <v>357</v>
+      </c>
+      <c r="J55" t="s">
+        <v>354</v>
+      </c>
+      <c r="K55" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
         <v>227</v>
       </c>
-      <c r="G55" t="s">
-        <v>359</v>
-      </c>
-      <c r="H55" t="s">
-        <v>357</v>
-      </c>
-      <c r="I55" t="s">
-        <v>358</v>
-      </c>
-      <c r="J55" t="s">
-        <v>355</v>
-      </c>
-      <c r="K55" t="s">
-        <v>10</v>
-      </c>
-      <c r="L55" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
+        <v>227</v>
+      </c>
+      <c r="D56" t="s">
         <v>228</v>
       </c>
-      <c r="C56" t="s">
-        <v>228</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>229</v>
       </c>
-      <c r="E56" t="s">
-        <v>230</v>
-      </c>
       <c r="G56" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H56" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I56" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J56" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K56" t="s">
         <v>10</v>
@@ -3448,60 +3454,60 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
+        <v>230</v>
+      </c>
+      <c r="C57" t="s">
+        <v>230</v>
+      </c>
+      <c r="D57" t="s">
         <v>231</v>
       </c>
-      <c r="C57" t="s">
-        <v>231</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>232</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
+        <v>340</v>
+      </c>
+      <c r="G57" t="s">
+        <v>344</v>
+      </c>
+      <c r="H57" t="s">
+        <v>356</v>
+      </c>
+      <c r="I57" t="s">
+        <v>357</v>
+      </c>
+      <c r="K57" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" t="s">
         <v>233</v>
       </c>
-      <c r="F57" t="s">
-        <v>341</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="C58" t="s">
+        <v>233</v>
+      </c>
+      <c r="D58" t="s">
+        <v>234</v>
+      </c>
+      <c r="E58" t="s">
+        <v>235</v>
+      </c>
+      <c r="G58" t="s">
         <v>345</v>
       </c>
-      <c r="H57" t="s">
-        <v>357</v>
-      </c>
-      <c r="I57" t="s">
-        <v>358</v>
-      </c>
-      <c r="K57" t="s">
-        <v>10</v>
-      </c>
-      <c r="L57" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" t="s">
-        <v>234</v>
-      </c>
-      <c r="C58" t="s">
-        <v>234</v>
-      </c>
-      <c r="D58" t="s">
-        <v>235</v>
-      </c>
-      <c r="E58" t="s">
-        <v>236</v>
-      </c>
-      <c r="G58" t="s">
-        <v>346</v>
-      </c>
       <c r="H58" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I58" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K58" t="s">
         <v>10</v>
@@ -3515,98 +3521,98 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D59" t="s">
+        <v>236</v>
+      </c>
+      <c r="E59" t="s">
         <v>237</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
+        <v>340</v>
+      </c>
+      <c r="G59" t="s">
+        <v>344</v>
+      </c>
+      <c r="H59" t="s">
+        <v>356</v>
+      </c>
+      <c r="I59" t="s">
+        <v>357</v>
+      </c>
+      <c r="K59" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" t="s">
+        <v>236</v>
+      </c>
+      <c r="C60" t="s">
+        <v>236</v>
+      </c>
+      <c r="D60" t="s">
         <v>238</v>
       </c>
-      <c r="F59" t="s">
-        <v>341</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="E60" t="s">
+        <v>239</v>
+      </c>
+      <c r="G60" t="s">
         <v>345</v>
       </c>
-      <c r="H59" t="s">
-        <v>357</v>
-      </c>
-      <c r="I59" t="s">
-        <v>358</v>
-      </c>
-      <c r="K59" t="s">
-        <v>10</v>
-      </c>
-      <c r="L59" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" t="s">
-        <v>237</v>
-      </c>
-      <c r="C60" t="s">
-        <v>237</v>
-      </c>
-      <c r="D60" t="s">
-        <v>239</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="H60" t="s">
+        <v>356</v>
+      </c>
+      <c r="I60" t="s">
+        <v>357</v>
+      </c>
+      <c r="J60" t="s">
+        <v>347</v>
+      </c>
+      <c r="K60" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" t="s">
         <v>240</v>
       </c>
-      <c r="G60" t="s">
-        <v>346</v>
-      </c>
-      <c r="H60" t="s">
-        <v>357</v>
-      </c>
-      <c r="I60" t="s">
-        <v>358</v>
-      </c>
-      <c r="J60" t="s">
-        <v>348</v>
-      </c>
-      <c r="K60" t="s">
-        <v>10</v>
-      </c>
-      <c r="L60" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>25</v>
-      </c>
-      <c r="B61" t="s">
-        <v>241</v>
-      </c>
       <c r="C61" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G61" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H61" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I61" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K61" t="s">
         <v>10</v>
@@ -3620,63 +3626,63 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
+        <v>242</v>
+      </c>
+      <c r="C62" t="s">
+        <v>242</v>
+      </c>
+      <c r="D62" t="s">
         <v>243</v>
       </c>
-      <c r="C62" t="s">
-        <v>243</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>244</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
+        <v>340</v>
+      </c>
+      <c r="G62" t="s">
+        <v>344</v>
+      </c>
+      <c r="H62" t="s">
+        <v>356</v>
+      </c>
+      <c r="I62" t="s">
+        <v>357</v>
+      </c>
+      <c r="K62" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" t="s">
         <v>245</v>
       </c>
-      <c r="F62" t="s">
-        <v>341</v>
-      </c>
-      <c r="G62" t="s">
-        <v>345</v>
-      </c>
-      <c r="H62" t="s">
-        <v>357</v>
-      </c>
-      <c r="I62" t="s">
-        <v>358</v>
-      </c>
-      <c r="K62" t="s">
-        <v>10</v>
-      </c>
-      <c r="L62" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>245</v>
+      </c>
+      <c r="D63" t="s">
         <v>246</v>
       </c>
-      <c r="C63" t="s">
-        <v>246</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>247</v>
       </c>
-      <c r="E63" t="s">
-        <v>248</v>
-      </c>
       <c r="G63" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J63" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K63" t="s">
         <v>10</v>
@@ -3690,28 +3696,28 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C64" t="s">
+        <v>248</v>
+      </c>
+      <c r="D64" t="s">
         <v>249</v>
       </c>
-      <c r="C64" t="s">
-        <v>249</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>250</v>
       </c>
-      <c r="E64" t="s">
-        <v>251</v>
-      </c>
       <c r="F64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G64" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I64" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K64" t="s">
         <v>10</v>
@@ -3720,68 +3726,68 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>4</v>
       </c>
       <c r="B65" t="s">
+        <v>251</v>
+      </c>
+      <c r="C65" t="s">
         <v>252</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>253</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>254</v>
       </c>
-      <c r="E65" t="s">
+      <c r="G65" t="s">
+        <v>358</v>
+      </c>
+      <c r="H65" t="s">
+        <v>356</v>
+      </c>
+      <c r="I65" t="s">
+        <v>357</v>
+      </c>
+      <c r="J65" t="s">
+        <v>348</v>
+      </c>
+      <c r="K65" t="s">
+        <v>10</v>
+      </c>
+      <c r="L65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" t="s">
         <v>255</v>
       </c>
-      <c r="G65" t="s">
-        <v>359</v>
-      </c>
-      <c r="H65" t="s">
-        <v>357</v>
-      </c>
-      <c r="I65" t="s">
-        <v>358</v>
-      </c>
-      <c r="J65" t="s">
-        <v>349</v>
-      </c>
-      <c r="K65" t="s">
-        <v>10</v>
-      </c>
-      <c r="L65" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>25</v>
-      </c>
-      <c r="B66" t="s">
-        <v>256</v>
-      </c>
       <c r="C66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D66" t="s">
         <v>19</v>
       </c>
       <c r="E66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G66" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H66" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I66" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J66" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K66" t="s">
         <v>10</v>
@@ -3790,33 +3796,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1</v>
       </c>
       <c r="B67" t="s">
+        <v>257</v>
+      </c>
+      <c r="C67" t="s">
+        <v>257</v>
+      </c>
+      <c r="D67" t="s">
         <v>258</v>
       </c>
-      <c r="C67" t="s">
-        <v>258</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>259</v>
-      </c>
-      <c r="E67" t="s">
-        <v>260</v>
       </c>
       <c r="F67" t="s">
         <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H67" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I67" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K67" t="s">
         <v>10</v>
@@ -3830,28 +3836,28 @@
         <v>3</v>
       </c>
       <c r="B68" t="s">
+        <v>260</v>
+      </c>
+      <c r="C68" t="s">
+        <v>260</v>
+      </c>
+      <c r="D68" t="s">
         <v>261</v>
       </c>
-      <c r="C68" t="s">
-        <v>261</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>262</v>
-      </c>
-      <c r="E68" t="s">
-        <v>263</v>
       </c>
       <c r="F68" t="s">
         <v>6</v>
       </c>
       <c r="G68" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H68" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I68" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K68" t="s">
         <v>10</v>
@@ -3865,31 +3871,31 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
+        <v>263</v>
+      </c>
+      <c r="C69" t="s">
+        <v>263</v>
+      </c>
+      <c r="D69" t="s">
         <v>264</v>
       </c>
-      <c r="C69" t="s">
-        <v>264</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>265</v>
       </c>
-      <c r="E69" t="s">
-        <v>266</v>
-      </c>
       <c r="F69" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G69" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I69" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J69" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K69" t="s">
         <v>10</v>
@@ -3898,68 +3904,68 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>4</v>
       </c>
       <c r="B70" t="s">
+        <v>266</v>
+      </c>
+      <c r="C70" t="s">
         <v>267</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>268</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>269</v>
       </c>
-      <c r="E70" t="s">
+      <c r="G70" t="s">
+        <v>358</v>
+      </c>
+      <c r="H70" t="s">
+        <v>356</v>
+      </c>
+      <c r="I70" t="s">
+        <v>357</v>
+      </c>
+      <c r="J70" t="s">
+        <v>354</v>
+      </c>
+      <c r="K70" t="s">
+        <v>10</v>
+      </c>
+      <c r="L70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" t="s">
         <v>270</v>
       </c>
-      <c r="G70" t="s">
-        <v>359</v>
-      </c>
-      <c r="H70" t="s">
-        <v>357</v>
-      </c>
-      <c r="I70" t="s">
-        <v>358</v>
-      </c>
-      <c r="J70" t="s">
-        <v>355</v>
-      </c>
-      <c r="K70" t="s">
-        <v>10</v>
-      </c>
-      <c r="L70" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>25</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
+        <v>270</v>
+      </c>
+      <c r="D71" t="s">
         <v>271</v>
       </c>
-      <c r="C71" t="s">
-        <v>271</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>272</v>
       </c>
-      <c r="E71" t="s">
-        <v>273</v>
-      </c>
       <c r="G71" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I71" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K71" t="s">
         <v>10</v>
@@ -3973,60 +3979,60 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C72" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
       </c>
       <c r="E72" t="s">
+        <v>273</v>
+      </c>
+      <c r="F72" t="s">
+        <v>342</v>
+      </c>
+      <c r="G72" t="s">
+        <v>344</v>
+      </c>
+      <c r="H72" t="s">
+        <v>356</v>
+      </c>
+      <c r="I72" t="s">
+        <v>357</v>
+      </c>
+      <c r="K72" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" t="s">
         <v>274</v>
       </c>
-      <c r="F72" t="s">
-        <v>343</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="C73" t="s">
+        <v>274</v>
+      </c>
+      <c r="D73" t="s">
+        <v>275</v>
+      </c>
+      <c r="E73" t="s">
+        <v>276</v>
+      </c>
+      <c r="G73" t="s">
         <v>345</v>
       </c>
-      <c r="H72" t="s">
-        <v>357</v>
-      </c>
-      <c r="I72" t="s">
-        <v>358</v>
-      </c>
-      <c r="K72" t="s">
-        <v>10</v>
-      </c>
-      <c r="L72" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>34</v>
-      </c>
-      <c r="B73" t="s">
-        <v>275</v>
-      </c>
-      <c r="C73" t="s">
-        <v>275</v>
-      </c>
-      <c r="D73" t="s">
-        <v>276</v>
-      </c>
-      <c r="E73" t="s">
-        <v>277</v>
-      </c>
-      <c r="G73" t="s">
-        <v>346</v>
-      </c>
       <c r="H73" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I73" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K73" t="s">
         <v>10</v>
@@ -4035,68 +4041,68 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C74" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D74" t="s">
+        <v>277</v>
+      </c>
+      <c r="E74" t="s">
         <v>278</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
+        <v>341</v>
+      </c>
+      <c r="G74" t="s">
+        <v>344</v>
+      </c>
+      <c r="H74" t="s">
+        <v>356</v>
+      </c>
+      <c r="I74" t="s">
+        <v>357</v>
+      </c>
+      <c r="K74" t="s">
+        <v>10</v>
+      </c>
+      <c r="L74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" t="s">
         <v>279</v>
       </c>
-      <c r="F74" t="s">
-        <v>342</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="C75" t="s">
+        <v>279</v>
+      </c>
+      <c r="D75" t="s">
+        <v>280</v>
+      </c>
+      <c r="E75" t="s">
+        <v>281</v>
+      </c>
+      <c r="G75" t="s">
         <v>345</v>
       </c>
-      <c r="H74" t="s">
-        <v>357</v>
-      </c>
-      <c r="I74" t="s">
-        <v>358</v>
-      </c>
-      <c r="K74" t="s">
-        <v>10</v>
-      </c>
-      <c r="L74" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" t="s">
-        <v>280</v>
-      </c>
-      <c r="C75" t="s">
-        <v>280</v>
-      </c>
-      <c r="D75" t="s">
-        <v>281</v>
-      </c>
-      <c r="E75" t="s">
-        <v>282</v>
-      </c>
-      <c r="G75" t="s">
-        <v>346</v>
-      </c>
       <c r="H75" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I75" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J75" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K75" t="s">
         <v>10</v>
@@ -4105,65 +4111,65 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>7</v>
       </c>
       <c r="B76" t="s">
+        <v>282</v>
+      </c>
+      <c r="C76" t="s">
         <v>283</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>284</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>285</v>
       </c>
-      <c r="E76" t="s">
+      <c r="G76" t="s">
+        <v>358</v>
+      </c>
+      <c r="H76" t="s">
+        <v>356</v>
+      </c>
+      <c r="I76" t="s">
+        <v>357</v>
+      </c>
+      <c r="J76" t="s">
+        <v>354</v>
+      </c>
+      <c r="K76" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" t="s">
+        <v>284</v>
+      </c>
+      <c r="C77" t="s">
+        <v>284</v>
+      </c>
+      <c r="D77" t="s">
         <v>286</v>
       </c>
-      <c r="G76" t="s">
-        <v>359</v>
-      </c>
-      <c r="H76" t="s">
-        <v>357</v>
-      </c>
-      <c r="I76" t="s">
-        <v>358</v>
-      </c>
-      <c r="J76" t="s">
-        <v>355</v>
-      </c>
-      <c r="K76" t="s">
-        <v>10</v>
-      </c>
-      <c r="L76" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>34</v>
-      </c>
-      <c r="B77" t="s">
-        <v>285</v>
-      </c>
-      <c r="C77" t="s">
-        <v>285</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>287</v>
       </c>
-      <c r="E77" t="s">
-        <v>288</v>
-      </c>
       <c r="G77" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H77" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I77" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K77" t="s">
         <v>10</v>
@@ -4177,60 +4183,60 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
+        <v>288</v>
+      </c>
+      <c r="C78" t="s">
+        <v>288</v>
+      </c>
+      <c r="D78" t="s">
         <v>289</v>
       </c>
-      <c r="C78" t="s">
-        <v>289</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>290</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
+        <v>340</v>
+      </c>
+      <c r="G78" t="s">
+        <v>345</v>
+      </c>
+      <c r="H78" t="s">
+        <v>356</v>
+      </c>
+      <c r="I78" t="s">
+        <v>357</v>
+      </c>
+      <c r="K78" t="s">
+        <v>10</v>
+      </c>
+      <c r="L78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" t="s">
         <v>291</v>
       </c>
-      <c r="F78" t="s">
-        <v>341</v>
-      </c>
-      <c r="G78" t="s">
-        <v>346</v>
-      </c>
-      <c r="H78" t="s">
-        <v>357</v>
-      </c>
-      <c r="I78" t="s">
-        <v>358</v>
-      </c>
-      <c r="K78" t="s">
-        <v>10</v>
-      </c>
-      <c r="L78" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>34</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
+        <v>291</v>
+      </c>
+      <c r="D79" t="s">
         <v>292</v>
       </c>
-      <c r="C79" t="s">
-        <v>292</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>293</v>
       </c>
-      <c r="E79" t="s">
-        <v>294</v>
-      </c>
       <c r="G79" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H79" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I79" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K79" t="s">
         <v>10</v>
@@ -4244,60 +4250,60 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
+        <v>294</v>
+      </c>
+      <c r="C80" t="s">
+        <v>294</v>
+      </c>
+      <c r="D80" t="s">
         <v>295</v>
       </c>
-      <c r="C80" t="s">
-        <v>295</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>296</v>
-      </c>
-      <c r="E80" t="s">
-        <v>297</v>
       </c>
       <c r="F80" t="s">
         <v>6</v>
       </c>
       <c r="G80" t="s">
+        <v>344</v>
+      </c>
+      <c r="H80" t="s">
+        <v>356</v>
+      </c>
+      <c r="I80" t="s">
+        <v>357</v>
+      </c>
+      <c r="K80" t="s">
+        <v>10</v>
+      </c>
+      <c r="L80" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" t="s">
+        <v>297</v>
+      </c>
+      <c r="C81" t="s">
+        <v>297</v>
+      </c>
+      <c r="D81" t="s">
+        <v>298</v>
+      </c>
+      <c r="E81" t="s">
+        <v>299</v>
+      </c>
+      <c r="G81" t="s">
         <v>345</v>
       </c>
-      <c r="H80" t="s">
-        <v>357</v>
-      </c>
-      <c r="I80" t="s">
-        <v>358</v>
-      </c>
-      <c r="K80" t="s">
-        <v>10</v>
-      </c>
-      <c r="L80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>34</v>
-      </c>
-      <c r="B81" t="s">
-        <v>298</v>
-      </c>
-      <c r="C81" t="s">
-        <v>298</v>
-      </c>
-      <c r="D81" t="s">
-        <v>299</v>
-      </c>
-      <c r="E81" t="s">
-        <v>300</v>
-      </c>
-      <c r="G81" t="s">
-        <v>346</v>
-      </c>
       <c r="H81" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I81" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K81" t="s">
         <v>10</v>
@@ -4311,63 +4317,63 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
+        <v>300</v>
+      </c>
+      <c r="C82" t="s">
+        <v>300</v>
+      </c>
+      <c r="D82" t="s">
         <v>301</v>
       </c>
-      <c r="C82" t="s">
-        <v>301</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>302</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
+        <v>342</v>
+      </c>
+      <c r="G82" t="s">
+        <v>344</v>
+      </c>
+      <c r="H82" t="s">
+        <v>356</v>
+      </c>
+      <c r="I82" t="s">
+        <v>357</v>
+      </c>
+      <c r="K82" t="s">
+        <v>10</v>
+      </c>
+      <c r="L82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" t="s">
         <v>303</v>
       </c>
-      <c r="F82" t="s">
-        <v>343</v>
-      </c>
-      <c r="G82" t="s">
-        <v>345</v>
-      </c>
-      <c r="H82" t="s">
-        <v>357</v>
-      </c>
-      <c r="I82" t="s">
-        <v>358</v>
-      </c>
-      <c r="K82" t="s">
-        <v>10</v>
-      </c>
-      <c r="L82" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>34</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
+        <v>303</v>
+      </c>
+      <c r="D83" t="s">
         <v>304</v>
       </c>
-      <c r="C83" t="s">
-        <v>304</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>305</v>
       </c>
-      <c r="E83" t="s">
-        <v>306</v>
-      </c>
       <c r="G83" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H83" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I83" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J83" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K83" t="s">
         <v>10</v>
@@ -4376,33 +4382,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1</v>
       </c>
       <c r="B84" t="s">
+        <v>306</v>
+      </c>
+      <c r="C84" t="s">
+        <v>306</v>
+      </c>
+      <c r="D84" t="s">
         <v>307</v>
       </c>
-      <c r="C84" t="s">
-        <v>307</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>308</v>
       </c>
-      <c r="E84" t="s">
-        <v>309</v>
-      </c>
       <c r="F84" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G84" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H84" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I84" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K84" t="s">
         <v>10</v>
@@ -4416,60 +4422,60 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
+        <v>309</v>
+      </c>
+      <c r="C85" t="s">
+        <v>309</v>
+      </c>
+      <c r="D85" t="s">
         <v>310</v>
       </c>
-      <c r="C85" t="s">
+      <c r="E85" t="s">
+        <v>311</v>
+      </c>
+      <c r="F85" t="s">
+        <v>340</v>
+      </c>
+      <c r="G85" t="s">
+        <v>344</v>
+      </c>
+      <c r="H85" t="s">
+        <v>356</v>
+      </c>
+      <c r="I85" t="s">
+        <v>357</v>
+      </c>
+      <c r="K85" t="s">
+        <v>10</v>
+      </c>
+      <c r="L85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" t="s">
         <v>310</v>
       </c>
-      <c r="D85" t="s">
-        <v>311</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="C86" t="s">
+        <v>310</v>
+      </c>
+      <c r="D86" t="s">
         <v>312</v>
       </c>
-      <c r="F85" t="s">
-        <v>341</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="E86" t="s">
+        <v>313</v>
+      </c>
+      <c r="G86" t="s">
         <v>345</v>
       </c>
-      <c r="H85" t="s">
-        <v>357</v>
-      </c>
-      <c r="I85" t="s">
-        <v>358</v>
-      </c>
-      <c r="K85" t="s">
-        <v>10</v>
-      </c>
-      <c r="L85" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>34</v>
-      </c>
-      <c r="B86" t="s">
-        <v>311</v>
-      </c>
-      <c r="C86" t="s">
-        <v>311</v>
-      </c>
-      <c r="D86" t="s">
-        <v>313</v>
-      </c>
-      <c r="E86" t="s">
-        <v>314</v>
-      </c>
-      <c r="G86" t="s">
-        <v>346</v>
-      </c>
       <c r="H86" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I86" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K86" t="s">
         <v>10</v>
@@ -4478,33 +4484,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1</v>
       </c>
       <c r="B87" t="s">
+        <v>314</v>
+      </c>
+      <c r="C87" t="s">
+        <v>314</v>
+      </c>
+      <c r="D87" t="s">
         <v>315</v>
       </c>
-      <c r="C87" t="s">
-        <v>315</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>316</v>
-      </c>
-      <c r="E87" t="s">
-        <v>317</v>
       </c>
       <c r="F87" t="s">
         <v>2</v>
       </c>
       <c r="G87" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H87" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I87" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K87" t="s">
         <v>10</v>
@@ -4518,28 +4524,28 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C88" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D88" t="s">
+        <v>317</v>
+      </c>
+      <c r="E88" t="s">
         <v>318</v>
       </c>
-      <c r="E88" t="s">
-        <v>319</v>
-      </c>
       <c r="F88" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G88" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H88" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I88" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K88" t="s">
         <v>10</v>
@@ -4548,33 +4554,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1</v>
       </c>
       <c r="B89" t="s">
+        <v>319</v>
+      </c>
+      <c r="C89" t="s">
+        <v>319</v>
+      </c>
+      <c r="D89" t="s">
         <v>320</v>
       </c>
-      <c r="C89" t="s">
-        <v>320</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>321</v>
       </c>
-      <c r="E89" t="s">
-        <v>322</v>
-      </c>
       <c r="F89" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G89" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H89" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I89" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K89" t="s">
         <v>10</v>
@@ -4588,28 +4594,28 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
+        <v>322</v>
+      </c>
+      <c r="C90" t="s">
+        <v>322</v>
+      </c>
+      <c r="D90" t="s">
         <v>323</v>
       </c>
-      <c r="C90" t="s">
-        <v>323</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>324</v>
       </c>
-      <c r="E90" t="s">
-        <v>325</v>
-      </c>
       <c r="F90" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G90" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H90" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I90" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K90" t="s">
         <v>10</v>
@@ -4618,33 +4624,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1</v>
       </c>
       <c r="B91" t="s">
+        <v>325</v>
+      </c>
+      <c r="C91" t="s">
+        <v>325</v>
+      </c>
+      <c r="D91" t="s">
         <v>326</v>
       </c>
-      <c r="C91" t="s">
-        <v>326</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>327</v>
       </c>
-      <c r="E91" t="s">
-        <v>328</v>
-      </c>
       <c r="F91" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G91" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H91" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I91" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K91" t="s">
         <v>10</v>
@@ -4658,63 +4664,63 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
+        <v>328</v>
+      </c>
+      <c r="C92" t="s">
+        <v>328</v>
+      </c>
+      <c r="D92" t="s">
         <v>329</v>
       </c>
-      <c r="C92" t="s">
-        <v>329</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>330</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
+        <v>340</v>
+      </c>
+      <c r="G92" t="s">
+        <v>345</v>
+      </c>
+      <c r="H92" t="s">
+        <v>356</v>
+      </c>
+      <c r="I92" t="s">
+        <v>357</v>
+      </c>
+      <c r="K92" t="s">
+        <v>10</v>
+      </c>
+      <c r="L92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93" t="s">
         <v>331</v>
       </c>
-      <c r="F92" t="s">
-        <v>341</v>
-      </c>
-      <c r="G92" t="s">
-        <v>346</v>
-      </c>
-      <c r="H92" t="s">
-        <v>357</v>
-      </c>
-      <c r="I92" t="s">
-        <v>358</v>
-      </c>
-      <c r="K92" t="s">
-        <v>10</v>
-      </c>
-      <c r="L92" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>25</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
+        <v>331</v>
+      </c>
+      <c r="D93" t="s">
         <v>332</v>
       </c>
-      <c r="C93" t="s">
-        <v>332</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>333</v>
       </c>
-      <c r="E93" t="s">
-        <v>334</v>
-      </c>
       <c r="G93" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H93" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I93" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J93" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K93" t="s">
         <v>10</v>
@@ -4728,63 +4734,63 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
+        <v>334</v>
+      </c>
+      <c r="C94" t="s">
+        <v>334</v>
+      </c>
+      <c r="D94" t="s">
         <v>335</v>
       </c>
-      <c r="C94" t="s">
-        <v>335</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>336</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
+        <v>340</v>
+      </c>
+      <c r="G94" t="s">
+        <v>344</v>
+      </c>
+      <c r="H94" t="s">
+        <v>356</v>
+      </c>
+      <c r="I94" t="s">
+        <v>357</v>
+      </c>
+      <c r="K94" t="s">
+        <v>10</v>
+      </c>
+      <c r="L94" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" t="s">
         <v>337</v>
       </c>
-      <c r="F94" t="s">
-        <v>341</v>
-      </c>
-      <c r="G94" t="s">
-        <v>345</v>
-      </c>
-      <c r="H94" t="s">
-        <v>357</v>
-      </c>
-      <c r="I94" t="s">
-        <v>358</v>
-      </c>
-      <c r="K94" t="s">
-        <v>10</v>
-      </c>
-      <c r="L94" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>34</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
+        <v>337</v>
+      </c>
+      <c r="D95" t="s">
         <v>338</v>
       </c>
-      <c r="C95" t="s">
-        <v>338</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>339</v>
       </c>
-      <c r="E95" t="s">
-        <v>340</v>
-      </c>
       <c r="G95" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H95" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J95" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K95" t="s">
         <v>10</v>

--- a/events.xlsx
+++ b/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\streamlit_tiznados\tiznados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCBBE30-891B-4E22-9130-1295F615299B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3ECC6C-B78B-491D-B0BC-72B95B39293E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1157,13 +1157,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1975CA6-E80E-40A4-A9D5-728F867A63BD}" name="Tabla1" displayName="Tabla1" ref="A1:L95" totalsRowShown="0">
-  <autoFilter ref="A1:L95" xr:uid="{C1975CA6-E80E-40A4-A9D5-728F867A63BD}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Ataque"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L95" xr:uid="{C1975CA6-E80E-40A4-A9D5-728F867A63BD}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{45CCCD5A-AFCF-487D-ADA1-0BFBB6505772}" name="Fase"/>
     <tableColumn id="2" xr3:uid="{4A939A0F-B787-4665-B94F-35DE80E0B243}" name="start_time"/>
@@ -1472,7 +1466,7 @@
   <dimension ref="A1:L95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1556,7 +1550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1626,7 +1620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1696,7 +1690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1731,7 +1725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1766,7 +1760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1801,7 +1795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1836,7 +1830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1906,7 +1900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1941,7 +1935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -2011,7 +2005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -2081,7 +2075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2113,7 +2107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -2148,7 +2142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -2218,7 +2212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2288,7 +2282,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2358,7 +2352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2428,7 +2422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -2498,7 +2492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -2533,7 +2527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2603,7 +2597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -2673,7 +2667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -2708,7 +2702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -2743,7 +2737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -2778,7 +2772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -2918,7 +2912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -2956,7 +2950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -3061,7 +3055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -3166,7 +3160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -3201,7 +3195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -3236,7 +3230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -3306,7 +3300,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>215</v>
       </c>
@@ -3341,7 +3335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -3379,7 +3373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -3414,7 +3408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -3484,7 +3478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -3551,7 +3545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -3586,7 +3580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -3656,7 +3650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -3726,7 +3720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -3761,7 +3755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>24</v>
       </c>
@@ -3796,7 +3790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -3904,7 +3898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -3939,7 +3933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -4009,7 +4003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>33</v>
       </c>
@@ -4041,7 +4035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -4076,7 +4070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -4111,7 +4105,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -4146,7 +4140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -4213,7 +4207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>33</v>
       </c>
@@ -4280,7 +4274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>33</v>
       </c>
@@ -4347,7 +4341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>33</v>
       </c>
@@ -4382,7 +4376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -4452,7 +4446,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>33</v>
       </c>
@@ -4484,7 +4478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -4554,7 +4548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1</v>
       </c>
@@ -4624,7 +4618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -4694,7 +4688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>24</v>
       </c>
@@ -4764,7 +4758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>33</v>
       </c>

--- a/events.xlsx
+++ b/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\streamlit_tiznados\tiznados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D219B1D5-E6B8-4C3E-BF33-1AB42C6EC9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778983F9-907D-4146-A45A-F07782696892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="441">
   <si>
     <t>XY</t>
   </si>
@@ -1292,13 +1292,64 @@
   </si>
   <si>
     <t>False</t>
+  </si>
+  <si>
+    <t>FIN 2T</t>
+  </si>
+  <si>
+    <t>Pase</t>
+  </si>
+  <si>
+    <t>12;34 43;46</t>
+  </si>
+  <si>
+    <t>Erróneo</t>
+  </si>
+  <si>
+    <t>Desconocido</t>
+  </si>
+  <si>
+    <t>34;43 22;85</t>
+  </si>
+  <si>
+    <t>Correcto</t>
+  </si>
+  <si>
+    <t>24;85 75;76</t>
+  </si>
+  <si>
+    <t>00:39</t>
+  </si>
+  <si>
+    <t>00:40</t>
+  </si>
+  <si>
+    <t>00:46</t>
+  </si>
+  <si>
+    <t>00:48</t>
+  </si>
+  <si>
+    <t>00:49</t>
+  </si>
+  <si>
+    <t>00:54</t>
+  </si>
+  <si>
+    <t>00:55</t>
+  </si>
+  <si>
+    <t>00:57</t>
+  </si>
+  <si>
+    <t>player</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1312,6 +1363,11 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1335,9 +1391,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1357,9 +1416,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1975CA6-E80E-40A4-A9D5-728F867A63BD}" name="Tabla1" displayName="Tabla1" ref="A1:L127" totalsRowShown="0">
-  <autoFilter ref="A1:L127" xr:uid="{C1975CA6-E80E-40A4-A9D5-728F867A63BD}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1975CA6-E80E-40A4-A9D5-728F867A63BD}" name="Tabla1" displayName="Tabla1" ref="A1:M130" totalsRowShown="0">
+  <autoFilter ref="A1:M130" xr:uid="{C1975CA6-E80E-40A4-A9D5-728F867A63BD}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{45CCCD5A-AFCF-487D-ADA1-0BFBB6505772}" name="Fase"/>
     <tableColumn id="2" xr3:uid="{4A939A0F-B787-4665-B94F-35DE80E0B243}" name="start_time"/>
     <tableColumn id="3" xr3:uid="{237002C1-33B1-4A0C-8625-A4F946E3279C}" name="time"/>
@@ -1369,6 +1428,7 @@
     <tableColumn id="9" xr3:uid="{2B9AEE74-8141-415A-8718-C057D71FC210}" name="output"/>
     <tableColumn id="10" xr3:uid="{CA78ED69-994B-4A34-B8BA-562ED05D3D66}" name="Rival"/>
     <tableColumn id="13" xr3:uid="{AA1AD256-EC33-478A-8418-B244C25C1F49}" name="Video"/>
+    <tableColumn id="8" xr3:uid="{A9D6D4D4-E6D2-4D23-BD53-3F61CB62439F}" name="player" dataCellStyle="Hipervínculo"/>
     <tableColumn id="11" xr3:uid="{0D2BFB16-23FC-4D00-90AD-0D752ACC7B98}" name="Nota"/>
     <tableColumn id="12" xr3:uid="{81FA8199-0E5D-43A7-9DB8-350A7DD2B989}" name="Periodo"/>
     <tableColumn id="14" xr3:uid="{1D07032B-D887-446D-81E8-6EF5BC9D9E9B}" name="invertido"/>
@@ -1664,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77939FC4-FC73-4262-977F-310955BE7B1D}">
-  <dimension ref="A1:L127"/>
+  <dimension ref="A1:M134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="M135" sqref="M135"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1676,9 +1736,10 @@
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1706,17 +1767,20 @@
       <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="K1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>413</v>
       </c>
@@ -1735,14 +1799,15 @@
       <c r="I2" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" s="1"/>
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1770,14 +1835,15 @@
       <c r="I3" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K3" t="s">
+      <c r="J3" s="1"/>
+      <c r="L3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1805,14 +1871,15 @@
       <c r="I4" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J4" s="1"/>
+      <c r="L4" t="s">
         <v>9</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1840,14 +1907,15 @@
       <c r="I5" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J5" s="1"/>
+      <c r="L5" t="s">
         <v>9</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1875,14 +1943,15 @@
       <c r="I6" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K6" t="s">
+      <c r="J6" s="1"/>
+      <c r="L6" t="s">
         <v>9</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1910,14 +1979,15 @@
       <c r="I7" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K7" t="s">
+      <c r="J7" s="1"/>
+      <c r="L7" t="s">
         <v>9</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1945,14 +2015,15 @@
       <c r="I8" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K8" t="s">
+      <c r="J8" s="1"/>
+      <c r="L8" t="s">
         <v>9</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1980,14 +2051,15 @@
       <c r="I9" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K9" t="s">
+      <c r="J9" s="1"/>
+      <c r="L9" t="s">
         <v>9</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -2015,14 +2087,15 @@
       <c r="I10" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K10" t="s">
+      <c r="J10" s="1"/>
+      <c r="L10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2050,14 +2123,15 @@
       <c r="I11" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K11" t="s">
+      <c r="J11" s="1"/>
+      <c r="L11" t="s">
         <v>9</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -2085,14 +2159,15 @@
       <c r="I12" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K12" t="s">
+      <c r="J12" s="1"/>
+      <c r="L12" t="s">
         <v>9</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2120,14 +2195,15 @@
       <c r="I13" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K13" t="s">
+      <c r="J13" s="1"/>
+      <c r="L13" t="s">
         <v>9</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2155,14 +2231,15 @@
       <c r="I14" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K14" t="s">
+      <c r="J14" s="1"/>
+      <c r="L14" t="s">
         <v>9</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2190,14 +2267,15 @@
       <c r="I15" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K15" t="s">
+      <c r="J15" s="1"/>
+      <c r="L15" t="s">
         <v>9</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -2225,14 +2303,15 @@
       <c r="I16" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K16" t="s">
+      <c r="J16" s="1"/>
+      <c r="L16" t="s">
         <v>9</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2260,14 +2339,15 @@
       <c r="I17" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K17" t="s">
+      <c r="J17" s="1"/>
+      <c r="L17" t="s">
         <v>9</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -2292,14 +2372,15 @@
       <c r="I18" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K18" t="s">
+      <c r="J18" s="1"/>
+      <c r="L18" t="s">
         <v>9</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2327,14 +2408,15 @@
       <c r="I19" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K19" t="s">
+      <c r="J19" s="1"/>
+      <c r="L19" t="s">
         <v>9</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2362,14 +2444,15 @@
       <c r="I20" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K20" t="s">
+      <c r="J20" s="1"/>
+      <c r="L20" t="s">
         <v>9</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -2394,14 +2477,15 @@
       <c r="I21" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K21" t="s">
+      <c r="J21" s="1"/>
+      <c r="L21" t="s">
         <v>9</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2429,14 +2513,15 @@
       <c r="I22" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K22" t="s">
+      <c r="J22" s="1"/>
+      <c r="L22" t="s">
         <v>9</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -2464,14 +2549,15 @@
       <c r="I23" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K23" t="s">
+      <c r="J23" s="1"/>
+      <c r="L23" t="s">
         <v>9</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2499,14 +2585,15 @@
       <c r="I24" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K24" t="s">
+      <c r="J24" s="1"/>
+      <c r="L24" t="s">
         <v>9</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -2534,14 +2621,15 @@
       <c r="I25" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K25" t="s">
+      <c r="J25" s="1"/>
+      <c r="L25" t="s">
         <v>9</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -2569,14 +2657,15 @@
       <c r="I26" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K26" t="s">
+      <c r="J26" s="1"/>
+      <c r="L26" t="s">
         <v>9</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2604,14 +2693,15 @@
       <c r="I27" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K27" t="s">
+      <c r="J27" s="1"/>
+      <c r="L27" t="s">
         <v>9</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -2636,14 +2726,15 @@
       <c r="I28" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K28" t="s">
+      <c r="J28" s="1"/>
+      <c r="L28" t="s">
         <v>9</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2671,14 +2762,15 @@
       <c r="I29" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K29" t="s">
+      <c r="J29" s="1"/>
+      <c r="L29" t="s">
         <v>9</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -2706,14 +2798,15 @@
       <c r="I30" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K30" t="s">
+      <c r="J30" s="1"/>
+      <c r="L30" t="s">
         <v>9</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -2738,14 +2831,15 @@
       <c r="I31" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K31" t="s">
+      <c r="J31" s="1"/>
+      <c r="L31" t="s">
         <v>9</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -2770,14 +2864,15 @@
       <c r="I32" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K32" t="s">
+      <c r="J32" s="1"/>
+      <c r="L32" t="s">
         <v>9</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -2805,14 +2900,15 @@
       <c r="I33" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K33" t="s">
+      <c r="J33" s="1"/>
+      <c r="L33" t="s">
         <v>9</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -2840,14 +2936,15 @@
       <c r="I34" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K34" t="s">
+      <c r="J34" s="1"/>
+      <c r="L34" t="s">
         <v>9</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -2875,14 +2972,15 @@
       <c r="I35" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K35" t="s">
+      <c r="J35" s="1"/>
+      <c r="L35" t="s">
         <v>9</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2910,14 +3008,15 @@
       <c r="I36" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K36" t="s">
+      <c r="J36" s="1"/>
+      <c r="L36" t="s">
         <v>9</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -2945,14 +3044,15 @@
       <c r="I37" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K37" t="s">
+      <c r="J37" s="1"/>
+      <c r="L37" t="s">
         <v>9</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -2980,14 +3080,15 @@
       <c r="I38" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K38" t="s">
+      <c r="J38" s="1"/>
+      <c r="L38" t="s">
         <v>9</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -3015,14 +3116,15 @@
       <c r="I39" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K39" t="s">
+      <c r="J39" s="1"/>
+      <c r="L39" t="s">
         <v>9</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -3050,14 +3152,15 @@
       <c r="I40" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K40" t="s">
+      <c r="J40" s="1"/>
+      <c r="L40" t="s">
         <v>9</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -3085,14 +3188,15 @@
       <c r="I41" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K41" t="s">
+      <c r="J41" s="1"/>
+      <c r="L41" t="s">
         <v>9</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -3120,14 +3224,15 @@
       <c r="I42" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K42" t="s">
+      <c r="J42" s="1"/>
+      <c r="L42" t="s">
         <v>9</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -3155,14 +3260,15 @@
       <c r="I43" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K43" t="s">
+      <c r="J43" s="1"/>
+      <c r="L43" t="s">
         <v>9</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -3190,14 +3296,15 @@
       <c r="I44" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K44" t="s">
+      <c r="J44" s="1"/>
+      <c r="L44" t="s">
         <v>9</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -3225,14 +3332,15 @@
       <c r="I45" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K45" t="s">
+      <c r="J45" s="1"/>
+      <c r="L45" t="s">
         <v>9</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -3257,14 +3365,15 @@
       <c r="I46" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K46" t="s">
+      <c r="J46" s="1"/>
+      <c r="L46" t="s">
         <v>9</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -3292,14 +3401,15 @@
       <c r="I47" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K47" t="s">
+      <c r="J47" s="1"/>
+      <c r="L47" t="s">
         <v>9</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>119</v>
       </c>
@@ -3324,14 +3434,15 @@
       <c r="I48" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K48" t="s">
+      <c r="J48" s="1"/>
+      <c r="L48" t="s">
         <v>9</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -3359,14 +3470,15 @@
       <c r="I49" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K49" t="s">
+      <c r="J49" s="1"/>
+      <c r="L49" t="s">
         <v>9</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -3391,14 +3503,15 @@
       <c r="I50" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K50" t="s">
+      <c r="J50" s="1"/>
+      <c r="L50" t="s">
         <v>9</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -3423,14 +3536,15 @@
       <c r="I51" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K51" t="s">
+      <c r="J51" s="1"/>
+      <c r="L51" t="s">
         <v>9</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -3458,14 +3572,15 @@
       <c r="I52" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K52" t="s">
+      <c r="J52" s="1"/>
+      <c r="L52" t="s">
         <v>9</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -3493,14 +3608,15 @@
       <c r="I53" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K53" t="s">
+      <c r="J53" s="1"/>
+      <c r="L53" t="s">
         <v>9</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -3528,14 +3644,15 @@
       <c r="I54" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K54" t="s">
+      <c r="J54" s="1"/>
+      <c r="L54" t="s">
         <v>9</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -3563,14 +3680,15 @@
       <c r="I55" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K55" t="s">
+      <c r="J55" s="1"/>
+      <c r="L55" t="s">
         <v>9</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -3598,14 +3716,15 @@
       <c r="I56" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K56" t="s">
+      <c r="J56" s="1"/>
+      <c r="L56" t="s">
         <v>9</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -3633,14 +3752,15 @@
       <c r="I57" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K57" t="s">
+      <c r="J57" s="1"/>
+      <c r="L57" t="s">
         <v>9</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -3668,14 +3788,15 @@
       <c r="I58" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K58" t="s">
+      <c r="J58" s="1"/>
+      <c r="L58" t="s">
         <v>9</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>79</v>
       </c>
@@ -3703,14 +3824,15 @@
       <c r="I59" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K59" t="s">
+      <c r="J59" s="1"/>
+      <c r="L59" t="s">
         <v>9</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -3738,14 +3860,15 @@
       <c r="I60" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K60" t="s">
+      <c r="J60" s="1"/>
+      <c r="L60" t="s">
         <v>9</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>409</v>
       </c>
@@ -3764,14 +3887,15 @@
       <c r="I61" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K61" t="s">
+      <c r="J61" s="1"/>
+      <c r="L61" t="s">
         <v>9</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>416</v>
       </c>
@@ -3790,14 +3914,15 @@
       <c r="I62" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K62" t="s">
-        <v>422</v>
-      </c>
+      <c r="J62" s="1"/>
       <c r="L62" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M62" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -3822,14 +3947,15 @@
       <c r="I63" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K63" t="s">
-        <v>422</v>
-      </c>
+      <c r="J63" s="1"/>
       <c r="L63" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M63" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -3857,14 +3983,15 @@
       <c r="I64" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K64" t="s">
-        <v>422</v>
-      </c>
+      <c r="J64" s="1"/>
       <c r="L64" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M64" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -3892,14 +4019,15 @@
       <c r="I65" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K65" t="s">
-        <v>422</v>
-      </c>
+      <c r="J65" s="1"/>
       <c r="L65" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M65" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -3927,14 +4055,15 @@
       <c r="I66" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K66" t="s">
-        <v>422</v>
-      </c>
+      <c r="J66" s="1"/>
       <c r="L66" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M66" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -3962,14 +4091,15 @@
       <c r="I67" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K67" t="s">
-        <v>422</v>
-      </c>
+      <c r="J67" s="1"/>
       <c r="L67" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M67" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -3997,14 +4127,15 @@
       <c r="I68" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K68" t="s">
-        <v>422</v>
-      </c>
+      <c r="J68" s="1"/>
       <c r="L68" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M68" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>79</v>
       </c>
@@ -4029,14 +4160,15 @@
       <c r="I69" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K69" t="s">
-        <v>422</v>
-      </c>
+      <c r="J69" s="1"/>
       <c r="L69" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M69" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -4064,14 +4196,15 @@
       <c r="I70" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K70" t="s">
-        <v>422</v>
-      </c>
+      <c r="J70" s="1"/>
       <c r="L70" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M70" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -4099,14 +4232,15 @@
       <c r="I71" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K71" t="s">
-        <v>422</v>
-      </c>
+      <c r="J71" s="1"/>
       <c r="L71" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M71" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -4134,14 +4268,15 @@
       <c r="I72" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K72" t="s">
-        <v>422</v>
-      </c>
+      <c r="J72" s="1"/>
       <c r="L72" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M72" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -4169,14 +4304,15 @@
       <c r="I73" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K73" t="s">
-        <v>422</v>
-      </c>
+      <c r="J73" s="1"/>
       <c r="L73" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M73" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -4204,14 +4340,15 @@
       <c r="I74" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K74" t="s">
-        <v>422</v>
-      </c>
+      <c r="J74" s="1"/>
       <c r="L74" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M74" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -4239,14 +4376,15 @@
       <c r="I75" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K75" t="s">
-        <v>422</v>
-      </c>
+      <c r="J75" s="1"/>
       <c r="L75" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M75" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -4274,14 +4412,15 @@
       <c r="I76" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K76" t="s">
-        <v>422</v>
-      </c>
+      <c r="J76" s="1"/>
       <c r="L76" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M76" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -4309,14 +4448,15 @@
       <c r="I77" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K77" t="s">
-        <v>422</v>
-      </c>
+      <c r="J77" s="1"/>
       <c r="L77" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M77" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>21</v>
       </c>
@@ -4344,14 +4484,15 @@
       <c r="I78" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K78" t="s">
-        <v>422</v>
-      </c>
+      <c r="J78" s="1"/>
       <c r="L78" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M78" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -4379,14 +4520,15 @@
       <c r="I79" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K79" t="s">
-        <v>422</v>
-      </c>
+      <c r="J79" s="1"/>
       <c r="L79" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M79" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -4414,14 +4556,15 @@
       <c r="I80" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K80" t="s">
-        <v>422</v>
-      </c>
+      <c r="J80" s="1"/>
       <c r="L80" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M80" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -4446,14 +4589,15 @@
       <c r="I81" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K81" t="s">
-        <v>422</v>
-      </c>
+      <c r="J81" s="1"/>
       <c r="L81" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M81" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -4481,14 +4625,15 @@
       <c r="I82" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K82" t="s">
-        <v>422</v>
-      </c>
+      <c r="J82" s="1"/>
       <c r="L82" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M82" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -4516,14 +4661,15 @@
       <c r="I83" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K83" t="s">
-        <v>422</v>
-      </c>
+      <c r="J83" s="1"/>
       <c r="L83" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M83" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>21</v>
       </c>
@@ -4551,14 +4697,15 @@
       <c r="I84" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K84" t="s">
-        <v>422</v>
-      </c>
+      <c r="J84" s="1"/>
       <c r="L84" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M84" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -4586,14 +4733,15 @@
       <c r="I85" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K85" t="s">
-        <v>422</v>
-      </c>
+      <c r="J85" s="1"/>
       <c r="L85" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M85" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -4621,14 +4769,15 @@
       <c r="I86" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K86" t="s">
-        <v>422</v>
-      </c>
+      <c r="J86" s="1"/>
       <c r="L86" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M86" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>79</v>
       </c>
@@ -4653,14 +4802,15 @@
       <c r="I87" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K87" t="s">
-        <v>422</v>
-      </c>
+      <c r="J87" s="1"/>
       <c r="L87" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M87" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -4688,14 +4838,15 @@
       <c r="I88" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K88" t="s">
-        <v>422</v>
-      </c>
+      <c r="J88" s="1"/>
       <c r="L88" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M88" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -4723,14 +4874,15 @@
       <c r="I89" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K89" t="s">
-        <v>422</v>
-      </c>
+      <c r="J89" s="1"/>
       <c r="L89" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M89" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -4758,14 +4910,15 @@
       <c r="I90" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K90" t="s">
-        <v>422</v>
-      </c>
+      <c r="J90" s="1"/>
       <c r="L90" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M90" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -4793,14 +4946,15 @@
       <c r="I91" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K91" t="s">
-        <v>422</v>
-      </c>
+      <c r="J91" s="1"/>
       <c r="L91" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M91" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -4828,14 +4982,15 @@
       <c r="I92" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K92" t="s">
-        <v>422</v>
-      </c>
+      <c r="J92" s="1"/>
       <c r="L92" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M92" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -4863,14 +5018,15 @@
       <c r="I93" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K93" t="s">
-        <v>422</v>
-      </c>
+      <c r="J93" s="1"/>
       <c r="L93" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M93" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>21</v>
       </c>
@@ -4898,14 +5054,15 @@
       <c r="I94" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K94" t="s">
-        <v>422</v>
-      </c>
+      <c r="J94" s="1"/>
       <c r="L94" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M94" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -4933,14 +5090,15 @@
       <c r="I95" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K95" t="s">
-        <v>422</v>
-      </c>
+      <c r="J95" s="1"/>
       <c r="L95" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M95" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -4968,14 +5126,15 @@
       <c r="I96" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K96" t="s">
-        <v>422</v>
-      </c>
+      <c r="J96" s="1"/>
       <c r="L96" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M96" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -5003,14 +5162,15 @@
       <c r="I97" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K97" t="s">
-        <v>422</v>
-      </c>
+      <c r="J97" s="1"/>
       <c r="L97" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M97" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -5038,14 +5198,15 @@
       <c r="I98" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K98" t="s">
-        <v>422</v>
-      </c>
+      <c r="J98" s="1"/>
       <c r="L98" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M98" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -5073,14 +5234,15 @@
       <c r="I99" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K99" t="s">
-        <v>422</v>
-      </c>
+      <c r="J99" s="1"/>
       <c r="L99" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M99" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -5108,14 +5270,15 @@
       <c r="I100" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K100" t="s">
-        <v>422</v>
-      </c>
+      <c r="J100" s="1"/>
       <c r="L100" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M100" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>119</v>
       </c>
@@ -5143,14 +5306,15 @@
       <c r="I101" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K101" t="s">
-        <v>422</v>
-      </c>
+      <c r="J101" s="1"/>
       <c r="L101" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M101" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -5178,14 +5342,15 @@
       <c r="I102" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K102" t="s">
-        <v>422</v>
-      </c>
+      <c r="J102" s="1"/>
       <c r="L102" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M102" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>21</v>
       </c>
@@ -5213,14 +5378,15 @@
       <c r="I103" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K103" t="s">
-        <v>422</v>
-      </c>
+      <c r="J103" s="1"/>
       <c r="L103" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M103" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -5248,14 +5414,15 @@
       <c r="I104" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K104" t="s">
-        <v>422</v>
-      </c>
+      <c r="J104" s="1"/>
       <c r="L104" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M104" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -5280,14 +5447,15 @@
       <c r="I105" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K105" t="s">
-        <v>422</v>
-      </c>
+      <c r="J105" s="1"/>
       <c r="L105" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M105" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -5315,14 +5483,15 @@
       <c r="I106" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K106" t="s">
-        <v>422</v>
-      </c>
+      <c r="J106" s="1"/>
       <c r="L106" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M106" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>79</v>
       </c>
@@ -5347,14 +5516,15 @@
       <c r="I107" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K107" t="s">
-        <v>422</v>
-      </c>
+      <c r="J107" s="1"/>
       <c r="L107" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M107" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>79</v>
       </c>
@@ -5379,14 +5549,15 @@
       <c r="I108" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K108" t="s">
-        <v>422</v>
-      </c>
+      <c r="J108" s="1"/>
       <c r="L108" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M108" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -5414,14 +5585,15 @@
       <c r="I109" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K109" t="s">
-        <v>422</v>
-      </c>
+      <c r="J109" s="1"/>
       <c r="L109" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M109" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -5449,14 +5621,15 @@
       <c r="I110" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K110" t="s">
-        <v>422</v>
-      </c>
+      <c r="J110" s="1"/>
       <c r="L110" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M110" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -5484,14 +5657,15 @@
       <c r="I111" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K111" t="s">
-        <v>422</v>
-      </c>
+      <c r="J111" s="1"/>
       <c r="L111" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M111" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>3</v>
       </c>
@@ -5519,14 +5693,15 @@
       <c r="I112" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K112" t="s">
-        <v>422</v>
-      </c>
+      <c r="J112" s="1"/>
       <c r="L112" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M112" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -5554,14 +5729,15 @@
       <c r="I113" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K113" t="s">
-        <v>422</v>
-      </c>
+      <c r="J113" s="1"/>
       <c r="L113" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M113" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -5589,14 +5765,15 @@
       <c r="I114" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K114" t="s">
-        <v>422</v>
-      </c>
+      <c r="J114" s="1"/>
       <c r="L114" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M114" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>19</v>
       </c>
@@ -5624,14 +5801,15 @@
       <c r="I115" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K115" t="s">
-        <v>422</v>
-      </c>
+      <c r="J115" s="1"/>
       <c r="L115" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M115" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -5659,14 +5837,15 @@
       <c r="I116" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K116" t="s">
-        <v>422</v>
-      </c>
+      <c r="J116" s="1"/>
       <c r="L116" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M116" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -5694,14 +5873,15 @@
       <c r="I117" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K117" t="s">
-        <v>422</v>
-      </c>
+      <c r="J117" s="1"/>
       <c r="L117" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M117" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -5726,14 +5906,15 @@
       <c r="I118" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K118" t="s">
-        <v>422</v>
-      </c>
+      <c r="J118" s="1"/>
       <c r="L118" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M118" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -5761,14 +5942,15 @@
       <c r="I119" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K119" t="s">
-        <v>422</v>
-      </c>
+      <c r="J119" s="1"/>
       <c r="L119" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M119" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>79</v>
       </c>
@@ -5793,14 +5975,15 @@
       <c r="I120" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K120" t="s">
-        <v>422</v>
-      </c>
+      <c r="J120" s="1"/>
       <c r="L120" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M120" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1</v>
       </c>
@@ -5828,14 +6011,15 @@
       <c r="I121" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K121" t="s">
-        <v>422</v>
-      </c>
+      <c r="J121" s="1"/>
       <c r="L121" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M121" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>79</v>
       </c>
@@ -5860,14 +6044,15 @@
       <c r="I122" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K122" t="s">
-        <v>422</v>
-      </c>
+      <c r="J122" s="1"/>
       <c r="L122" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M122" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1</v>
       </c>
@@ -5895,14 +6080,15 @@
       <c r="I123" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K123" t="s">
-        <v>422</v>
-      </c>
+      <c r="J123" s="1"/>
       <c r="L123" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M123" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>19</v>
       </c>
@@ -5930,14 +6116,15 @@
       <c r="I124" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K124" t="s">
-        <v>422</v>
-      </c>
+      <c r="J124" s="1"/>
       <c r="L124" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M124" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -5965,14 +6152,15 @@
       <c r="I125" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K125" t="s">
-        <v>422</v>
-      </c>
+      <c r="J125" s="1"/>
       <c r="L125" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M125" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -6000,16 +6188,17 @@
       <c r="I126" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K126" t="s">
-        <v>422</v>
-      </c>
+      <c r="J126" s="1"/>
       <c r="L126" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="M126" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B127" t="s">
         <v>420</v>
@@ -6026,12 +6215,138 @@
       <c r="I127" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K127" t="s">
-        <v>422</v>
-      </c>
+      <c r="J127" s="1"/>
       <c r="L127" t="s">
-        <v>423</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="M127" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>425</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E128" t="s">
+        <v>426</v>
+      </c>
+      <c r="G128" t="s">
+        <v>427</v>
+      </c>
+      <c r="H128" t="s">
+        <v>407</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J128" t="s">
+        <v>428</v>
+      </c>
+      <c r="L128" t="s">
+        <v>9</v>
+      </c>
+      <c r="M128" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>425</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E129" t="s">
+        <v>429</v>
+      </c>
+      <c r="G129" t="s">
+        <v>430</v>
+      </c>
+      <c r="H129" t="s">
+        <v>407</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J129" t="s">
+        <v>428</v>
+      </c>
+      <c r="L129" t="s">
+        <v>9</v>
+      </c>
+      <c r="M129" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>425</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E130" t="s">
+        <v>431</v>
+      </c>
+      <c r="G130" t="s">
+        <v>427</v>
+      </c>
+      <c r="H130" t="s">
+        <v>407</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J130" t="s">
+        <v>428</v>
+      </c>
+      <c r="L130" t="s">
+        <v>9</v>
+      </c>
+      <c r="M130" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6158,14 +6473,17 @@
     <hyperlink ref="I124" r:id="rId120" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{01E254AF-FAA2-4B51-8348-C7D78C32716E}"/>
     <hyperlink ref="I125" r:id="rId121" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{3A5E91C9-752B-4EA5-BE06-A139C78586C1}"/>
     <hyperlink ref="I126" r:id="rId122" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{77461476-1413-424C-B883-F4961C646227}"/>
-    <hyperlink ref="I127" r:id="rId123" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{C5744933-4302-4244-A59B-1300B43A99DF}"/>
-    <hyperlink ref="I2" r:id="rId124" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{239972A1-6617-4DDD-87C4-9D5291D35CB8}"/>
-    <hyperlink ref="I61" r:id="rId125" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{C6955530-690E-4663-A375-78076CD757B9}"/>
-    <hyperlink ref="I62" r:id="rId126" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{5D9D9D84-CEFB-4BD3-BB98-ED95C3E4D709}"/>
+    <hyperlink ref="I2" r:id="rId123" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{239972A1-6617-4DDD-87C4-9D5291D35CB8}"/>
+    <hyperlink ref="I61" r:id="rId124" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{C6955530-690E-4663-A375-78076CD757B9}"/>
+    <hyperlink ref="I62" r:id="rId125" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{5D9D9D84-CEFB-4BD3-BB98-ED95C3E4D709}"/>
+    <hyperlink ref="I127" r:id="rId126" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{60DE9708-D353-4824-AFBD-BB5D4870CAA5}"/>
+    <hyperlink ref="I128" r:id="rId127" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{72F8BB58-BEC2-476F-8D98-94337502769D}"/>
+    <hyperlink ref="I129" r:id="rId128" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{C0CD50AF-C0E7-4033-9639-83F8114A3046}"/>
+    <hyperlink ref="I130" r:id="rId129" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{4F817AFA-0358-4F59-B9DD-7A9DF3AD4F92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId127"/>
+    <tablePart r:id="rId130"/>
   </tableParts>
 </worksheet>
 </file>
--- a/events.xlsx
+++ b/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\streamlit_tiznados\tiznados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778983F9-907D-4146-A45A-F07782696892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E491C082-3553-4B52-9F71-46C271DEB670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>Video</t>
   </si>
   <si>
-    <t>Fase</t>
-  </si>
-  <si>
     <t>Tipo</t>
   </si>
   <si>
@@ -1343,6 +1340,9 @@
   </si>
   <si>
     <t>player</t>
+  </si>
+  <si>
+    <t>Event</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1419,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1975CA6-E80E-40A4-A9D5-728F867A63BD}" name="Tabla1" displayName="Tabla1" ref="A1:M130" totalsRowShown="0">
   <autoFilter ref="A1:M130" xr:uid="{C1975CA6-E80E-40A4-A9D5-728F867A63BD}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{45CCCD5A-AFCF-487D-ADA1-0BFBB6505772}" name="Fase"/>
+    <tableColumn id="1" xr3:uid="{45CCCD5A-AFCF-487D-ADA1-0BFBB6505772}" name="Event"/>
     <tableColumn id="2" xr3:uid="{4A939A0F-B787-4665-B94F-35DE80E0B243}" name="start_time"/>
     <tableColumn id="3" xr3:uid="{237002C1-33B1-4A0C-8625-A4F946E3279C}" name="time"/>
     <tableColumn id="4" xr3:uid="{9D5DC911-C5F2-4D28-93C2-CC287EB8C514}" name="end_time"/>
@@ -1726,9 +1726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77939FC4-FC73-4262-977F-310955BE7B1D}">
   <dimension ref="A1:M134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="G134" sqref="G134"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1741,25 +1739,25 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>440</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -1768,43 +1766,43 @@
         <v>10</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B2" t="s">
         <v>413</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2" t="s">
         <v>414</v>
       </c>
-      <c r="C2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D2" t="s">
-        <v>415</v>
-      </c>
       <c r="H2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J2" s="1"/>
       <c r="L2" t="s">
         <v>9</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -1812,35 +1810,35 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J3" s="1"/>
       <c r="L3" t="s">
         <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -1848,35 +1846,35 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J4" s="1"/>
       <c r="L4" t="s">
         <v>9</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1884,71 +1882,71 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J5" s="1"/>
       <c r="L5" t="s">
         <v>9</v>
       </c>
       <c r="M5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
       <c r="F6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J6" s="1"/>
       <c r="L6" t="s">
         <v>9</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1956,35 +1954,35 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
       </c>
       <c r="F7" t="s">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J7" s="1"/>
       <c r="L7" t="s">
         <v>9</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1992,71 +1990,71 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>52</v>
       </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J8" s="1"/>
       <c r="L8" t="s">
         <v>9</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
         <v>54</v>
       </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>55</v>
       </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J9" s="1"/>
       <c r="L9" t="s">
         <v>9</v>
       </c>
       <c r="M9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -2064,71 +2062,71 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>58</v>
       </c>
-      <c r="E10" t="s">
-        <v>59</v>
-      </c>
       <c r="F10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J10" s="1"/>
       <c r="L10" t="s">
         <v>9</v>
       </c>
       <c r="M10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
         <v>60</v>
       </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J11" s="1"/>
       <c r="L11" t="s">
         <v>9</v>
       </c>
       <c r="M11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -2136,143 +2134,143 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
         <v>62</v>
       </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
       <c r="F12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J12" s="1"/>
       <c r="L12" t="s">
         <v>9</v>
       </c>
       <c r="M12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
         <v>65</v>
       </c>
-      <c r="C13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>66</v>
       </c>
-      <c r="E13" t="s">
-        <v>67</v>
-      </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J13" s="1"/>
       <c r="L13" t="s">
         <v>9</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
         <v>68</v>
       </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>69</v>
       </c>
-      <c r="E14" t="s">
-        <v>70</v>
-      </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J14" s="1"/>
       <c r="L14" t="s">
         <v>9</v>
       </c>
       <c r="M14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
         <v>71</v>
       </c>
-      <c r="C15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>72</v>
       </c>
-      <c r="E15" t="s">
-        <v>73</v>
-      </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J15" s="1"/>
       <c r="L15" t="s">
         <v>9</v>
       </c>
       <c r="M15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -2280,176 +2278,176 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
         <v>74</v>
       </c>
-      <c r="C16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>75</v>
-      </c>
-      <c r="E16" t="s">
-        <v>76</v>
       </c>
       <c r="F16" t="s">
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J16" s="1"/>
       <c r="L16" t="s">
         <v>9</v>
       </c>
       <c r="M16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
         <v>77</v>
       </c>
-      <c r="C17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="s">
-        <v>78</v>
-      </c>
       <c r="F17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J17" s="1"/>
       <c r="L17" t="s">
         <v>9</v>
       </c>
       <c r="M17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
         <v>79</v>
       </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>80</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>81</v>
       </c>
-      <c r="E18" t="s">
-        <v>82</v>
-      </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J18" s="1"/>
       <c r="L18" t="s">
         <v>9</v>
       </c>
       <c r="M18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
         <v>83</v>
       </c>
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>84</v>
       </c>
-      <c r="E19" t="s">
-        <v>85</v>
-      </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J19" s="1"/>
       <c r="L19" t="s">
         <v>9</v>
       </c>
       <c r="M19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
         <v>86</v>
       </c>
-      <c r="C20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>87</v>
       </c>
-      <c r="E20" t="s">
-        <v>88</v>
-      </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J20" s="1"/>
       <c r="L20" t="s">
         <v>9</v>
       </c>
       <c r="M20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -2457,68 +2455,68 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
         <v>89</v>
       </c>
-      <c r="C21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>90</v>
-      </c>
       <c r="G21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J21" s="1"/>
       <c r="L21" t="s">
         <v>9</v>
       </c>
       <c r="M21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
         <v>91</v>
       </c>
-      <c r="C22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>92</v>
       </c>
-      <c r="E22" t="s">
-        <v>93</v>
-      </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J22" s="1"/>
       <c r="L22" t="s">
         <v>9</v>
       </c>
       <c r="M22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -2526,71 +2524,71 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" t="s">
         <v>94</v>
       </c>
-      <c r="C23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>95</v>
-      </c>
-      <c r="E23" t="s">
-        <v>96</v>
       </c>
       <c r="F23" t="s">
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J23" s="1"/>
       <c r="L23" t="s">
         <v>9</v>
       </c>
       <c r="M23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" t="s">
         <v>97</v>
       </c>
-      <c r="C24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>98</v>
       </c>
-      <c r="E24" t="s">
-        <v>99</v>
-      </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J24" s="1"/>
       <c r="L24" t="s">
         <v>9</v>
       </c>
       <c r="M24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -2598,71 +2596,71 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s">
         <v>100</v>
       </c>
-      <c r="C25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>101</v>
       </c>
-      <c r="E25" t="s">
-        <v>102</v>
-      </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J25" s="1"/>
       <c r="L25" t="s">
         <v>9</v>
       </c>
       <c r="M25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" t="s">
         <v>103</v>
       </c>
-      <c r="C26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>104</v>
       </c>
-      <c r="E26" t="s">
-        <v>105</v>
-      </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H26" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J26" s="1"/>
       <c r="L26" t="s">
         <v>9</v>
       </c>
       <c r="M26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -2670,68 +2668,68 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
         <v>106</v>
       </c>
-      <c r="C27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" t="s">
-        <v>107</v>
-      </c>
       <c r="F27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J27" s="1"/>
       <c r="L27" t="s">
         <v>9</v>
       </c>
       <c r="M27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
         <v>108</v>
       </c>
-      <c r="C28" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" t="s">
-        <v>109</v>
-      </c>
       <c r="G28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J28" s="1"/>
       <c r="L28" t="s">
         <v>9</v>
       </c>
       <c r="M28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -2739,35 +2737,35 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" t="s">
         <v>110</v>
       </c>
-      <c r="C29" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>111</v>
-      </c>
-      <c r="E29" t="s">
-        <v>112</v>
       </c>
       <c r="F29" t="s">
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J29" s="1"/>
       <c r="L29" t="s">
         <v>9</v>
       </c>
       <c r="M29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -2775,35 +2773,35 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" t="s">
         <v>113</v>
       </c>
-      <c r="C30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>114</v>
       </c>
-      <c r="E30" t="s">
-        <v>115</v>
-      </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J30" s="1"/>
       <c r="L30" t="s">
         <v>9</v>
       </c>
       <c r="M30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -2811,65 +2809,65 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" t="s">
         <v>116</v>
       </c>
-      <c r="C31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>117</v>
       </c>
-      <c r="E31" t="s">
-        <v>118</v>
-      </c>
       <c r="G31" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J31" s="1"/>
       <c r="L31" t="s">
         <v>9</v>
       </c>
       <c r="M31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>120</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>121</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>122</v>
-      </c>
-      <c r="E32" t="s">
-        <v>123</v>
       </c>
       <c r="F32" t="s">
         <v>6</v>
       </c>
       <c r="H32" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J32" s="1"/>
       <c r="L32" t="s">
         <v>9</v>
       </c>
       <c r="M32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -2877,71 +2875,71 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" t="s">
         <v>124</v>
       </c>
-      <c r="C33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>125</v>
       </c>
-      <c r="E33" t="s">
-        <v>126</v>
-      </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H33" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J33" s="1"/>
       <c r="L33" t="s">
         <v>9</v>
       </c>
       <c r="M33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" t="s">
         <v>127</v>
       </c>
-      <c r="C34" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>128</v>
       </c>
-      <c r="E34" t="s">
-        <v>129</v>
-      </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J34" s="1"/>
       <c r="L34" t="s">
         <v>9</v>
       </c>
       <c r="M34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -2949,71 +2947,71 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" t="s">
         <v>130</v>
       </c>
-      <c r="C35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" t="s">
-        <v>131</v>
-      </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H35" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J35" s="1"/>
       <c r="L35" t="s">
         <v>9</v>
       </c>
       <c r="M35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" t="s">
         <v>132</v>
       </c>
-      <c r="E36" t="s">
-        <v>133</v>
-      </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H36" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J36" s="1"/>
       <c r="L36" t="s">
         <v>9</v>
       </c>
       <c r="M36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -3021,35 +3019,35 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D37" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" t="s">
         <v>134</v>
-      </c>
-      <c r="E37" t="s">
-        <v>135</v>
       </c>
       <c r="F37" t="s">
         <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H37" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J37" s="1"/>
       <c r="L37" t="s">
         <v>9</v>
       </c>
       <c r="M37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -3057,71 +3055,71 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D38" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" t="s">
         <v>136</v>
       </c>
-      <c r="E38" t="s">
-        <v>137</v>
-      </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J38" s="1"/>
       <c r="L38" t="s">
         <v>9</v>
       </c>
       <c r="M38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" t="s">
         <v>138</v>
       </c>
-      <c r="C39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D39" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" t="s">
-        <v>139</v>
-      </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H39" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J39" s="1"/>
       <c r="L39" t="s">
         <v>9</v>
       </c>
       <c r="M39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -3129,35 +3127,35 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" t="s">
         <v>140</v>
       </c>
-      <c r="C40" t="s">
-        <v>140</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>141</v>
       </c>
-      <c r="E40" t="s">
-        <v>142</v>
-      </c>
       <c r="F40" t="s">
+        <v>397</v>
+      </c>
+      <c r="G40" t="s">
         <v>398</v>
       </c>
-      <c r="G40" t="s">
-        <v>399</v>
-      </c>
       <c r="H40" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J40" s="1"/>
       <c r="L40" t="s">
         <v>9</v>
       </c>
       <c r="M40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -3165,71 +3163,71 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" t="s">
         <v>143</v>
       </c>
-      <c r="C41" t="s">
-        <v>143</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>144</v>
       </c>
-      <c r="E41" t="s">
-        <v>145</v>
-      </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H41" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J41" s="1"/>
       <c r="L41" t="s">
         <v>9</v>
       </c>
       <c r="M41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" t="s">
         <v>146</v>
       </c>
-      <c r="C42" t="s">
-        <v>146</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>147</v>
       </c>
-      <c r="E42" t="s">
-        <v>148</v>
-      </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J42" s="1"/>
       <c r="L42" t="s">
         <v>9</v>
       </c>
       <c r="M42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -3237,71 +3235,71 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" t="s">
         <v>149</v>
       </c>
-      <c r="C43" t="s">
-        <v>149</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>150</v>
       </c>
-      <c r="E43" t="s">
-        <v>151</v>
-      </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H43" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J43" s="1"/>
       <c r="L43" t="s">
         <v>9</v>
       </c>
       <c r="M43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D44" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" t="s">
         <v>152</v>
       </c>
-      <c r="E44" t="s">
-        <v>153</v>
-      </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H44" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J44" s="1"/>
       <c r="L44" t="s">
         <v>9</v>
       </c>
       <c r="M44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -3309,35 +3307,35 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" t="s">
         <v>154</v>
       </c>
-      <c r="C45" t="s">
-        <v>154</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>155</v>
       </c>
-      <c r="E45" t="s">
-        <v>156</v>
-      </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H45" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J45" s="1"/>
       <c r="L45" t="s">
         <v>9</v>
       </c>
       <c r="M45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -3345,32 +3343,32 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" t="s">
         <v>157</v>
       </c>
-      <c r="C46" t="s">
-        <v>157</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>158</v>
       </c>
-      <c r="E46" t="s">
-        <v>159</v>
-      </c>
       <c r="G46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J46" s="1"/>
       <c r="L46" t="s">
         <v>9</v>
       </c>
       <c r="M46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -3378,68 +3376,68 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" t="s">
         <v>160</v>
       </c>
-      <c r="C47" t="s">
-        <v>160</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>161</v>
       </c>
-      <c r="E47" t="s">
-        <v>162</v>
-      </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H47" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J47" s="1"/>
       <c r="L47" t="s">
         <v>9</v>
       </c>
       <c r="M47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B48" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" t="s">
         <v>163</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" t="s">
         <v>164</v>
-      </c>
-      <c r="D48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" t="s">
-        <v>165</v>
       </c>
       <c r="F48" t="s">
         <v>6</v>
       </c>
       <c r="H48" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J48" s="1"/>
       <c r="L48" t="s">
         <v>9</v>
       </c>
       <c r="M48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -3447,101 +3445,101 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" t="s">
         <v>166</v>
       </c>
-      <c r="C49" t="s">
-        <v>166</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>167</v>
       </c>
-      <c r="E49" t="s">
-        <v>168</v>
-      </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H49" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J49" s="1"/>
       <c r="L49" t="s">
         <v>9</v>
       </c>
       <c r="M49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" t="s">
         <v>169</v>
       </c>
-      <c r="C50" t="s">
-        <v>169</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>170</v>
       </c>
-      <c r="E50" t="s">
-        <v>171</v>
-      </c>
       <c r="G50" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H50" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J50" s="1"/>
       <c r="L50" t="s">
         <v>9</v>
       </c>
       <c r="M50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" t="s">
         <v>172</v>
       </c>
-      <c r="C51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>173</v>
       </c>
-      <c r="E51" t="s">
-        <v>174</v>
-      </c>
       <c r="G51" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J51" s="1"/>
       <c r="L51" t="s">
         <v>9</v>
       </c>
       <c r="M51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -3549,35 +3547,35 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" t="s">
         <v>175</v>
       </c>
-      <c r="C52" t="s">
-        <v>175</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>176</v>
       </c>
-      <c r="E52" t="s">
-        <v>177</v>
-      </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J52" s="1"/>
       <c r="L52" t="s">
         <v>9</v>
       </c>
       <c r="M52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -3585,71 +3583,71 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" t="s">
         <v>178</v>
       </c>
-      <c r="C53" t="s">
-        <v>178</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>179</v>
-      </c>
-      <c r="E53" t="s">
-        <v>180</v>
       </c>
       <c r="F53" t="s">
         <v>5</v>
       </c>
       <c r="G53" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H53" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J53" s="1"/>
       <c r="L53" t="s">
         <v>9</v>
       </c>
       <c r="M53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D54" t="s">
+        <v>180</v>
+      </c>
+      <c r="E54" t="s">
         <v>181</v>
       </c>
-      <c r="E54" t="s">
-        <v>182</v>
-      </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H54" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J54" s="1"/>
       <c r="L54" t="s">
         <v>9</v>
       </c>
       <c r="M54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
@@ -3657,35 +3655,35 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55" t="s">
         <v>183</v>
       </c>
-      <c r="C55" t="s">
-        <v>183</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>184</v>
-      </c>
-      <c r="E55" t="s">
-        <v>185</v>
       </c>
       <c r="F55" t="s">
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H55" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J55" s="1"/>
       <c r="L55" t="s">
         <v>9</v>
       </c>
       <c r="M55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -3693,143 +3691,143 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" t="s">
+        <v>185</v>
+      </c>
+      <c r="D56" t="s">
         <v>186</v>
       </c>
-      <c r="C56" t="s">
-        <v>186</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>187</v>
       </c>
-      <c r="E56" t="s">
-        <v>188</v>
-      </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H56" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J56" s="1"/>
       <c r="L56" t="s">
         <v>9</v>
       </c>
       <c r="M56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D57" t="s">
         <v>189</v>
       </c>
-      <c r="C57" t="s">
-        <v>189</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>190</v>
       </c>
-      <c r="E57" t="s">
-        <v>191</v>
-      </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H57" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J57" s="1"/>
       <c r="L57" t="s">
         <v>9</v>
       </c>
       <c r="M57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B58" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" t="s">
+        <v>191</v>
+      </c>
+      <c r="D58" t="s">
         <v>192</v>
       </c>
-      <c r="C58" t="s">
-        <v>192</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>193</v>
       </c>
-      <c r="E58" t="s">
-        <v>194</v>
-      </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H58" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J58" s="1"/>
       <c r="L58" t="s">
         <v>9</v>
       </c>
       <c r="M58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
+        <v>194</v>
+      </c>
+      <c r="C59" t="s">
         <v>195</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>196</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>197</v>
       </c>
-      <c r="E59" t="s">
-        <v>198</v>
-      </c>
       <c r="F59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G59" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H59" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J59" s="1"/>
       <c r="L59" t="s">
         <v>9</v>
       </c>
       <c r="M59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
@@ -3837,122 +3835,122 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
+        <v>198</v>
+      </c>
+      <c r="C60" t="s">
+        <v>198</v>
+      </c>
+      <c r="D60" t="s">
         <v>199</v>
       </c>
-      <c r="C60" t="s">
-        <v>199</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>200</v>
       </c>
-      <c r="E60" t="s">
-        <v>201</v>
-      </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H60" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J60" s="1"/>
       <c r="L60" t="s">
         <v>9</v>
       </c>
       <c r="M60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>408</v>
+      </c>
+      <c r="B61" t="s">
         <v>409</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>410</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>411</v>
       </c>
-      <c r="D61" t="s">
-        <v>412</v>
-      </c>
       <c r="H61" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J61" s="1"/>
       <c r="L61" t="s">
         <v>9</v>
       </c>
       <c r="M61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>415</v>
+      </c>
+      <c r="B62" t="s">
         <v>416</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>417</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>418</v>
       </c>
-      <c r="D62" t="s">
-        <v>419</v>
-      </c>
       <c r="H62" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J62" s="1"/>
       <c r="L62" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M62" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B63" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" t="s">
         <v>202</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>203</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>204</v>
       </c>
-      <c r="E63" t="s">
-        <v>205</v>
-      </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H63" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J63" s="1"/>
       <c r="L63" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M63" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -3960,71 +3958,71 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" t="s">
+        <v>205</v>
+      </c>
+      <c r="D64" t="s">
         <v>206</v>
       </c>
-      <c r="C64" t="s">
-        <v>206</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>207</v>
-      </c>
-      <c r="E64" t="s">
-        <v>208</v>
       </c>
       <c r="F64" t="s">
         <v>5</v>
       </c>
       <c r="G64" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H64" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J64" s="1"/>
       <c r="L64" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M64" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B65" t="s">
+        <v>208</v>
+      </c>
+      <c r="C65" t="s">
+        <v>208</v>
+      </c>
+      <c r="D65" t="s">
+        <v>206</v>
+      </c>
+      <c r="E65" t="s">
         <v>209</v>
       </c>
-      <c r="C65" t="s">
-        <v>209</v>
-      </c>
-      <c r="D65" t="s">
-        <v>207</v>
-      </c>
-      <c r="E65" t="s">
-        <v>210</v>
-      </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H65" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J65" s="1"/>
       <c r="L65" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M65" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -4032,35 +4030,35 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
+        <v>210</v>
+      </c>
+      <c r="C66" t="s">
+        <v>210</v>
+      </c>
+      <c r="D66" t="s">
         <v>211</v>
       </c>
-      <c r="C66" t="s">
-        <v>211</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>212</v>
       </c>
-      <c r="E66" t="s">
-        <v>213</v>
-      </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H66" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J66" s="1"/>
       <c r="L66" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M66" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -4068,104 +4066,104 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C67" t="s">
+        <v>213</v>
+      </c>
+      <c r="D67" t="s">
         <v>214</v>
       </c>
-      <c r="C67" t="s">
-        <v>214</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>215</v>
       </c>
-      <c r="E67" t="s">
-        <v>216</v>
-      </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H67" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J67" s="1"/>
       <c r="L67" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M67" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B68" t="s">
+        <v>216</v>
+      </c>
+      <c r="C68" t="s">
+        <v>216</v>
+      </c>
+      <c r="D68" t="s">
         <v>217</v>
       </c>
-      <c r="C68" t="s">
-        <v>217</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>218</v>
       </c>
-      <c r="E68" t="s">
-        <v>219</v>
-      </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H68" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J68" s="1"/>
       <c r="L68" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M68" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B69" t="s">
+        <v>219</v>
+      </c>
+      <c r="C69" t="s">
         <v>220</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>221</v>
       </c>
-      <c r="D69" t="s">
-        <v>222</v>
-      </c>
       <c r="E69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H69" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J69" s="1"/>
       <c r="L69" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M69" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
@@ -4173,71 +4171,71 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D70" t="s">
         <v>223</v>
       </c>
-      <c r="C70" t="s">
-        <v>223</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>224</v>
       </c>
-      <c r="E70" t="s">
-        <v>225</v>
-      </c>
       <c r="F70" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G70" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H70" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J70" s="1"/>
       <c r="L70" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M70" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B71" t="s">
+        <v>225</v>
+      </c>
+      <c r="C71" t="s">
+        <v>225</v>
+      </c>
+      <c r="D71" t="s">
         <v>226</v>
       </c>
-      <c r="C71" t="s">
-        <v>226</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>227</v>
       </c>
-      <c r="E71" t="s">
-        <v>228</v>
-      </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H71" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J71" s="1"/>
       <c r="L71" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M71" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -4245,107 +4243,107 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
+        <v>228</v>
+      </c>
+      <c r="C72" t="s">
+        <v>228</v>
+      </c>
+      <c r="D72" t="s">
         <v>229</v>
       </c>
-      <c r="C72" t="s">
-        <v>229</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>230</v>
       </c>
-      <c r="E72" t="s">
-        <v>231</v>
-      </c>
       <c r="F72" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G72" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H72" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J72" s="1"/>
       <c r="L72" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M72" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D73" t="s">
+        <v>231</v>
+      </c>
+      <c r="E73" t="s">
         <v>232</v>
       </c>
-      <c r="E73" t="s">
-        <v>233</v>
-      </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H73" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J73" s="1"/>
       <c r="L73" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M73" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B74" t="s">
+        <v>233</v>
+      </c>
+      <c r="C74" t="s">
+        <v>233</v>
+      </c>
+      <c r="D74" t="s">
         <v>234</v>
       </c>
-      <c r="C74" t="s">
-        <v>234</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>235</v>
       </c>
-      <c r="E74" t="s">
-        <v>236</v>
-      </c>
       <c r="F74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G74" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H74" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J74" s="1"/>
       <c r="L74" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M74" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -4353,143 +4351,143 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
+        <v>236</v>
+      </c>
+      <c r="C75" t="s">
+        <v>236</v>
+      </c>
+      <c r="D75" t="s">
         <v>237</v>
       </c>
-      <c r="C75" t="s">
-        <v>237</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>238</v>
       </c>
-      <c r="E75" t="s">
-        <v>239</v>
-      </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H75" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J75" s="1"/>
       <c r="L75" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M75" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B76" t="s">
+        <v>239</v>
+      </c>
+      <c r="C76" t="s">
+        <v>239</v>
+      </c>
+      <c r="D76" t="s">
         <v>240</v>
       </c>
-      <c r="C76" t="s">
-        <v>240</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>241</v>
       </c>
-      <c r="E76" t="s">
-        <v>242</v>
-      </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H76" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J76" s="1"/>
       <c r="L76" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M76" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C77" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D77" t="s">
+        <v>242</v>
+      </c>
+      <c r="E77" t="s">
         <v>243</v>
       </c>
-      <c r="E77" t="s">
-        <v>244</v>
-      </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H77" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J77" s="1"/>
       <c r="L77" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M77" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C78" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D78" t="s">
+        <v>244</v>
+      </c>
+      <c r="E78" t="s">
         <v>245</v>
       </c>
-      <c r="E78" t="s">
-        <v>246</v>
-      </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H78" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J78" s="1"/>
       <c r="L78" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M78" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -4497,104 +4495,104 @@
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C79" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D79" t="s">
+        <v>246</v>
+      </c>
+      <c r="E79" t="s">
         <v>247</v>
       </c>
-      <c r="E79" t="s">
-        <v>248</v>
-      </c>
       <c r="F79" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G79" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H79" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J79" s="1"/>
       <c r="L79" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M79" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B80" t="s">
+        <v>248</v>
+      </c>
+      <c r="C80" t="s">
+        <v>248</v>
+      </c>
+      <c r="D80" t="s">
         <v>249</v>
       </c>
-      <c r="C80" t="s">
-        <v>249</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>250</v>
       </c>
-      <c r="E80" t="s">
-        <v>251</v>
-      </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H80" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J80" s="1"/>
       <c r="L80" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M80" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
+        <v>251</v>
+      </c>
+      <c r="C81" t="s">
         <v>252</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>253</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>254</v>
       </c>
-      <c r="E81" t="s">
-        <v>255</v>
-      </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H81" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J81" s="1"/>
       <c r="L81" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M81" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -4602,35 +4600,35 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
+        <v>255</v>
+      </c>
+      <c r="C82" t="s">
+        <v>255</v>
+      </c>
+      <c r="D82" t="s">
         <v>256</v>
       </c>
-      <c r="C82" t="s">
-        <v>256</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>257</v>
       </c>
-      <c r="E82" t="s">
-        <v>258</v>
-      </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H82" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J82" s="1"/>
       <c r="L82" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M82" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -4638,71 +4636,71 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
+        <v>258</v>
+      </c>
+      <c r="C83" t="s">
+        <v>258</v>
+      </c>
+      <c r="D83" t="s">
         <v>259</v>
       </c>
-      <c r="C83" t="s">
-        <v>259</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>260</v>
       </c>
-      <c r="E83" t="s">
-        <v>261</v>
-      </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H83" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J83" s="1"/>
       <c r="L83" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M83" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B84" t="s">
+        <v>261</v>
+      </c>
+      <c r="C84" t="s">
+        <v>261</v>
+      </c>
+      <c r="D84" t="s">
         <v>262</v>
       </c>
-      <c r="C84" t="s">
-        <v>262</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>263</v>
       </c>
-      <c r="E84" t="s">
-        <v>264</v>
-      </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H84" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J84" s="1"/>
       <c r="L84" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M84" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
@@ -4710,104 +4708,104 @@
         <v>1</v>
       </c>
       <c r="B85" t="s">
+        <v>264</v>
+      </c>
+      <c r="C85" t="s">
+        <v>264</v>
+      </c>
+      <c r="D85" t="s">
         <v>265</v>
       </c>
-      <c r="C85" t="s">
-        <v>265</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>266</v>
       </c>
-      <c r="E85" t="s">
-        <v>267</v>
-      </c>
       <c r="F85" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G85" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H85" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J85" s="1"/>
       <c r="L85" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M85" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B86" t="s">
+        <v>267</v>
+      </c>
+      <c r="C86" t="s">
+        <v>267</v>
+      </c>
+      <c r="D86" t="s">
         <v>268</v>
       </c>
-      <c r="C86" t="s">
-        <v>268</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>269</v>
       </c>
-      <c r="E86" t="s">
-        <v>270</v>
-      </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H86" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J86" s="1"/>
       <c r="L86" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M86" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B87" t="s">
+        <v>270</v>
+      </c>
+      <c r="C87" t="s">
         <v>271</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>272</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>273</v>
       </c>
-      <c r="E87" t="s">
-        <v>274</v>
-      </c>
       <c r="F87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H87" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J87" s="1"/>
       <c r="L87" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M87" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
@@ -4815,107 +4813,107 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
+        <v>274</v>
+      </c>
+      <c r="C88" t="s">
+        <v>274</v>
+      </c>
+      <c r="D88" t="s">
         <v>275</v>
       </c>
-      <c r="C88" t="s">
-        <v>275</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>276</v>
-      </c>
-      <c r="E88" t="s">
-        <v>277</v>
       </c>
       <c r="F88" t="s">
         <v>5</v>
       </c>
       <c r="G88" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H88" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J88" s="1"/>
       <c r="L88" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M88" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B89" t="s">
+        <v>277</v>
+      </c>
+      <c r="C89" t="s">
+        <v>277</v>
+      </c>
+      <c r="D89" t="s">
+        <v>275</v>
+      </c>
+      <c r="E89" t="s">
         <v>278</v>
       </c>
-      <c r="C89" t="s">
-        <v>278</v>
-      </c>
-      <c r="D89" t="s">
-        <v>276</v>
-      </c>
-      <c r="E89" t="s">
-        <v>279</v>
-      </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H89" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J89" s="1"/>
       <c r="L89" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M89" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B90" t="s">
+        <v>279</v>
+      </c>
+      <c r="C90" t="s">
+        <v>279</v>
+      </c>
+      <c r="D90" t="s">
         <v>280</v>
       </c>
-      <c r="C90" t="s">
-        <v>280</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>281</v>
       </c>
-      <c r="E90" t="s">
-        <v>282</v>
-      </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H90" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J90" s="1"/>
       <c r="L90" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M90" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -4923,71 +4921,71 @@
         <v>1</v>
       </c>
       <c r="B91" t="s">
+        <v>282</v>
+      </c>
+      <c r="C91" t="s">
+        <v>282</v>
+      </c>
+      <c r="D91" t="s">
         <v>283</v>
       </c>
-      <c r="C91" t="s">
-        <v>283</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>284</v>
       </c>
-      <c r="E91" t="s">
-        <v>285</v>
-      </c>
       <c r="F91" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H91" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J91" s="1"/>
       <c r="L91" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M91" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B92" t="s">
+        <v>285</v>
+      </c>
+      <c r="C92" t="s">
+        <v>285</v>
+      </c>
+      <c r="D92" t="s">
         <v>286</v>
       </c>
-      <c r="C92" t="s">
-        <v>286</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>287</v>
       </c>
-      <c r="E92" t="s">
-        <v>288</v>
-      </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H92" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J92" s="1"/>
       <c r="L92" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M92" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
@@ -4995,71 +4993,71 @@
         <v>1</v>
       </c>
       <c r="B93" t="s">
+        <v>288</v>
+      </c>
+      <c r="C93" t="s">
+        <v>288</v>
+      </c>
+      <c r="D93" t="s">
         <v>289</v>
       </c>
-      <c r="C93" t="s">
-        <v>289</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>290</v>
-      </c>
-      <c r="E93" t="s">
-        <v>291</v>
       </c>
       <c r="F93" t="s">
         <v>2</v>
       </c>
       <c r="G93" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H93" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J93" s="1"/>
       <c r="L93" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M93" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B94" t="s">
+        <v>291</v>
+      </c>
+      <c r="C94" t="s">
+        <v>291</v>
+      </c>
+      <c r="D94" t="s">
         <v>292</v>
       </c>
-      <c r="C94" t="s">
-        <v>292</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>293</v>
       </c>
-      <c r="E94" t="s">
-        <v>294</v>
-      </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H94" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J94" s="1"/>
       <c r="L94" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M94" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
@@ -5067,35 +5065,35 @@
         <v>3</v>
       </c>
       <c r="B95" t="s">
+        <v>294</v>
+      </c>
+      <c r="C95" t="s">
+        <v>294</v>
+      </c>
+      <c r="D95" t="s">
         <v>295</v>
       </c>
-      <c r="C95" t="s">
-        <v>295</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>296</v>
       </c>
-      <c r="E95" t="s">
-        <v>297</v>
-      </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H95" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J95" s="1"/>
       <c r="L95" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M95" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -5103,35 +5101,35 @@
         <v>1</v>
       </c>
       <c r="B96" t="s">
+        <v>297</v>
+      </c>
+      <c r="C96" t="s">
+        <v>297</v>
+      </c>
+      <c r="D96" t="s">
         <v>298</v>
       </c>
-      <c r="C96" t="s">
-        <v>298</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>299</v>
       </c>
-      <c r="E96" t="s">
-        <v>300</v>
-      </c>
       <c r="F96" t="s">
+        <v>397</v>
+      </c>
+      <c r="G96" t="s">
         <v>398</v>
       </c>
-      <c r="G96" t="s">
-        <v>399</v>
-      </c>
       <c r="H96" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J96" s="1"/>
       <c r="L96" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
@@ -5139,35 +5137,35 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
+        <v>300</v>
+      </c>
+      <c r="C97" t="s">
+        <v>300</v>
+      </c>
+      <c r="D97" t="s">
         <v>301</v>
       </c>
-      <c r="C97" t="s">
-        <v>301</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>302</v>
       </c>
-      <c r="E97" t="s">
-        <v>303</v>
-      </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H97" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J97" s="1"/>
       <c r="L97" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M97" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
@@ -5175,71 +5173,71 @@
         <v>3</v>
       </c>
       <c r="B98" t="s">
+        <v>303</v>
+      </c>
+      <c r="C98" t="s">
+        <v>303</v>
+      </c>
+      <c r="D98" t="s">
         <v>304</v>
       </c>
-      <c r="C98" t="s">
-        <v>304</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>305</v>
       </c>
-      <c r="E98" t="s">
-        <v>306</v>
-      </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H98" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J98" s="1"/>
       <c r="L98" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M98" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B99" t="s">
+        <v>306</v>
+      </c>
+      <c r="C99" t="s">
+        <v>306</v>
+      </c>
+      <c r="D99" t="s">
         <v>307</v>
       </c>
-      <c r="C99" t="s">
-        <v>307</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>308</v>
       </c>
-      <c r="E99" t="s">
-        <v>309</v>
-      </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H99" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J99" s="1"/>
       <c r="L99" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M99" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
@@ -5247,71 +5245,71 @@
         <v>1</v>
       </c>
       <c r="B100" t="s">
+        <v>309</v>
+      </c>
+      <c r="C100" t="s">
+        <v>309</v>
+      </c>
+      <c r="D100" t="s">
         <v>310</v>
       </c>
-      <c r="C100" t="s">
-        <v>310</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>311</v>
       </c>
-      <c r="E100" t="s">
-        <v>312</v>
-      </c>
       <c r="F100" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G100" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H100" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J100" s="1"/>
       <c r="L100" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M100" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B101" t="s">
+        <v>312</v>
+      </c>
+      <c r="C101" t="s">
         <v>313</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>314</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>315</v>
-      </c>
-      <c r="E101" t="s">
-        <v>316</v>
       </c>
       <c r="F101" t="s">
         <v>6</v>
       </c>
       <c r="G101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H101" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J101" s="1"/>
       <c r="L101" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M101" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
@@ -5319,71 +5317,71 @@
         <v>3</v>
       </c>
       <c r="B102" t="s">
+        <v>316</v>
+      </c>
+      <c r="C102" t="s">
+        <v>316</v>
+      </c>
+      <c r="D102" t="s">
         <v>317</v>
       </c>
-      <c r="C102" t="s">
-        <v>317</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>318</v>
       </c>
-      <c r="E102" t="s">
-        <v>319</v>
-      </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H102" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J102" s="1"/>
       <c r="L102" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M102" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B103" t="s">
+        <v>319</v>
+      </c>
+      <c r="C103" t="s">
+        <v>319</v>
+      </c>
+      <c r="D103" t="s">
         <v>320</v>
       </c>
-      <c r="C103" t="s">
-        <v>320</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>321</v>
       </c>
-      <c r="E103" t="s">
-        <v>322</v>
-      </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H103" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J103" s="1"/>
       <c r="L103" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M103" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
@@ -5391,170 +5389,170 @@
         <v>3</v>
       </c>
       <c r="B104" t="s">
+        <v>322</v>
+      </c>
+      <c r="C104" t="s">
+        <v>322</v>
+      </c>
+      <c r="D104" t="s">
         <v>323</v>
       </c>
-      <c r="C104" t="s">
-        <v>323</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>324</v>
       </c>
-      <c r="E104" t="s">
-        <v>325</v>
-      </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H104" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J104" s="1"/>
       <c r="L104" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M104" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B105" t="s">
+        <v>325</v>
+      </c>
+      <c r="C105" t="s">
         <v>326</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>327</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>328</v>
-      </c>
-      <c r="E105" t="s">
-        <v>329</v>
       </c>
       <c r="F105" t="s">
         <v>6</v>
       </c>
       <c r="H105" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J105" s="1"/>
       <c r="L105" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M105" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B106" t="s">
+        <v>329</v>
+      </c>
+      <c r="C106" t="s">
+        <v>329</v>
+      </c>
+      <c r="D106" t="s">
         <v>330</v>
       </c>
-      <c r="C106" t="s">
-        <v>330</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>331</v>
       </c>
-      <c r="E106" t="s">
-        <v>332</v>
-      </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H106" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J106" s="1"/>
       <c r="L106" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M106" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B107" t="s">
+        <v>332</v>
+      </c>
+      <c r="C107" t="s">
         <v>333</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>334</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>335</v>
       </c>
-      <c r="E107" t="s">
-        <v>336</v>
-      </c>
       <c r="F107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H107" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J107" s="1"/>
       <c r="L107" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M107" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B108" t="s">
+        <v>336</v>
+      </c>
+      <c r="C108" t="s">
         <v>337</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>338</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>339</v>
       </c>
-      <c r="E108" t="s">
-        <v>340</v>
-      </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H108" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J108" s="1"/>
       <c r="L108" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M108" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -5562,35 +5560,35 @@
         <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C109" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D109" t="s">
+        <v>340</v>
+      </c>
+      <c r="E109" t="s">
         <v>341</v>
       </c>
-      <c r="E109" t="s">
-        <v>342</v>
-      </c>
       <c r="F109" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G109" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H109" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J109" s="1"/>
       <c r="L109" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M109" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
@@ -5598,71 +5596,71 @@
         <v>1</v>
       </c>
       <c r="B110" t="s">
+        <v>342</v>
+      </c>
+      <c r="C110" t="s">
+        <v>342</v>
+      </c>
+      <c r="D110" t="s">
         <v>343</v>
       </c>
-      <c r="C110" t="s">
-        <v>343</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>344</v>
       </c>
-      <c r="E110" t="s">
-        <v>345</v>
-      </c>
       <c r="F110" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G110" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H110" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J110" s="1"/>
       <c r="L110" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M110" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B111" t="s">
+        <v>345</v>
+      </c>
+      <c r="C111" t="s">
+        <v>345</v>
+      </c>
+      <c r="D111" t="s">
         <v>346</v>
       </c>
-      <c r="C111" t="s">
-        <v>346</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>347</v>
       </c>
-      <c r="E111" t="s">
-        <v>348</v>
-      </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H111" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J111" s="1"/>
       <c r="L111" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M111" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
@@ -5670,35 +5668,35 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
+        <v>348</v>
+      </c>
+      <c r="C112" t="s">
+        <v>348</v>
+      </c>
+      <c r="D112" t="s">
         <v>349</v>
       </c>
-      <c r="C112" t="s">
-        <v>349</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>350</v>
       </c>
-      <c r="E112" t="s">
-        <v>351</v>
-      </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H112" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J112" s="1"/>
       <c r="L112" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M112" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
@@ -5706,35 +5704,35 @@
         <v>1</v>
       </c>
       <c r="B113" t="s">
+        <v>351</v>
+      </c>
+      <c r="C113" t="s">
+        <v>351</v>
+      </c>
+      <c r="D113" t="s">
         <v>352</v>
       </c>
-      <c r="C113" t="s">
-        <v>352</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>353</v>
       </c>
-      <c r="E113" t="s">
-        <v>354</v>
-      </c>
       <c r="F113" t="s">
+        <v>397</v>
+      </c>
+      <c r="G113" t="s">
         <v>398</v>
       </c>
-      <c r="G113" t="s">
-        <v>399</v>
-      </c>
       <c r="H113" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J113" s="1"/>
       <c r="L113" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M113" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -5742,71 +5740,71 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
+        <v>354</v>
+      </c>
+      <c r="C114" t="s">
+        <v>354</v>
+      </c>
+      <c r="D114" t="s">
         <v>355</v>
       </c>
-      <c r="C114" t="s">
-        <v>355</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>356</v>
       </c>
-      <c r="E114" t="s">
-        <v>357</v>
-      </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H114" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J114" s="1"/>
       <c r="L114" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M114" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B115" t="s">
+        <v>357</v>
+      </c>
+      <c r="C115" t="s">
+        <v>357</v>
+      </c>
+      <c r="D115" t="s">
         <v>358</v>
       </c>
-      <c r="C115" t="s">
-        <v>358</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>359</v>
       </c>
-      <c r="E115" t="s">
-        <v>360</v>
-      </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H115" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J115" s="1"/>
       <c r="L115" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M115" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -5814,35 +5812,35 @@
         <v>3</v>
       </c>
       <c r="B116" t="s">
+        <v>360</v>
+      </c>
+      <c r="C116" t="s">
+        <v>360</v>
+      </c>
+      <c r="D116" t="s">
         <v>361</v>
       </c>
-      <c r="C116" t="s">
-        <v>361</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>362</v>
       </c>
-      <c r="E116" t="s">
-        <v>363</v>
-      </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H116" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J116" s="1"/>
       <c r="L116" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M116" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -5850,137 +5848,137 @@
         <v>1</v>
       </c>
       <c r="B117" t="s">
+        <v>363</v>
+      </c>
+      <c r="C117" t="s">
+        <v>363</v>
+      </c>
+      <c r="D117" t="s">
         <v>364</v>
       </c>
-      <c r="C117" t="s">
-        <v>364</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>365</v>
       </c>
-      <c r="E117" t="s">
-        <v>366</v>
-      </c>
       <c r="F117" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G117" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H117" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J117" s="1"/>
       <c r="L117" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M117" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B118" t="s">
+        <v>366</v>
+      </c>
+      <c r="C118" t="s">
         <v>367</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>368</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>369</v>
-      </c>
-      <c r="E118" t="s">
-        <v>370</v>
       </c>
       <c r="F118" t="s">
         <v>4</v>
       </c>
       <c r="H118" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J118" s="1"/>
       <c r="L118" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M118" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B119" t="s">
+        <v>370</v>
+      </c>
+      <c r="C119" t="s">
+        <v>370</v>
+      </c>
+      <c r="D119" t="s">
         <v>371</v>
       </c>
-      <c r="C119" t="s">
-        <v>371</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>372</v>
       </c>
-      <c r="E119" t="s">
-        <v>373</v>
-      </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H119" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J119" s="1"/>
       <c r="L119" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M119" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B120" t="s">
+        <v>373</v>
+      </c>
+      <c r="C120" t="s">
         <v>374</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>375</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>376</v>
       </c>
-      <c r="E120" t="s">
-        <v>377</v>
-      </c>
       <c r="F120" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H120" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J120" s="1"/>
       <c r="L120" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M120" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -5988,68 +5986,68 @@
         <v>1</v>
       </c>
       <c r="B121" t="s">
+        <v>377</v>
+      </c>
+      <c r="C121" t="s">
+        <v>377</v>
+      </c>
+      <c r="D121" t="s">
         <v>378</v>
       </c>
-      <c r="C121" t="s">
-        <v>378</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>379</v>
       </c>
-      <c r="E121" t="s">
-        <v>380</v>
-      </c>
       <c r="F121" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H121" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J121" s="1"/>
       <c r="L121" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M121" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B122" t="s">
+        <v>380</v>
+      </c>
+      <c r="C122" t="s">
         <v>381</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>382</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>383</v>
       </c>
-      <c r="E122" t="s">
-        <v>384</v>
-      </c>
       <c r="F122" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H122" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J122" s="1"/>
       <c r="L122" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M122" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
@@ -6057,71 +6055,71 @@
         <v>1</v>
       </c>
       <c r="B123" t="s">
+        <v>384</v>
+      </c>
+      <c r="C123" t="s">
+        <v>384</v>
+      </c>
+      <c r="D123" t="s">
         <v>385</v>
       </c>
-      <c r="C123" t="s">
-        <v>385</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>386</v>
-      </c>
-      <c r="E123" t="s">
-        <v>387</v>
       </c>
       <c r="F123" t="s">
         <v>2</v>
       </c>
       <c r="G123" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H123" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J123" s="1"/>
       <c r="L123" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M123" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B124" t="s">
+        <v>387</v>
+      </c>
+      <c r="C124" t="s">
+        <v>387</v>
+      </c>
+      <c r="D124" t="s">
         <v>388</v>
       </c>
-      <c r="C124" t="s">
-        <v>388</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>389</v>
       </c>
-      <c r="E124" t="s">
-        <v>390</v>
-      </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H124" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J124" s="1"/>
       <c r="L124" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M124" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
@@ -6129,35 +6127,35 @@
         <v>3</v>
       </c>
       <c r="B125" t="s">
+        <v>390</v>
+      </c>
+      <c r="C125" t="s">
+        <v>390</v>
+      </c>
+      <c r="D125" t="s">
         <v>391</v>
       </c>
-      <c r="C125" t="s">
-        <v>391</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>392</v>
       </c>
-      <c r="E125" t="s">
-        <v>393</v>
-      </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H125" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J125" s="1"/>
       <c r="L125" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M125" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -6165,167 +6163,167 @@
         <v>3</v>
       </c>
       <c r="B126" t="s">
+        <v>393</v>
+      </c>
+      <c r="C126" t="s">
+        <v>393</v>
+      </c>
+      <c r="D126" t="s">
         <v>394</v>
       </c>
-      <c r="C126" t="s">
-        <v>394</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>395</v>
       </c>
-      <c r="E126" t="s">
-        <v>396</v>
-      </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H126" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J126" s="1"/>
       <c r="L126" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M126" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B127" t="s">
+        <v>419</v>
+      </c>
+      <c r="C127" t="s">
+        <v>419</v>
+      </c>
+      <c r="D127" t="s">
         <v>420</v>
       </c>
-      <c r="C127" t="s">
-        <v>420</v>
-      </c>
-      <c r="D127" t="s">
-        <v>421</v>
-      </c>
       <c r="H127" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J127" s="1"/>
       <c r="L127" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M127" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>424</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E128" t="s">
         <v>425</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="E128" t="s">
+      <c r="G128" t="s">
         <v>426</v>
       </c>
-      <c r="G128" t="s">
+      <c r="H128" t="s">
+        <v>406</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="J128" t="s">
         <v>427</v>
-      </c>
-      <c r="H128" t="s">
-        <v>407</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="J128" t="s">
-        <v>428</v>
       </c>
       <c r="L128" t="s">
         <v>9</v>
       </c>
       <c r="M128" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B129" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="D129" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>436</v>
-      </c>
       <c r="E129" t="s">
+        <v>428</v>
+      </c>
+      <c r="G129" t="s">
         <v>429</v>
       </c>
-      <c r="G129" t="s">
-        <v>430</v>
-      </c>
       <c r="H129" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J129" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L129" t="s">
         <v>9</v>
       </c>
       <c r="M129" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="D130" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>439</v>
-      </c>
       <c r="E130" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G130" t="s">
+        <v>426</v>
+      </c>
+      <c r="H130" t="s">
+        <v>406</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="J130" t="s">
         <v>427</v>
-      </c>
-      <c r="H130" t="s">
-        <v>407</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="J130" t="s">
-        <v>428</v>
       </c>
       <c r="L130" t="s">
         <v>9</v>
       </c>
       <c r="M130" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">

--- a/events.xlsx
+++ b/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\streamlit_tiznados\tiznados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E491C082-3553-4B52-9F71-46C271DEB670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91058291-5BBF-4DB0-830F-9D942F5029B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="444">
   <si>
     <t>XY</t>
   </si>
@@ -1243,9 +1243,6 @@
     <t>USMP</t>
   </si>
   <si>
-    <t>Tiznados vs USMP</t>
-  </si>
-  <si>
     <t>FIN 1T</t>
   </si>
   <si>
@@ -1343,6 +1340,18 @@
   </si>
   <si>
     <t>Event</t>
+  </si>
+  <si>
+    <t>colectivo</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>action_type</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vmWdqhzpwTA</t>
   </si>
 </sst>
 </file>
@@ -1416,9 +1425,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1975CA6-E80E-40A4-A9D5-728F867A63BD}" name="Tabla1" displayName="Tabla1" ref="A1:M130" totalsRowShown="0">
-  <autoFilter ref="A1:M130" xr:uid="{C1975CA6-E80E-40A4-A9D5-728F867A63BD}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1975CA6-E80E-40A4-A9D5-728F867A63BD}" name="Tabla1" displayName="Tabla1" ref="A1:N130" totalsRowShown="0">
+  <autoFilter ref="A1:N130" xr:uid="{C1975CA6-E80E-40A4-A9D5-728F867A63BD}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{45CCCD5A-AFCF-487D-ADA1-0BFBB6505772}" name="Event"/>
     <tableColumn id="2" xr3:uid="{4A939A0F-B787-4665-B94F-35DE80E0B243}" name="start_time"/>
     <tableColumn id="3" xr3:uid="{237002C1-33B1-4A0C-8625-A4F946E3279C}" name="time"/>
@@ -1431,7 +1440,8 @@
     <tableColumn id="8" xr3:uid="{A9D6D4D4-E6D2-4D23-BD53-3F61CB62439F}" name="player" dataCellStyle="Hipervínculo"/>
     <tableColumn id="11" xr3:uid="{0D2BFB16-23FC-4D00-90AD-0D752ACC7B98}" name="Nota"/>
     <tableColumn id="12" xr3:uid="{81FA8199-0E5D-43A7-9DB8-350A7DD2B989}" name="Periodo"/>
-    <tableColumn id="14" xr3:uid="{1D07032B-D887-446D-81E8-6EF5BC9D9E9B}" name="invertido"/>
+    <tableColumn id="6" xr3:uid="{3DFD2B85-B733-4CFC-B178-7B0C76AE4369}" name="invertido"/>
+    <tableColumn id="14" xr3:uid="{1D07032B-D887-446D-81E8-6EF5BC9D9E9B}" name="action_type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1724,9 +1734,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77939FC4-FC73-4262-977F-310955BE7B1D}">
-  <dimension ref="A1:M134"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C103" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I130"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1737,9 +1749,9 @@
     <col min="10" max="10" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
@@ -1766,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K1" t="s">
         <v>37</v>
@@ -1777,25 +1789,28 @@
       <c r="M1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B2" t="s">
         <v>412</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D2" t="s">
         <v>413</v>
       </c>
-      <c r="C2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D2" t="s">
-        <v>414</v>
-      </c>
       <c r="H2" t="s">
         <v>406</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J2" s="1"/>
       <c r="L2" t="s">
@@ -1804,8 +1819,11 @@
       <c r="M2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1831,7 +1849,7 @@
         <v>406</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J3" s="1"/>
       <c r="L3" t="s">
@@ -1840,8 +1858,11 @@
       <c r="M3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1867,7 +1888,7 @@
         <v>406</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J4" s="1"/>
       <c r="L4" t="s">
@@ -1876,8 +1897,11 @@
       <c r="M4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1903,7 +1927,7 @@
         <v>406</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J5" s="1"/>
       <c r="L5" t="s">
@@ -1912,8 +1936,11 @@
       <c r="M5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1939,7 +1966,7 @@
         <v>406</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J6" s="1"/>
       <c r="L6" t="s">
@@ -1948,8 +1975,11 @@
       <c r="M6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1975,7 +2005,7 @@
         <v>406</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J7" s="1"/>
       <c r="L7" t="s">
@@ -1984,8 +2014,11 @@
       <c r="M7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2011,7 +2044,7 @@
         <v>406</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J8" s="1"/>
       <c r="L8" t="s">
@@ -2020,8 +2053,11 @@
       <c r="M8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2047,7 +2083,7 @@
         <v>406</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J9" s="1"/>
       <c r="L9" t="s">
@@ -2056,8 +2092,11 @@
       <c r="M9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -2083,7 +2122,7 @@
         <v>406</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J10" s="1"/>
       <c r="L10" t="s">
@@ -2092,8 +2131,11 @@
       <c r="M10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2119,7 +2161,7 @@
         <v>406</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J11" s="1"/>
       <c r="L11" t="s">
@@ -2128,8 +2170,11 @@
       <c r="M11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -2155,7 +2200,7 @@
         <v>406</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J12" s="1"/>
       <c r="L12" t="s">
@@ -2164,8 +2209,11 @@
       <c r="M12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2191,7 +2239,7 @@
         <v>406</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J13" s="1"/>
       <c r="L13" t="s">
@@ -2200,8 +2248,11 @@
       <c r="M13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2227,7 +2278,7 @@
         <v>406</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J14" s="1"/>
       <c r="L14" t="s">
@@ -2236,8 +2287,11 @@
       <c r="M14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2263,7 +2317,7 @@
         <v>406</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J15" s="1"/>
       <c r="L15" t="s">
@@ -2272,8 +2326,11 @@
       <c r="M15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -2299,7 +2356,7 @@
         <v>406</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J16" s="1"/>
       <c r="L16" t="s">
@@ -2308,8 +2365,11 @@
       <c r="M16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2335,7 +2395,7 @@
         <v>406</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J17" s="1"/>
       <c r="L17" t="s">
@@ -2344,8 +2404,11 @@
       <c r="M17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -2368,7 +2431,7 @@
         <v>406</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J18" s="1"/>
       <c r="L18" t="s">
@@ -2377,8 +2440,11 @@
       <c r="M18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2404,7 +2470,7 @@
         <v>406</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J19" s="1"/>
       <c r="L19" t="s">
@@ -2413,8 +2479,11 @@
       <c r="M19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2440,7 +2509,7 @@
         <v>406</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J20" s="1"/>
       <c r="L20" t="s">
@@ -2449,8 +2518,11 @@
       <c r="M20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -2473,7 +2545,7 @@
         <v>406</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J21" s="1"/>
       <c r="L21" t="s">
@@ -2482,8 +2554,11 @@
       <c r="M21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2509,7 +2584,7 @@
         <v>406</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J22" s="1"/>
       <c r="L22" t="s">
@@ -2518,8 +2593,11 @@
       <c r="M22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -2545,7 +2623,7 @@
         <v>406</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J23" s="1"/>
       <c r="L23" t="s">
@@ -2554,8 +2632,11 @@
       <c r="M23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -2581,7 +2662,7 @@
         <v>406</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J24" s="1"/>
       <c r="L24" t="s">
@@ -2590,8 +2671,11 @@
       <c r="M24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -2617,7 +2701,7 @@
         <v>406</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J25" s="1"/>
       <c r="L25" t="s">
@@ -2626,8 +2710,11 @@
       <c r="M25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -2653,7 +2740,7 @@
         <v>406</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J26" s="1"/>
       <c r="L26" t="s">
@@ -2662,8 +2749,11 @@
       <c r="M26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2689,7 +2779,7 @@
         <v>406</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J27" s="1"/>
       <c r="L27" t="s">
@@ -2698,8 +2788,11 @@
       <c r="M27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2722,7 +2815,7 @@
         <v>406</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J28" s="1"/>
       <c r="L28" t="s">
@@ -2731,8 +2824,11 @@
       <c r="M28" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2758,7 +2854,7 @@
         <v>406</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J29" s="1"/>
       <c r="L29" t="s">
@@ -2767,8 +2863,11 @@
       <c r="M29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -2794,7 +2893,7 @@
         <v>406</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J30" s="1"/>
       <c r="L30" t="s">
@@ -2803,8 +2902,11 @@
       <c r="M30" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -2827,7 +2929,7 @@
         <v>406</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J31" s="1"/>
       <c r="L31" t="s">
@@ -2836,8 +2938,11 @@
       <c r="M31" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>118</v>
       </c>
@@ -2860,7 +2965,7 @@
         <v>406</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J32" s="1"/>
       <c r="L32" t="s">
@@ -2869,8 +2974,11 @@
       <c r="M32" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -2896,7 +3004,7 @@
         <v>406</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J33" s="1"/>
       <c r="L33" t="s">
@@ -2905,8 +3013,11 @@
       <c r="M33" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -2932,7 +3043,7 @@
         <v>406</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J34" s="1"/>
       <c r="L34" t="s">
@@ -2941,8 +3052,11 @@
       <c r="M34" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -2968,7 +3082,7 @@
         <v>406</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J35" s="1"/>
       <c r="L35" t="s">
@@ -2977,8 +3091,11 @@
       <c r="M35" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -3004,7 +3121,7 @@
         <v>406</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J36" s="1"/>
       <c r="L36" t="s">
@@ -3013,8 +3130,11 @@
       <c r="M36" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -3040,7 +3160,7 @@
         <v>406</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J37" s="1"/>
       <c r="L37" t="s">
@@ -3049,8 +3169,11 @@
       <c r="M37" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -3076,7 +3199,7 @@
         <v>406</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J38" s="1"/>
       <c r="L38" t="s">
@@ -3085,8 +3208,11 @@
       <c r="M38" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -3112,7 +3238,7 @@
         <v>406</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J39" s="1"/>
       <c r="L39" t="s">
@@ -3121,8 +3247,11 @@
       <c r="M39" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -3148,7 +3277,7 @@
         <v>406</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J40" s="1"/>
       <c r="L40" t="s">
@@ -3157,8 +3286,11 @@
       <c r="M40" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -3184,7 +3316,7 @@
         <v>406</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J41" s="1"/>
       <c r="L41" t="s">
@@ -3193,8 +3325,11 @@
       <c r="M41" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -3220,7 +3355,7 @@
         <v>406</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J42" s="1"/>
       <c r="L42" t="s">
@@ -3229,8 +3364,11 @@
       <c r="M42" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -3256,7 +3394,7 @@
         <v>406</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J43" s="1"/>
       <c r="L43" t="s">
@@ -3265,8 +3403,11 @@
       <c r="M43" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -3292,7 +3433,7 @@
         <v>406</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J44" s="1"/>
       <c r="L44" t="s">
@@ -3301,8 +3442,11 @@
       <c r="M44" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -3328,7 +3472,7 @@
         <v>406</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J45" s="1"/>
       <c r="L45" t="s">
@@ -3337,8 +3481,11 @@
       <c r="M45" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -3361,7 +3508,7 @@
         <v>406</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J46" s="1"/>
       <c r="L46" t="s">
@@ -3370,8 +3517,11 @@
       <c r="M46" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -3397,7 +3547,7 @@
         <v>406</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J47" s="1"/>
       <c r="L47" t="s">
@@ -3406,8 +3556,11 @@
       <c r="M47" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>118</v>
       </c>
@@ -3430,7 +3583,7 @@
         <v>406</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J48" s="1"/>
       <c r="L48" t="s">
@@ -3439,8 +3592,11 @@
       <c r="M48" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -3466,7 +3622,7 @@
         <v>406</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J49" s="1"/>
       <c r="L49" t="s">
@@ -3475,8 +3631,11 @@
       <c r="M49" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -3499,7 +3658,7 @@
         <v>406</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J50" s="1"/>
       <c r="L50" t="s">
@@ -3508,8 +3667,11 @@
       <c r="M50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -3532,7 +3694,7 @@
         <v>406</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J51" s="1"/>
       <c r="L51" t="s">
@@ -3541,8 +3703,11 @@
       <c r="M51" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -3568,7 +3733,7 @@
         <v>406</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J52" s="1"/>
       <c r="L52" t="s">
@@ -3577,8 +3742,11 @@
       <c r="M52" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -3604,7 +3772,7 @@
         <v>406</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J53" s="1"/>
       <c r="L53" t="s">
@@ -3613,8 +3781,11 @@
       <c r="M53" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -3640,7 +3811,7 @@
         <v>406</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J54" s="1"/>
       <c r="L54" t="s">
@@ -3649,8 +3820,11 @@
       <c r="M54" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -3676,7 +3850,7 @@
         <v>406</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J55" s="1"/>
       <c r="L55" t="s">
@@ -3685,8 +3859,11 @@
       <c r="M55" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -3712,7 +3889,7 @@
         <v>406</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J56" s="1"/>
       <c r="L56" t="s">
@@ -3721,8 +3898,11 @@
       <c r="M56" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -3748,7 +3928,7 @@
         <v>406</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J57" s="1"/>
       <c r="L57" t="s">
@@ -3757,8 +3937,11 @@
       <c r="M57" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -3784,7 +3967,7 @@
         <v>406</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J58" s="1"/>
       <c r="L58" t="s">
@@ -3793,8 +3976,11 @@
       <c r="M58" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -3820,7 +4006,7 @@
         <v>406</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J59" s="1"/>
       <c r="L59" t="s">
@@ -3829,8 +4015,11 @@
       <c r="M59" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -3856,7 +4045,7 @@
         <v>406</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J60" s="1"/>
       <c r="L60" t="s">
@@ -3865,25 +4054,28 @@
       <c r="M60" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>407</v>
+      </c>
+      <c r="B61" t="s">
         <v>408</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>409</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>410</v>
       </c>
-      <c r="D61" t="s">
-        <v>411</v>
-      </c>
       <c r="H61" t="s">
         <v>406</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J61" s="1"/>
       <c r="L61" t="s">
@@ -3892,35 +4084,41 @@
       <c r="M61" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>414</v>
+      </c>
+      <c r="B62" t="s">
         <v>415</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>416</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>417</v>
       </c>
-      <c r="D62" t="s">
-        <v>418</v>
-      </c>
       <c r="H62" t="s">
         <v>406</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J62" s="1"/>
       <c r="L62" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M62" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N62" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -3943,17 +4141,20 @@
         <v>406</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J63" s="1"/>
       <c r="L63" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M63" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N63" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -3979,17 +4180,20 @@
         <v>406</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J64" s="1"/>
       <c r="L64" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M64" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N64" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -4015,17 +4219,20 @@
         <v>406</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J65" s="1"/>
       <c r="L65" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M65" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N65" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -4051,17 +4258,20 @@
         <v>406</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J66" s="1"/>
       <c r="L66" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M66" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N66" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -4087,17 +4297,20 @@
         <v>406</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J67" s="1"/>
       <c r="L67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M67" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N67" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -4123,17 +4336,20 @@
         <v>406</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J68" s="1"/>
       <c r="L68" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M68" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N68" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -4156,17 +4372,20 @@
         <v>406</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J69" s="1"/>
       <c r="L69" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M69" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N69" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -4192,17 +4411,20 @@
         <v>406</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J70" s="1"/>
       <c r="L70" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M70" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N70" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -4228,17 +4450,20 @@
         <v>406</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J71" s="1"/>
       <c r="L71" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M71" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N71" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -4264,17 +4489,20 @@
         <v>406</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J72" s="1"/>
       <c r="L72" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M72" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N72" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -4300,17 +4528,20 @@
         <v>406</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J73" s="1"/>
       <c r="L73" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M73" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N73" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -4336,17 +4567,20 @@
         <v>406</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J74" s="1"/>
       <c r="L74" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M74" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N74" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -4372,17 +4606,20 @@
         <v>406</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J75" s="1"/>
       <c r="L75" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M75" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N75" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -4408,17 +4645,20 @@
         <v>406</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J76" s="1"/>
       <c r="L76" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M76" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N76" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -4444,17 +4684,20 @@
         <v>406</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J77" s="1"/>
       <c r="L77" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M77" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N77" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -4480,17 +4723,20 @@
         <v>406</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J78" s="1"/>
       <c r="L78" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M78" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N78" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -4516,17 +4762,20 @@
         <v>406</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J79" s="1"/>
       <c r="L79" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M79" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N79" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -4552,17 +4801,20 @@
         <v>406</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J80" s="1"/>
       <c r="L80" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M80" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N80" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -4585,17 +4837,20 @@
         <v>406</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J81" s="1"/>
       <c r="L81" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M81" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N81" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -4621,17 +4876,20 @@
         <v>406</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J82" s="1"/>
       <c r="L82" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M82" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N82" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -4657,17 +4915,20 @@
         <v>406</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J83" s="1"/>
       <c r="L83" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M83" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N83" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -4693,17 +4954,20 @@
         <v>406</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J84" s="1"/>
       <c r="L84" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M84" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N84" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -4729,17 +4993,20 @@
         <v>406</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J85" s="1"/>
       <c r="L85" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M85" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N85" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -4765,17 +5032,20 @@
         <v>406</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J86" s="1"/>
       <c r="L86" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M86" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N86" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>78</v>
       </c>
@@ -4798,17 +5068,20 @@
         <v>406</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J87" s="1"/>
       <c r="L87" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M87" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N87" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -4834,17 +5107,20 @@
         <v>406</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J88" s="1"/>
       <c r="L88" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M88" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N88" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -4870,17 +5146,20 @@
         <v>406</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J89" s="1"/>
       <c r="L89" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M89" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N89" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -4906,17 +5185,20 @@
         <v>406</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J90" s="1"/>
       <c r="L90" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M90" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N90" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -4942,17 +5224,20 @@
         <v>406</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J91" s="1"/>
       <c r="L91" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M91" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N91" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>18</v>
       </c>
@@ -4978,17 +5263,20 @@
         <v>406</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J92" s="1"/>
       <c r="L92" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M92" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N92" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -5014,17 +5302,20 @@
         <v>406</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J93" s="1"/>
       <c r="L93" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M93" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N93" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -5050,17 +5341,20 @@
         <v>406</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J94" s="1"/>
       <c r="L94" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M94" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N94" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -5086,17 +5380,20 @@
         <v>406</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J95" s="1"/>
       <c r="L95" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N95" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -5122,17 +5419,20 @@
         <v>406</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J96" s="1"/>
       <c r="L96" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M96" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N96" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -5158,17 +5458,20 @@
         <v>406</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J97" s="1"/>
       <c r="L97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M97" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N97" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -5194,17 +5497,20 @@
         <v>406</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J98" s="1"/>
       <c r="L98" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M98" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N98" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -5230,17 +5536,20 @@
         <v>406</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J99" s="1"/>
       <c r="L99" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M99" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N99" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -5266,17 +5575,20 @@
         <v>406</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J100" s="1"/>
       <c r="L100" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M100" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N100" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>118</v>
       </c>
@@ -5302,17 +5614,20 @@
         <v>406</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J101" s="1"/>
       <c r="L101" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M101" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N101" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -5338,17 +5653,20 @@
         <v>406</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J102" s="1"/>
       <c r="L102" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M102" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N102" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -5374,17 +5692,20 @@
         <v>406</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J103" s="1"/>
       <c r="L103" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M103" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N103" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -5410,17 +5731,20 @@
         <v>406</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J104" s="1"/>
       <c r="L104" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M104" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N104" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>118</v>
       </c>
@@ -5443,17 +5767,20 @@
         <v>406</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J105" s="1"/>
       <c r="L105" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M105" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N105" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>18</v>
       </c>
@@ -5479,17 +5806,20 @@
         <v>406</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J106" s="1"/>
       <c r="L106" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M106" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N106" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>78</v>
       </c>
@@ -5512,17 +5842,20 @@
         <v>406</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J107" s="1"/>
       <c r="L107" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M107" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N107" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>78</v>
       </c>
@@ -5545,17 +5878,20 @@
         <v>406</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J108" s="1"/>
       <c r="L108" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M108" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N108" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -5581,17 +5917,20 @@
         <v>406</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J109" s="1"/>
       <c r="L109" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M109" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N109" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -5617,17 +5956,20 @@
         <v>406</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J110" s="1"/>
       <c r="L110" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M110" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N110" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>18</v>
       </c>
@@ -5653,17 +5995,20 @@
         <v>406</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J111" s="1"/>
       <c r="L111" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M111" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N111" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>3</v>
       </c>
@@ -5689,17 +6034,20 @@
         <v>406</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J112" s="1"/>
       <c r="L112" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M112" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N112" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -5725,17 +6073,20 @@
         <v>406</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J113" s="1"/>
       <c r="L113" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M113" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N113" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -5761,17 +6112,20 @@
         <v>406</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J114" s="1"/>
       <c r="L114" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M114" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N114" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>18</v>
       </c>
@@ -5797,17 +6151,20 @@
         <v>406</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J115" s="1"/>
       <c r="L115" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M115" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N115" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -5833,17 +6190,20 @@
         <v>406</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J116" s="1"/>
       <c r="L116" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M116" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N116" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -5869,17 +6229,20 @@
         <v>406</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J117" s="1"/>
       <c r="L117" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M117" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N117" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -5902,17 +6265,20 @@
         <v>406</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J118" s="1"/>
       <c r="L118" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M118" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N118" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -5938,17 +6304,20 @@
         <v>406</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J119" s="1"/>
       <c r="L119" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M119" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N119" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>78</v>
       </c>
@@ -5971,17 +6340,20 @@
         <v>406</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J120" s="1"/>
       <c r="L120" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M120" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N120" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1</v>
       </c>
@@ -6007,17 +6379,20 @@
         <v>406</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J121" s="1"/>
       <c r="L121" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M121" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N121" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>78</v>
       </c>
@@ -6040,17 +6415,20 @@
         <v>406</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J122" s="1"/>
       <c r="L122" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M122" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N122" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1</v>
       </c>
@@ -6076,17 +6454,20 @@
         <v>406</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J123" s="1"/>
       <c r="L123" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M123" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N123" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>18</v>
       </c>
@@ -6112,17 +6493,20 @@
         <v>406</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J124" s="1"/>
       <c r="L124" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M124" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N124" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -6148,17 +6532,20 @@
         <v>406</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J125" s="1"/>
       <c r="L125" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M125" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N125" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -6184,164 +6571,179 @@
         <v>406</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J126" s="1"/>
       <c r="L126" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M126" t="s">
+        <v>421</v>
+      </c>
+      <c r="N126" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>423</v>
-      </c>
       <c r="B127" t="s">
+        <v>418</v>
+      </c>
+      <c r="C127" t="s">
+        <v>418</v>
+      </c>
+      <c r="D127" t="s">
         <v>419</v>
       </c>
-      <c r="C127" t="s">
-        <v>419</v>
-      </c>
-      <c r="D127" t="s">
-        <v>420</v>
-      </c>
       <c r="H127" t="s">
         <v>406</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J127" s="1"/>
       <c r="L127" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M127" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N127" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>423</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E128" t="s">
         <v>424</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="E128" t="s">
+      <c r="G128" t="s">
         <v>425</v>
       </c>
-      <c r="G128" t="s">
+      <c r="H128" t="s">
+        <v>406</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="J128" t="s">
         <v>426</v>
-      </c>
-      <c r="H128" t="s">
-        <v>406</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="J128" t="s">
-        <v>427</v>
       </c>
       <c r="L128" t="s">
         <v>9</v>
       </c>
       <c r="M128" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N128" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B129" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="D129" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>435</v>
-      </c>
       <c r="E129" t="s">
+        <v>427</v>
+      </c>
+      <c r="G129" t="s">
         <v>428</v>
       </c>
-      <c r="G129" t="s">
-        <v>429</v>
-      </c>
       <c r="H129" t="s">
         <v>406</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="J129" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L129" t="s">
         <v>9</v>
       </c>
       <c r="M129" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N129" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="D130" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>438</v>
-      </c>
       <c r="E130" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G130" t="s">
+        <v>425</v>
+      </c>
+      <c r="H130" t="s">
+        <v>406</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="J130" t="s">
         <v>426</v>
-      </c>
-      <c r="H130" t="s">
-        <v>406</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="J130" t="s">
-        <v>427</v>
       </c>
       <c r="L130" t="s">
         <v>9</v>
       </c>
       <c r="M130" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="N130" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -6349,139 +6751,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{6CF5059F-5A24-49ED-9782-7328DB54B27B}"/>
-    <hyperlink ref="I4" r:id="rId2" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{30A3B96A-E8D8-4480-A0FB-A559C386ABA0}"/>
-    <hyperlink ref="I5" r:id="rId3" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{38E7B35D-E909-408F-A889-8B84FCB14970}"/>
-    <hyperlink ref="I6" r:id="rId4" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{D3D7F677-21AC-4F91-9C9A-073548386ED0}"/>
-    <hyperlink ref="I7" r:id="rId5" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{10BC98A8-8BAA-4A5D-9265-A5FE2744E2C2}"/>
-    <hyperlink ref="I8" r:id="rId6" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{B17418EF-7FE3-4DE4-97F0-009049E86241}"/>
-    <hyperlink ref="I9" r:id="rId7" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{166E8667-A16F-495A-98D4-4B3CB1E18E63}"/>
-    <hyperlink ref="I10" r:id="rId8" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{E3884E86-2B12-478B-9657-D004BD5B50C4}"/>
-    <hyperlink ref="I11" r:id="rId9" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{8BFCE6D0-8F30-4AE8-8277-CB2A070FD8CD}"/>
-    <hyperlink ref="I12" r:id="rId10" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{DC828F91-032E-46D3-8476-FDF4951A35A1}"/>
-    <hyperlink ref="I13" r:id="rId11" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{490850F6-B76B-4C61-9B22-4CB130EB4766}"/>
-    <hyperlink ref="I14" r:id="rId12" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{BABC55CF-2F62-42B8-AEFC-768652EA2C4A}"/>
-    <hyperlink ref="I15" r:id="rId13" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{97568F04-007A-4A3B-8B62-19ECA3AFEE5C}"/>
-    <hyperlink ref="I16" r:id="rId14" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{8FAFC9EA-EEEA-44D9-A76D-5C8569C7E42E}"/>
-    <hyperlink ref="I17" r:id="rId15" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{113A604C-AD96-4B6E-986F-FE9A4B04DF87}"/>
-    <hyperlink ref="I18" r:id="rId16" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{1860EE40-FC61-46AA-A213-C7F52B2D9988}"/>
-    <hyperlink ref="I19" r:id="rId17" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{352DE30B-728C-4B84-9A3D-013955D2DF4C}"/>
-    <hyperlink ref="I20" r:id="rId18" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{6CA9BDC6-1996-47C3-8BD3-A5D8D3A972C5}"/>
-    <hyperlink ref="I21" r:id="rId19" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{2FB207C7-5DD4-4310-9C30-639E3907A21B}"/>
-    <hyperlink ref="I22" r:id="rId20" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{B426D9DB-2921-460C-9ABA-391B944E8DBA}"/>
-    <hyperlink ref="I23" r:id="rId21" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{226E100B-977C-4E6E-BA1B-CCAD946B8994}"/>
-    <hyperlink ref="I24" r:id="rId22" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{F4C38079-65E6-49EA-A5DD-2F2346168100}"/>
-    <hyperlink ref="I25" r:id="rId23" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{C7F8AEF7-3477-48A5-8DB6-A2CDDBFA299A}"/>
-    <hyperlink ref="I26" r:id="rId24" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{3918A9C5-41F5-41EC-B230-F7B33037F953}"/>
-    <hyperlink ref="I27" r:id="rId25" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{661E1DA2-52A3-4D7C-96C4-3095E2FE1881}"/>
-    <hyperlink ref="I28" r:id="rId26" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{8CC76395-62EC-4A12-837D-B9DF43C0FC8E}"/>
-    <hyperlink ref="I29" r:id="rId27" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{F6E5A85D-C8A1-43C2-A4FD-F08307A1E975}"/>
-    <hyperlink ref="I30" r:id="rId28" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{D160EBC7-E385-4ACB-A43A-E09C0E3F22CD}"/>
-    <hyperlink ref="I31" r:id="rId29" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{197A71C0-045B-4706-A6F9-90620F31B4DF}"/>
-    <hyperlink ref="I32" r:id="rId30" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{12BFD56A-C801-48EA-B1A1-5190DAB4CBA1}"/>
-    <hyperlink ref="I33" r:id="rId31" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{77B7AFFC-3537-4B1C-BB32-7CBA0171072B}"/>
-    <hyperlink ref="I34" r:id="rId32" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{47DCABB6-6F4E-4AED-B39B-8496FE6CC680}"/>
-    <hyperlink ref="I35" r:id="rId33" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{5D62EDD3-1B99-4BFC-9F1F-4B8D693A5C36}"/>
-    <hyperlink ref="I36" r:id="rId34" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{C90AF16B-FCBB-4969-B2B1-A15EB843276F}"/>
-    <hyperlink ref="I37" r:id="rId35" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{07315CE6-2781-4F02-9C5C-7A3935DBC295}"/>
-    <hyperlink ref="I38" r:id="rId36" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{2BB4AB72-C48D-4C27-9ADB-07C6BBB9283E}"/>
-    <hyperlink ref="I39" r:id="rId37" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{6AB1A798-22C6-477E-A471-A69689A236C0}"/>
-    <hyperlink ref="I40" r:id="rId38" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{8A2DF6F1-785B-4425-B694-BAEE494E5B64}"/>
-    <hyperlink ref="I41" r:id="rId39" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{96518E3F-130C-49A5-ADCB-0FDD6D2D70FD}"/>
-    <hyperlink ref="I42" r:id="rId40" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{167F5149-3721-47C7-9DFE-128B29DD9CE9}"/>
-    <hyperlink ref="I43" r:id="rId41" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{C040D818-25E8-4114-AAE9-582DD9A520C1}"/>
-    <hyperlink ref="I44" r:id="rId42" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{3F6158D1-BED1-4FB6-A6B0-A2B9AD2A7890}"/>
-    <hyperlink ref="I45" r:id="rId43" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{F0D7EC84-FD73-4348-ACC9-683E95A3983F}"/>
-    <hyperlink ref="I46" r:id="rId44" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{4AF49E76-DC1E-408E-B7D0-AAECCB17558C}"/>
-    <hyperlink ref="I47" r:id="rId45" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{ABD06520-25C3-44F1-9256-B0B464DE43BB}"/>
-    <hyperlink ref="I48" r:id="rId46" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{FD215B09-39B6-417C-84FE-CEC171072FC0}"/>
-    <hyperlink ref="I49" r:id="rId47" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{F4CB9E7A-C48F-40E4-9660-B820C0D25000}"/>
-    <hyperlink ref="I50" r:id="rId48" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{34AA98B7-F1FC-4D81-B65B-BC50553B4CDF}"/>
-    <hyperlink ref="I51" r:id="rId49" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{D50EED26-4A1D-44DC-88E2-E1DE7FC51B49}"/>
-    <hyperlink ref="I52" r:id="rId50" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{763E1CF7-AC40-4CDB-949D-8FA3A848FAC1}"/>
-    <hyperlink ref="I53" r:id="rId51" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{93143C42-B0C0-4202-9CED-C37BA723B94E}"/>
-    <hyperlink ref="I54" r:id="rId52" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{6F79B2B6-C284-48CD-813D-05FF7A38945F}"/>
-    <hyperlink ref="I55" r:id="rId53" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{7CA8D339-CAD5-4249-A5F6-C4E009BA5A3D}"/>
-    <hyperlink ref="I56" r:id="rId54" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{69A493BA-7D40-4111-ACAD-7B770A152BDE}"/>
-    <hyperlink ref="I57" r:id="rId55" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{237FB795-4880-4DEE-88B7-1E2A22343F44}"/>
-    <hyperlink ref="I58" r:id="rId56" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{CD67CBAC-C7E0-4812-A604-ACC6203EB770}"/>
-    <hyperlink ref="I59" r:id="rId57" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{9F658CF8-A6E6-4B35-AB1B-00EB1A5A9662}"/>
-    <hyperlink ref="I60" r:id="rId58" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{0E71D197-CF96-4A79-97CE-FAB96AA49D35}"/>
-    <hyperlink ref="I63" r:id="rId59" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{9C75288F-C750-4D2A-A950-1F70D965D9C0}"/>
-    <hyperlink ref="I64" r:id="rId60" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{B86F1F04-91FB-4C9E-A2CF-83CC9AD39F29}"/>
-    <hyperlink ref="I65" r:id="rId61" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{9D873168-089C-4BDD-AAF6-02D22456793D}"/>
-    <hyperlink ref="I66" r:id="rId62" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{77B7583F-8C89-4AD8-A0DC-5CDDCCA63C09}"/>
-    <hyperlink ref="I67" r:id="rId63" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{5F875A27-8649-4091-8348-BB50F0EF2B39}"/>
-    <hyperlink ref="I68" r:id="rId64" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{6277B21D-CE3E-44A2-BBD4-1210CF462D8A}"/>
-    <hyperlink ref="I69" r:id="rId65" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{2E000273-329D-4C07-B9BE-CFEC2805F697}"/>
-    <hyperlink ref="I70" r:id="rId66" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{307A0E75-C1D1-4356-B5EE-69323A3560CC}"/>
-    <hyperlink ref="I71" r:id="rId67" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{D3C471DC-6064-4629-81CD-C9A305CA7835}"/>
-    <hyperlink ref="I72" r:id="rId68" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{1F68E742-3A07-437E-B60B-A77C6B9C8552}"/>
-    <hyperlink ref="I73" r:id="rId69" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{6C8EFC9F-F68A-4A48-8001-385D695B60A3}"/>
-    <hyperlink ref="I74" r:id="rId70" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{E267ABC8-0EA1-496E-B7AB-D2EC9ABCF9C6}"/>
-    <hyperlink ref="I75" r:id="rId71" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{FDA86884-5AC7-4CF7-830D-651694752F66}"/>
-    <hyperlink ref="I76" r:id="rId72" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{CC151F1F-4A00-45B1-BCC5-8DEB05CEB3A7}"/>
-    <hyperlink ref="I77" r:id="rId73" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{07DE384E-5438-41F5-BF63-7A99E35EFC60}"/>
-    <hyperlink ref="I78" r:id="rId74" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{CB35A2F1-26D2-4B85-AF06-625FF495F6C6}"/>
-    <hyperlink ref="I79" r:id="rId75" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{00202A7E-5E99-40AF-8C35-191CC8D1305D}"/>
-    <hyperlink ref="I80" r:id="rId76" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{07F34945-B286-443D-A4C8-D95737D81DC8}"/>
-    <hyperlink ref="I81" r:id="rId77" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{29F56DE1-E2BD-419A-B878-03C9788F2647}"/>
-    <hyperlink ref="I82" r:id="rId78" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{D8B2FEDF-7730-44AC-9C39-85E5E2368AF7}"/>
-    <hyperlink ref="I83" r:id="rId79" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{2C31D56A-FAF1-40A3-863F-A4D316D7EA7D}"/>
-    <hyperlink ref="I84" r:id="rId80" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{888628FD-1978-4CF0-9263-F3093F81EF52}"/>
-    <hyperlink ref="I85" r:id="rId81" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{74A2D933-BE72-4081-B49B-6E6920B9A44E}"/>
-    <hyperlink ref="I86" r:id="rId82" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{A264E525-6888-4E4A-BC9E-6099687C58C5}"/>
-    <hyperlink ref="I87" r:id="rId83" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{04DFD8D9-F0CD-48F6-BECB-05AE838FD7A4}"/>
-    <hyperlink ref="I88" r:id="rId84" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{C272F7A7-20F6-4B75-B40D-7807385B36EC}"/>
-    <hyperlink ref="I89" r:id="rId85" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{8D3B35AE-4B94-4959-B0B3-5FAF55B92371}"/>
-    <hyperlink ref="I90" r:id="rId86" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{2D04661D-03B1-495A-98B1-435208C2F068}"/>
-    <hyperlink ref="I91" r:id="rId87" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{A86E14D2-D0F2-4764-BB21-5E514C8C0D40}"/>
-    <hyperlink ref="I92" r:id="rId88" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{0EAB14FC-8CF6-45CE-B4A8-DC590DD0325B}"/>
-    <hyperlink ref="I93" r:id="rId89" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{A3E18475-EC59-404B-9A5C-70D001F7A6A1}"/>
-    <hyperlink ref="I94" r:id="rId90" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{2EC241BA-B77B-406E-8C23-FEF96DE3B56A}"/>
-    <hyperlink ref="I95" r:id="rId91" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{D722EDB4-EFCE-408E-AC5E-FAD156ED2CBB}"/>
-    <hyperlink ref="I96" r:id="rId92" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{D093F36E-13B6-4E4B-BB04-8CFC7361FBC9}"/>
-    <hyperlink ref="I97" r:id="rId93" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{5773F7F8-82A1-49C5-820A-ED8D274D1FBD}"/>
-    <hyperlink ref="I98" r:id="rId94" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{734ED5F0-BB18-4EF2-89D4-C6A92C60C7A4}"/>
-    <hyperlink ref="I99" r:id="rId95" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{8078D0F2-A1D2-4FA4-B2B1-346BCDED143E}"/>
-    <hyperlink ref="I100" r:id="rId96" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{59C64AF6-BAA6-43CE-B13C-B11692F119E6}"/>
-    <hyperlink ref="I101" r:id="rId97" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{0F80CC07-BF0F-4A6F-9598-1DDC3A9994A5}"/>
-    <hyperlink ref="I102" r:id="rId98" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{4CFF9303-9DD0-4489-93EB-DA12551F02C4}"/>
-    <hyperlink ref="I103" r:id="rId99" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{249E4EFF-57E4-470A-83AF-E10146BEEA89}"/>
-    <hyperlink ref="I104" r:id="rId100" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{80D1BB21-F5E0-44E2-92DA-3564EDB8373F}"/>
-    <hyperlink ref="I105" r:id="rId101" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{58DC6BC8-D716-4021-9F62-0FB1BB788787}"/>
-    <hyperlink ref="I106" r:id="rId102" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{2778A879-DE3C-432B-B393-07453E5F3101}"/>
-    <hyperlink ref="I107" r:id="rId103" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{68DDD142-4D4F-4B28-9AF3-FE34E900D4E6}"/>
-    <hyperlink ref="I108" r:id="rId104" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{09B0AD8E-0568-4A14-88AB-DDD237B8F472}"/>
-    <hyperlink ref="I109" r:id="rId105" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{6AF08D1F-00B6-40B5-A547-F5BB7A9E75C1}"/>
-    <hyperlink ref="I110" r:id="rId106" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{6F6361BB-239E-4CAA-94C0-026ABEC5F0CB}"/>
-    <hyperlink ref="I111" r:id="rId107" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{F89D8016-1C1A-4965-BF8F-8AB8E8E42255}"/>
-    <hyperlink ref="I112" r:id="rId108" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{52B3BE48-0AC5-4D0D-8BD2-694BA1EB4441}"/>
-    <hyperlink ref="I113" r:id="rId109" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{D8704668-4D13-478A-9D02-7B994E565A41}"/>
-    <hyperlink ref="I114" r:id="rId110" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{B66D1935-0250-41DD-B190-7DEFB77742F9}"/>
-    <hyperlink ref="I115" r:id="rId111" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{22574820-7F18-4ABA-858D-A4626257751C}"/>
-    <hyperlink ref="I116" r:id="rId112" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{2A31EEAE-96BF-4492-865E-516A4EE0955A}"/>
-    <hyperlink ref="I117" r:id="rId113" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{EA474690-6E63-408C-BA23-DEFCCACEA0AE}"/>
-    <hyperlink ref="I118" r:id="rId114" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{AE83DCFA-4A3B-4831-98A3-7B72B081E2E3}"/>
-    <hyperlink ref="I119" r:id="rId115" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{4F941DDA-8114-471C-9EEE-EF4CDA8B515B}"/>
-    <hyperlink ref="I120" r:id="rId116" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{B33C9CAF-40B7-4A2F-9DA9-D4F7C6981F4B}"/>
-    <hyperlink ref="I121" r:id="rId117" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{DFDC736F-982D-4E93-BFFB-F4E489698BE6}"/>
-    <hyperlink ref="I122" r:id="rId118" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{0C39A916-7616-490F-97BF-7712FE480FA0}"/>
-    <hyperlink ref="I123" r:id="rId119" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{218E9CEE-9F56-4648-B961-1BD1C48A45C8}"/>
-    <hyperlink ref="I124" r:id="rId120" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{01E254AF-FAA2-4B51-8348-C7D78C32716E}"/>
-    <hyperlink ref="I125" r:id="rId121" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{3A5E91C9-752B-4EA5-BE06-A139C78586C1}"/>
-    <hyperlink ref="I126" r:id="rId122" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{77461476-1413-424C-B883-F4961C646227}"/>
-    <hyperlink ref="I2" r:id="rId123" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{239972A1-6617-4DDD-87C4-9D5291D35CB8}"/>
-    <hyperlink ref="I61" r:id="rId124" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{C6955530-690E-4663-A375-78076CD757B9}"/>
-    <hyperlink ref="I62" r:id="rId125" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{5D9D9D84-CEFB-4BD3-BB98-ED95C3E4D709}"/>
-    <hyperlink ref="I127" r:id="rId126" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{60DE9708-D353-4824-AFBD-BB5D4870CAA5}"/>
-    <hyperlink ref="I128" r:id="rId127" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{72F8BB58-BEC2-476F-8D98-94337502769D}"/>
-    <hyperlink ref="I129" r:id="rId128" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{C0CD50AF-C0E7-4033-9639-83F8114A3046}"/>
-    <hyperlink ref="I130" r:id="rId129" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{4F817AFA-0358-4F59-B9DD-7A9DF3AD4F92}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{239972A1-6617-4DDD-87C4-9D5291D35CB8}"/>
+    <hyperlink ref="I3:I130" r:id="rId2" display="https://www.youtube.com/watch?v=vmWdqhzpwTA" xr:uid="{D9AC65B0-DD7A-43A4-91D3-5A13CD201867}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId130"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/events.xlsx
+++ b/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\streamlit_tiznados\tiznados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91058291-5BBF-4DB0-830F-9D942F5029B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF1A3B3-3E75-4B3D-AA74-034999F70384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="445">
   <si>
     <t>XY</t>
   </si>
@@ -1352,6 +1352,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=vmWdqhzpwTA</t>
+  </si>
+  <si>
+    <t>gol</t>
   </si>
 </sst>
 </file>
@@ -1736,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77939FC4-FC73-4262-977F-310955BE7B1D}">
   <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C103" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I130"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1745,7 +1748,7 @@
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4000,7 +4003,7 @@
         <v>22</v>
       </c>
       <c r="G59" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H59" t="s">
         <v>406</v>
@@ -4009,6 +4012,9 @@
         <v>443</v>
       </c>
       <c r="J59" s="1"/>
+      <c r="K59" t="s">
+        <v>444</v>
+      </c>
       <c r="L59" t="s">
         <v>9</v>
       </c>
@@ -6115,6 +6121,9 @@
         <v>443</v>
       </c>
       <c r="J114" s="1"/>
+      <c r="K114" t="s">
+        <v>444</v>
+      </c>
       <c r="L114" t="s">
         <v>420</v>
       </c>

--- a/events.xlsx
+++ b/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\streamlit_tiznados\tiznados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B1B3EA-FC78-40A2-8502-2B5CB029507B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AD531D-16DA-4020-9847-52563E92FB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5264" uniqueCount="1416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5275" uniqueCount="1416">
   <si>
     <t>XY</t>
   </si>
@@ -4274,7 +4274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4291,6 +4291,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -4316,10 +4322,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -4340,7 +4347,16 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1975CA6-E80E-40A4-A9D5-728F867A63BD}" name="Tabla1" displayName="Tabla1" ref="A1:O430" totalsRowShown="0">
-  <autoFilter ref="A1:O430" xr:uid="{C1975CA6-E80E-40A4-A9D5-728F867A63BD}"/>
+  <autoFilter ref="A1:O430" xr:uid="{C1975CA6-E80E-40A4-A9D5-728F867A63BD}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="PASE"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{45CCCD5A-AFCF-487D-ADA1-0BFBB6505772}" name="Event"/>
     <tableColumn id="2" xr3:uid="{4A939A0F-B787-4665-B94F-35DE80E0B243}" name="start_time"/>
@@ -4652,7 +4668,7 @@
   <dimension ref="A1:O430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L115" sqref="L115"/>
+      <selection activeCell="G402" sqref="G402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4712,7 +4728,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>411</v>
       </c>
@@ -4743,7 +4759,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4783,7 +4799,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4823,7 +4839,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4863,7 +4879,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -4903,7 +4919,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -4943,7 +4959,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -4983,7 +4999,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -5023,7 +5039,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -5063,7 +5079,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -5103,7 +5119,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -5143,7 +5159,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -5183,7 +5199,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -5223,7 +5239,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -5263,7 +5279,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -5303,7 +5319,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -5343,7 +5359,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -5380,7 +5396,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5420,7 +5436,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -5460,7 +5476,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -5497,7 +5513,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -5537,7 +5553,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -5577,7 +5593,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -5617,7 +5633,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -5657,7 +5673,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -5697,7 +5713,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -5737,7 +5753,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -5774,7 +5790,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -5814,7 +5830,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -5854,7 +5870,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -5891,7 +5907,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>118</v>
       </c>
@@ -5928,7 +5944,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -5968,7 +5984,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -6008,7 +6024,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -6048,7 +6064,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -6088,7 +6104,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -6128,7 +6144,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -6168,7 +6184,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -6208,7 +6224,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -6248,7 +6264,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -6288,7 +6304,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -6328,7 +6344,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -6368,7 +6384,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -6408,7 +6424,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -6448,7 +6464,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -6485,7 +6501,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -6525,7 +6541,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>118</v>
       </c>
@@ -6562,7 +6578,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -6602,7 +6618,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -6639,7 +6655,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -6676,7 +6692,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -6716,7 +6732,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -6756,7 +6772,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -6796,7 +6812,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -6836,7 +6852,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -6876,7 +6892,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -6916,7 +6932,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -6956,7 +6972,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -6999,7 +7015,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -7039,7 +7055,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>407</v>
       </c>
@@ -7070,7 +7086,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>414</v>
       </c>
@@ -7101,7 +7117,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -7138,7 +7154,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -7178,7 +7194,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -7218,7 +7234,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -7258,7 +7274,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -7298,7 +7314,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -7338,7 +7354,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -7375,7 +7391,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -7415,7 +7431,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -7455,7 +7471,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -7495,7 +7511,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -7535,7 +7551,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -7575,7 +7591,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -7615,7 +7631,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -7655,7 +7671,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -7695,7 +7711,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -7735,7 +7751,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -7775,7 +7791,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -7815,7 +7831,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -7852,7 +7868,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -7892,7 +7908,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -7932,7 +7948,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -7972,7 +7988,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -8012,7 +8028,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -8052,7 +8068,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>78</v>
       </c>
@@ -8089,7 +8105,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -8129,7 +8145,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -8169,7 +8185,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -8209,7 +8225,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -8249,7 +8265,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>18</v>
       </c>
@@ -8289,7 +8305,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -8329,7 +8345,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -8369,7 +8385,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -8409,7 +8425,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -8449,7 +8465,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -8489,7 +8505,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -8529,7 +8545,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -8569,7 +8585,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -8609,7 +8625,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>118</v>
       </c>
@@ -8649,7 +8665,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -8689,7 +8705,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -8729,7 +8745,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -8769,7 +8785,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>118</v>
       </c>
@@ -8806,7 +8822,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>18</v>
       </c>
@@ -8846,7 +8862,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>78</v>
       </c>
@@ -8883,7 +8899,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>78</v>
       </c>
@@ -8920,7 +8936,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -8960,7 +8976,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -9000,7 +9016,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>18</v>
       </c>
@@ -9040,7 +9056,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>3</v>
       </c>
@@ -9080,7 +9096,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -9120,7 +9136,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -9163,7 +9179,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>18</v>
       </c>
@@ -9203,7 +9219,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -9243,7 +9259,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -9283,7 +9299,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -9320,7 +9336,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -9360,7 +9376,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>78</v>
       </c>
@@ -9397,7 +9413,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1</v>
       </c>
@@ -9437,7 +9453,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>78</v>
       </c>
@@ -9474,7 +9490,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1</v>
       </c>
@@ -9514,7 +9530,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>18</v>
       </c>
@@ -9554,7 +9570,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -9594,7 +9610,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -9634,7 +9650,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>422</v>
       </c>
@@ -9665,7 +9681,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>436</v>
       </c>
@@ -9706,7 +9722,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>436</v>
       </c>
@@ -9747,7 +9763,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>436</v>
       </c>
@@ -9788,7 +9804,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>436</v>
       </c>
@@ -9829,7 +9845,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>449</v>
       </c>
@@ -9864,7 +9880,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>436</v>
       </c>
@@ -9905,7 +9921,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>436</v>
       </c>
@@ -9946,7 +9962,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>460</v>
       </c>
@@ -9984,7 +10000,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>436</v>
       </c>
@@ -10025,7 +10041,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>436</v>
       </c>
@@ -10066,7 +10082,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>436</v>
       </c>
@@ -10107,7 +10123,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>436</v>
       </c>
@@ -10148,7 +10164,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>436</v>
       </c>
@@ -10189,7 +10205,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>479</v>
       </c>
@@ -10224,7 +10240,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>436</v>
       </c>
@@ -10268,7 +10284,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>436</v>
       </c>
@@ -10309,7 +10325,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>436</v>
       </c>
@@ -10350,7 +10366,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>436</v>
       </c>
@@ -10391,7 +10407,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>436</v>
       </c>
@@ -10432,7 +10448,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>436</v>
       </c>
@@ -10473,7 +10489,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>436</v>
       </c>
@@ -10511,7 +10527,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>436</v>
       </c>
@@ -10552,7 +10568,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>449</v>
       </c>
@@ -10588,7 +10604,7 @@
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+      <c r="A151" s="3" t="s">
         <v>436</v>
       </c>
       <c r="B151" t="s">
@@ -10603,6 +10619,9 @@
       <c r="E151" t="s">
         <v>507</v>
       </c>
+      <c r="G151" s="2" t="s">
+        <v>1389</v>
+      </c>
       <c r="H151" t="s">
         <v>406</v>
       </c>
@@ -10625,7 +10644,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>436</v>
       </c>
@@ -10666,7 +10685,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>436</v>
       </c>
@@ -10707,7 +10726,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>449</v>
       </c>
@@ -10742,7 +10761,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>436</v>
       </c>
@@ -10783,7 +10802,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>436</v>
       </c>
@@ -10824,7 +10843,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>436</v>
       </c>
@@ -10865,7 +10884,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>449</v>
       </c>
@@ -10900,7 +10919,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>436</v>
       </c>
@@ -10941,7 +10960,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>436</v>
       </c>
@@ -10982,7 +11001,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>436</v>
       </c>
@@ -11023,7 +11042,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>436</v>
       </c>
@@ -11064,7 +11083,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>436</v>
       </c>
@@ -11105,7 +11124,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>436</v>
       </c>
@@ -11146,7 +11165,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>436</v>
       </c>
@@ -11187,7 +11206,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>436</v>
       </c>
@@ -11229,7 +11248,7 @@
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+      <c r="A167" s="3" t="s">
         <v>436</v>
       </c>
       <c r="B167" t="s">
@@ -11244,6 +11263,9 @@
       <c r="E167" t="s">
         <v>559</v>
       </c>
+      <c r="G167" s="2" t="s">
+        <v>1389</v>
+      </c>
       <c r="H167" t="s">
         <v>406</v>
       </c>
@@ -11266,7 +11288,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>436</v>
       </c>
@@ -11307,7 +11329,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>436</v>
       </c>
@@ -11345,7 +11367,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>436</v>
       </c>
@@ -11389,7 +11411,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>436</v>
       </c>
@@ -11427,7 +11449,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>436</v>
       </c>
@@ -11468,7 +11490,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>436</v>
       </c>
@@ -11506,7 +11528,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>436</v>
       </c>
@@ -11547,7 +11569,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>436</v>
       </c>
@@ -11588,7 +11610,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>436</v>
       </c>
@@ -11629,7 +11651,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>436</v>
       </c>
@@ -11667,7 +11689,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>436</v>
       </c>
@@ -11708,7 +11730,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>436</v>
       </c>
@@ -11746,7 +11768,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>593</v>
       </c>
@@ -11782,7 +11804,7 @@
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+      <c r="A181" s="3" t="s">
         <v>436</v>
       </c>
       <c r="B181" t="s">
@@ -11797,6 +11819,9 @@
       <c r="E181" t="s">
         <v>600</v>
       </c>
+      <c r="G181" s="2" t="s">
+        <v>1389</v>
+      </c>
       <c r="H181" t="s">
         <v>406</v>
       </c>
@@ -11822,7 +11847,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>436</v>
       </c>
@@ -11863,7 +11888,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>436</v>
       </c>
@@ -11904,7 +11929,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>449</v>
       </c>
@@ -11939,7 +11964,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>610</v>
       </c>
@@ -11977,7 +12002,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>610</v>
       </c>
@@ -12015,7 +12040,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>436</v>
       </c>
@@ -12056,7 +12081,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>436</v>
       </c>
@@ -12097,7 +12122,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>436</v>
       </c>
@@ -12138,7 +12163,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>436</v>
       </c>
@@ -12179,7 +12204,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>436</v>
       </c>
@@ -12220,7 +12245,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>449</v>
       </c>
@@ -12255,7 +12280,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>436</v>
       </c>
@@ -12293,7 +12318,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>436</v>
       </c>
@@ -12337,7 +12362,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>436</v>
       </c>
@@ -12378,7 +12403,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>436</v>
       </c>
@@ -12419,7 +12444,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>436</v>
       </c>
@@ -12460,7 +12485,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>436</v>
       </c>
@@ -12501,7 +12526,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>436</v>
       </c>
@@ -12542,7 +12567,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>436</v>
       </c>
@@ -12583,7 +12608,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>436</v>
       </c>
@@ -12624,7 +12649,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>593</v>
       </c>
@@ -12659,7 +12684,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>436</v>
       </c>
@@ -12700,7 +12725,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>436</v>
       </c>
@@ -12741,7 +12766,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>436</v>
       </c>
@@ -12782,7 +12807,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>436</v>
       </c>
@@ -12826,7 +12851,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>449</v>
       </c>
@@ -12861,7 +12886,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>436</v>
       </c>
@@ -12899,7 +12924,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>436</v>
       </c>
@@ -12940,7 +12965,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>436</v>
       </c>
@@ -12981,7 +13006,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>436</v>
       </c>
@@ -13022,7 +13047,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>436</v>
       </c>
@@ -13063,7 +13088,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>436</v>
       </c>
@@ -13101,7 +13126,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>436</v>
       </c>
@@ -13142,7 +13167,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>460</v>
       </c>
@@ -13181,7 +13206,7 @@
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
+      <c r="A216" s="3" t="s">
         <v>436</v>
       </c>
       <c r="B216" t="s">
@@ -13196,6 +13221,9 @@
       <c r="E216" t="s">
         <v>713</v>
       </c>
+      <c r="G216" s="2" t="s">
+        <v>1389</v>
+      </c>
       <c r="H216" t="s">
         <v>406</v>
       </c>
@@ -13218,7 +13246,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>436</v>
       </c>
@@ -13259,7 +13287,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>436</v>
       </c>
@@ -13300,7 +13328,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>436</v>
       </c>
@@ -13341,7 +13369,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>449</v>
       </c>
@@ -13376,7 +13404,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>436</v>
       </c>
@@ -13417,7 +13445,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>436</v>
       </c>
@@ -13458,7 +13486,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>436</v>
       </c>
@@ -13496,7 +13524,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>460</v>
       </c>
@@ -13534,7 +13562,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>436</v>
       </c>
@@ -13572,7 +13600,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>449</v>
       </c>
@@ -13607,7 +13635,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>460</v>
       </c>
@@ -13645,7 +13673,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>436</v>
       </c>
@@ -13686,7 +13714,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>436</v>
       </c>
@@ -13727,7 +13755,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>449</v>
       </c>
@@ -13762,7 +13790,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>436</v>
       </c>
@@ -13803,7 +13831,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>593</v>
       </c>
@@ -13838,7 +13866,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>436</v>
       </c>
@@ -13879,7 +13907,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>449</v>
       </c>
@@ -13914,7 +13942,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>436</v>
       </c>
@@ -13955,7 +13983,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>436</v>
       </c>
@@ -13996,7 +14024,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>436</v>
       </c>
@@ -14037,7 +14065,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>436</v>
       </c>
@@ -14075,7 +14103,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>436</v>
       </c>
@@ -14116,7 +14144,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>593</v>
       </c>
@@ -14151,7 +14179,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>436</v>
       </c>
@@ -14195,7 +14223,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>436</v>
       </c>
@@ -14236,7 +14264,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>436</v>
       </c>
@@ -14274,7 +14302,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>436</v>
       </c>
@@ -14315,7 +14343,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>436</v>
       </c>
@@ -14356,7 +14384,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>449</v>
       </c>
@@ -14391,7 +14419,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>436</v>
       </c>
@@ -14429,7 +14457,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>436</v>
       </c>
@@ -14470,7 +14498,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>449</v>
       </c>
@@ -14505,7 +14533,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>436</v>
       </c>
@@ -14546,7 +14574,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>436</v>
       </c>
@@ -14587,7 +14615,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>436</v>
       </c>
@@ -14628,7 +14656,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>436</v>
       </c>
@@ -14669,7 +14697,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>436</v>
       </c>
@@ -14710,7 +14738,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>436</v>
       </c>
@@ -14751,7 +14779,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>436</v>
       </c>
@@ -14792,7 +14820,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>436</v>
       </c>
@@ -14833,7 +14861,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>449</v>
       </c>
@@ -14868,7 +14896,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>436</v>
       </c>
@@ -14909,7 +14937,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>610</v>
       </c>
@@ -14947,7 +14975,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>436</v>
       </c>
@@ -14988,7 +15016,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>593</v>
       </c>
@@ -15023,7 +15051,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>460</v>
       </c>
@@ -15058,7 +15086,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>436</v>
       </c>
@@ -15099,7 +15127,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>436</v>
       </c>
@@ -15140,7 +15168,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>436</v>
       </c>
@@ -15181,7 +15209,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>436</v>
       </c>
@@ -15222,7 +15250,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>436</v>
       </c>
@@ -15263,7 +15291,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>436</v>
       </c>
@@ -15304,7 +15332,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>407</v>
       </c>
@@ -15333,7 +15361,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>886</v>
       </c>
@@ -15365,7 +15393,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>888</v>
       </c>
@@ -15397,7 +15425,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>886</v>
       </c>
@@ -15429,7 +15457,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>888</v>
       </c>
@@ -15461,7 +15489,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>414</v>
       </c>
@@ -15490,7 +15518,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>436</v>
       </c>
@@ -15531,7 +15559,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>436</v>
       </c>
@@ -15572,7 +15600,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>436</v>
       </c>
@@ -15613,7 +15641,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>436</v>
       </c>
@@ -15654,7 +15682,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>436</v>
       </c>
@@ -15695,7 +15723,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>436</v>
       </c>
@@ -15736,7 +15764,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>436</v>
       </c>
@@ -15778,7 +15806,7 @@
       </c>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
+      <c r="A283" s="3" t="s">
         <v>436</v>
       </c>
       <c r="B283" t="s">
@@ -15793,6 +15821,9 @@
       <c r="E283" t="s">
         <v>916</v>
       </c>
+      <c r="G283" s="2" t="s">
+        <v>1389</v>
+      </c>
       <c r="H283" t="s">
         <v>406</v>
       </c>
@@ -15815,7 +15846,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>436</v>
       </c>
@@ -15853,7 +15884,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>886</v>
       </c>
@@ -15885,7 +15916,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>888</v>
       </c>
@@ -15917,7 +15948,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>449</v>
       </c>
@@ -15952,7 +15983,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>886</v>
       </c>
@@ -15984,7 +16015,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>888</v>
       </c>
@@ -16016,7 +16047,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>436</v>
       </c>
@@ -16060,7 +16091,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>610</v>
       </c>
@@ -16101,7 +16132,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>593</v>
       </c>
@@ -16136,7 +16167,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>436</v>
       </c>
@@ -16174,7 +16205,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>436</v>
       </c>
@@ -16215,7 +16246,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>436</v>
       </c>
@@ -16256,7 +16287,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>436</v>
       </c>
@@ -16297,7 +16328,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>436</v>
       </c>
@@ -16338,7 +16369,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>436</v>
       </c>
@@ -16379,7 +16410,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>436</v>
       </c>
@@ -16417,7 +16448,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>436</v>
       </c>
@@ -16458,7 +16489,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>436</v>
       </c>
@@ -16499,7 +16530,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>436</v>
       </c>
@@ -16537,7 +16568,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>436</v>
       </c>
@@ -16578,7 +16609,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>436</v>
       </c>
@@ -16616,7 +16647,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>436</v>
       </c>
@@ -16657,7 +16688,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>436</v>
       </c>
@@ -16695,7 +16726,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>436</v>
       </c>
@@ -16733,7 +16764,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>436</v>
       </c>
@@ -16749,6 +16780,9 @@
       <c r="E308" t="s">
         <v>998</v>
       </c>
+      <c r="G308" t="s">
+        <v>1389</v>
+      </c>
       <c r="H308" t="s">
         <v>406</v>
       </c>
@@ -16771,7 +16805,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>436</v>
       </c>
@@ -16812,7 +16846,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>436</v>
       </c>
@@ -16853,7 +16887,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>436</v>
       </c>
@@ -16894,7 +16928,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>449</v>
       </c>
@@ -16929,7 +16963,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>436</v>
       </c>
@@ -16970,7 +17004,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>436</v>
       </c>
@@ -17008,7 +17042,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>436</v>
       </c>
@@ -17046,7 +17080,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>436</v>
       </c>
@@ -17087,7 +17121,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>436</v>
       </c>
@@ -17128,7 +17162,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>436</v>
       </c>
@@ -17169,7 +17203,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>593</v>
       </c>
@@ -17204,7 +17238,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>436</v>
       </c>
@@ -17249,7 +17283,7 @@
       </c>
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
+      <c r="A321" s="3" t="s">
         <v>436</v>
       </c>
       <c r="B321" t="s">
@@ -17264,6 +17298,9 @@
       <c r="E321" t="s">
         <v>1040</v>
       </c>
+      <c r="G321" s="2" t="s">
+        <v>1389</v>
+      </c>
       <c r="H321" t="s">
         <v>406</v>
       </c>
@@ -17286,7 +17323,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>436</v>
       </c>
@@ -17327,7 +17364,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>436</v>
       </c>
@@ -17368,7 +17405,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>436</v>
       </c>
@@ -17410,7 +17447,7 @@
       </c>
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
+      <c r="A325" s="3" t="s">
         <v>436</v>
       </c>
       <c r="B325" t="s">
@@ -17425,6 +17462,9 @@
       <c r="E325" t="s">
         <v>1052</v>
       </c>
+      <c r="G325" s="2" t="s">
+        <v>1389</v>
+      </c>
       <c r="H325" t="s">
         <v>406</v>
       </c>
@@ -17447,7 +17487,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>449</v>
       </c>
@@ -17482,7 +17522,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>436</v>
       </c>
@@ -17523,7 +17563,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>436</v>
       </c>
@@ -17564,7 +17604,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>436</v>
       </c>
@@ -17602,7 +17642,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>436</v>
       </c>
@@ -17643,7 +17683,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>436</v>
       </c>
@@ -17684,7 +17724,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>610</v>
       </c>
@@ -17722,7 +17762,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>436</v>
       </c>
@@ -17763,7 +17803,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>436</v>
       </c>
@@ -17801,7 +17841,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>886</v>
       </c>
@@ -17833,7 +17873,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>888</v>
       </c>
@@ -17865,7 +17905,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>436</v>
       </c>
@@ -17906,7 +17946,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>436</v>
       </c>
@@ -17947,7 +17987,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>436</v>
       </c>
@@ -17985,7 +18025,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>449</v>
       </c>
@@ -18020,7 +18060,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>436</v>
       </c>
@@ -18058,7 +18098,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>436</v>
       </c>
@@ -18099,7 +18139,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>436</v>
       </c>
@@ -18137,7 +18177,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>436</v>
       </c>
@@ -18178,7 +18218,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>436</v>
       </c>
@@ -18219,7 +18259,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>436</v>
       </c>
@@ -18257,7 +18297,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>436</v>
       </c>
@@ -18298,7 +18338,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>436</v>
       </c>
@@ -18336,7 +18376,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>460</v>
       </c>
@@ -18371,7 +18411,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>436</v>
       </c>
@@ -18412,7 +18452,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>436</v>
       </c>
@@ -18453,7 +18493,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>436</v>
       </c>
@@ -18494,7 +18534,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>449</v>
       </c>
@@ -18529,7 +18569,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>436</v>
       </c>
@@ -18570,7 +18610,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>436</v>
       </c>
@@ -18611,7 +18651,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>449</v>
       </c>
@@ -18646,7 +18686,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>436</v>
       </c>
@@ -18687,7 +18727,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>460</v>
       </c>
@@ -18725,7 +18765,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>610</v>
       </c>
@@ -18766,7 +18806,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>436</v>
       </c>
@@ -18807,7 +18847,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>436</v>
       </c>
@@ -18848,7 +18888,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>436</v>
       </c>
@@ -18889,7 +18929,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>436</v>
       </c>
@@ -18927,7 +18967,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>436</v>
       </c>
@@ -18968,7 +19008,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>460</v>
       </c>
@@ -19006,7 +19046,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>886</v>
       </c>
@@ -19038,7 +19078,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>888</v>
       </c>
@@ -19070,7 +19110,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>460</v>
       </c>
@@ -19105,7 +19145,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>436</v>
       </c>
@@ -19143,7 +19183,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>593</v>
       </c>
@@ -19178,7 +19218,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>436</v>
       </c>
@@ -19219,7 +19259,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>449</v>
       </c>
@@ -19254,7 +19294,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>436</v>
       </c>
@@ -19295,7 +19335,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>460</v>
       </c>
@@ -19333,7 +19373,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>436</v>
       </c>
@@ -19377,7 +19417,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>449</v>
       </c>
@@ -19412,7 +19452,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>436</v>
       </c>
@@ -19453,7 +19493,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>436</v>
       </c>
@@ -19491,7 +19531,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>436</v>
       </c>
@@ -19529,7 +19569,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>436</v>
       </c>
@@ -19567,7 +19607,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>436</v>
       </c>
@@ -19605,7 +19645,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>436</v>
       </c>
@@ -19621,6 +19661,9 @@
       <c r="E382" t="s">
         <v>1232</v>
       </c>
+      <c r="G382" t="s">
+        <v>1389</v>
+      </c>
       <c r="H382" t="s">
         <v>406</v>
       </c>
@@ -19643,7 +19686,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>436</v>
       </c>
@@ -19685,7 +19728,7 @@
       </c>
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A384" t="s">
+      <c r="A384" s="3" t="s">
         <v>436</v>
       </c>
       <c r="B384" t="s">
@@ -19700,6 +19743,9 @@
       <c r="E384" t="s">
         <v>1239</v>
       </c>
+      <c r="G384" s="2" t="s">
+        <v>1389</v>
+      </c>
       <c r="H384" t="s">
         <v>406</v>
       </c>
@@ -19722,7 +19768,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>436</v>
       </c>
@@ -19760,7 +19806,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>436</v>
       </c>
@@ -19801,7 +19847,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>436</v>
       </c>
@@ -19845,7 +19891,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>436</v>
       </c>
@@ -19886,7 +19932,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>436</v>
       </c>
@@ -19927,7 +19973,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>436</v>
       </c>
@@ -19968,7 +20014,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>436</v>
       </c>
@@ -20012,7 +20058,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>610</v>
       </c>
@@ -20053,7 +20099,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>436</v>
       </c>
@@ -20097,7 +20143,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>449</v>
       </c>
@@ -20132,7 +20178,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>436</v>
       </c>
@@ -20173,7 +20219,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>436</v>
       </c>
@@ -20214,7 +20260,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>436</v>
       </c>
@@ -20255,7 +20301,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>436</v>
       </c>
@@ -20296,7 +20342,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>593</v>
       </c>
@@ -20331,7 +20377,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>436</v>
       </c>
@@ -20372,7 +20418,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>460</v>
       </c>
@@ -20411,7 +20457,7 @@
       </c>
     </row>
     <row r="402" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A402" t="s">
+      <c r="A402" s="3" t="s">
         <v>436</v>
       </c>
       <c r="B402" t="s">
@@ -20426,6 +20472,9 @@
       <c r="E402" t="s">
         <v>1302</v>
       </c>
+      <c r="G402" s="2" t="s">
+        <v>1389</v>
+      </c>
       <c r="H402" t="s">
         <v>406</v>
       </c>
@@ -20451,7 +20500,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>436</v>
       </c>
@@ -20492,7 +20541,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>436</v>
       </c>
@@ -20533,7 +20582,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>436</v>
       </c>
@@ -20574,7 +20623,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>436</v>
       </c>
@@ -20618,7 +20667,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>610</v>
       </c>
@@ -20656,7 +20705,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>436</v>
       </c>
@@ -20697,7 +20746,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>436</v>
       </c>
@@ -20735,7 +20784,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>436</v>
       </c>
@@ -20779,7 +20828,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>610</v>
       </c>
@@ -20820,7 +20869,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>436</v>
       </c>
@@ -20861,7 +20910,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>436</v>
       </c>
@@ -20902,7 +20951,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>436</v>
       </c>
@@ -20940,7 +20989,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>436</v>
       </c>
@@ -20981,7 +21030,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>436</v>
       </c>
@@ -21019,7 +21068,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>436</v>
       </c>
@@ -21060,7 +21109,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>436</v>
       </c>
@@ -21101,7 +21150,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>460</v>
       </c>
@@ -21139,7 +21188,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>436</v>
       </c>
@@ -21180,7 +21229,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>436</v>
       </c>
@@ -21221,7 +21270,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>436</v>
       </c>
@@ -21259,7 +21308,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>436</v>
       </c>
@@ -21300,7 +21349,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>449</v>
       </c>
@@ -21335,7 +21384,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>436</v>
       </c>
@@ -21373,7 +21422,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>436</v>
       </c>
@@ -21411,7 +21460,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>436</v>
       </c>
@@ -21452,7 +21501,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>436</v>
       </c>
@@ -21493,7 +21542,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>593</v>
       </c>
@@ -21528,7 +21577,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>436</v>
       </c>
@@ -21879,8 +21928,9 @@
     <hyperlink ref="I430" r:id="rId305" xr:uid="{B973135E-CDAF-4C20-A4CD-E75CBE7E03A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId306"/>
   <tableParts count="1">
-    <tablePart r:id="rId306"/>
+    <tablePart r:id="rId307"/>
   </tableParts>
 </worksheet>
 </file>
--- a/events.xlsx
+++ b/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\streamlit_tiznados\tiznados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7151CAE-CAF6-490D-959E-CF78990361B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C72DCF9-DCEB-473B-A927-0F2B372B3CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4313,17 +4313,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4341,9 +4352,9 @@
   <autoFilter ref="A1:O429" xr:uid="{C1975CA6-E80E-40A4-A9D5-728F867A63BD}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{45CCCD5A-AFCF-487D-ADA1-0BFBB6505772}" name="Event"/>
-    <tableColumn id="2" xr3:uid="{4A939A0F-B787-4665-B94F-35DE80E0B243}" name="start_time"/>
-    <tableColumn id="3" xr3:uid="{237002C1-33B1-4A0C-8625-A4F946E3279C}" name="time"/>
-    <tableColumn id="4" xr3:uid="{9D5DC911-C5F2-4D28-93C2-CC287EB8C514}" name="end_time"/>
+    <tableColumn id="2" xr3:uid="{4A939A0F-B787-4665-B94F-35DE80E0B243}" name="start_time" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{237002C1-33B1-4A0C-8625-A4F946E3279C}" name="time" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{9D5DC911-C5F2-4D28-93C2-CC287EB8C514}" name="end_time" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{03CB1AC3-F9C4-41A3-9534-FC28A41CE43B}" name="XY"/>
     <tableColumn id="7" xr3:uid="{21238BD0-B16D-4F2C-AA1B-FB6D53651220}" name="Tipo"/>
     <tableColumn id="9" xr3:uid="{2B9AEE74-8141-415A-8718-C057D71FC210}" name="output"/>
@@ -4650,12 +4661,13 @@
   <dimension ref="A1:O429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141:XFD141"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.42578125" style="4"/>
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="43.85546875" bestFit="1" customWidth="1"/>
@@ -4667,13 +4679,13 @@
       <c r="A1" t="s">
         <v>430</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E1" t="s">
@@ -4714,13 +4726,13 @@
       <c r="A2" t="s">
         <v>411</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>413</v>
       </c>
       <c r="H2" t="s">
@@ -4745,13 +4757,13 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E3" t="s">
@@ -4785,13 +4797,13 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
@@ -4825,13 +4837,13 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E5" t="s">
@@ -4865,13 +4877,13 @@
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E6" t="s">
@@ -4905,13 +4917,13 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E7" t="s">
@@ -4945,13 +4957,13 @@
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E8" t="s">
@@ -4985,13 +4997,13 @@
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E9" t="s">
@@ -5025,13 +5037,13 @@
       <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E10" t="s">
@@ -5065,13 +5077,13 @@
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E11" t="s">
@@ -5105,13 +5117,13 @@
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E12" t="s">
@@ -5145,13 +5157,13 @@
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E13" t="s">
@@ -5185,13 +5197,13 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E14" t="s">
@@ -5225,13 +5237,13 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E15" t="s">
@@ -5265,13 +5277,13 @@
       <c r="A16" t="s">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E16" t="s">
@@ -5305,13 +5317,13 @@
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E17" t="s">
@@ -5345,13 +5357,13 @@
       <c r="A18" t="s">
         <v>78</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E18" t="s">
@@ -5382,13 +5394,13 @@
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>83</v>
       </c>
       <c r="E19" t="s">
@@ -5422,13 +5434,13 @@
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E20" t="s">
@@ -5462,13 +5474,13 @@
       <c r="A21" t="s">
         <v>3</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E21" t="s">
@@ -5499,13 +5511,13 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E22" t="s">
@@ -5539,13 +5551,13 @@
       <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="4" t="s">
         <v>94</v>
       </c>
       <c r="E23" t="s">
@@ -5579,13 +5591,13 @@
       <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="4" t="s">
         <v>97</v>
       </c>
       <c r="E24" t="s">
@@ -5619,13 +5631,13 @@
       <c r="A25" t="s">
         <v>3</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="4" t="s">
         <v>100</v>
       </c>
       <c r="E25" t="s">
@@ -5659,13 +5671,13 @@
       <c r="A26" t="s">
         <v>18</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E26" t="s">
@@ -5699,13 +5711,13 @@
       <c r="A27" t="s">
         <v>1</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E27" t="s">
@@ -5739,13 +5751,13 @@
       <c r="A28" t="s">
         <v>18</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E28" t="s">
@@ -5776,13 +5788,13 @@
       <c r="A29" t="s">
         <v>1</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E29" t="s">
@@ -5816,13 +5828,13 @@
       <c r="A30" t="s">
         <v>3</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="4" t="s">
         <v>113</v>
       </c>
       <c r="E30" t="s">
@@ -5856,13 +5868,13 @@
       <c r="A31" t="s">
         <v>3</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="4" t="s">
         <v>116</v>
       </c>
       <c r="E31" t="s">
@@ -5893,13 +5905,13 @@
       <c r="A32" t="s">
         <v>118</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E32" t="s">
@@ -5930,13 +5942,13 @@
       <c r="A33" t="s">
         <v>3</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="4" t="s">
         <v>124</v>
       </c>
       <c r="E33" t="s">
@@ -5970,13 +5982,13 @@
       <c r="A34" t="s">
         <v>18</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E34" t="s">
@@ -6010,13 +6022,13 @@
       <c r="A35" t="s">
         <v>3</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E35" t="s">
@@ -6050,13 +6062,13 @@
       <c r="A36" t="s">
         <v>20</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="4" t="s">
         <v>131</v>
       </c>
       <c r="E36" t="s">
@@ -6090,13 +6102,13 @@
       <c r="A37" t="s">
         <v>1</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="4" t="s">
         <v>133</v>
       </c>
       <c r="E37" t="s">
@@ -6130,13 +6142,13 @@
       <c r="A38" t="s">
         <v>3</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E38" t="s">
@@ -6170,13 +6182,13 @@
       <c r="A39" t="s">
         <v>18</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E39" t="s">
@@ -6210,13 +6222,13 @@
       <c r="A40" t="s">
         <v>1</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="4" t="s">
         <v>140</v>
       </c>
       <c r="E40" t="s">
@@ -6250,13 +6262,13 @@
       <c r="A41" t="s">
         <v>3</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="4" t="s">
         <v>143</v>
       </c>
       <c r="E41" t="s">
@@ -6290,13 +6302,13 @@
       <c r="A42" t="s">
         <v>20</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="4" t="s">
         <v>146</v>
       </c>
       <c r="E42" t="s">
@@ -6330,13 +6342,13 @@
       <c r="A43" t="s">
         <v>3</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="4" t="s">
         <v>149</v>
       </c>
       <c r="E43" t="s">
@@ -6370,13 +6382,13 @@
       <c r="A44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="4" t="s">
         <v>151</v>
       </c>
       <c r="E44" t="s">
@@ -6410,13 +6422,13 @@
       <c r="A45" t="s">
         <v>3</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="4" t="s">
         <v>154</v>
       </c>
       <c r="E45" t="s">
@@ -6450,13 +6462,13 @@
       <c r="A46" t="s">
         <v>3</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="4" t="s">
         <v>157</v>
       </c>
       <c r="E46" t="s">
@@ -6487,13 +6499,13 @@
       <c r="A47" t="s">
         <v>3</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="4" t="s">
         <v>160</v>
       </c>
       <c r="E47" t="s">
@@ -6527,13 +6539,13 @@
       <c r="A48" t="s">
         <v>118</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E48" t="s">
@@ -6564,13 +6576,13 @@
       <c r="A49" t="s">
         <v>3</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="4" t="s">
         <v>166</v>
       </c>
       <c r="E49" t="s">
@@ -6604,13 +6616,13 @@
       <c r="A50" t="s">
         <v>18</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="4" t="s">
         <v>169</v>
       </c>
       <c r="E50" t="s">
@@ -6641,13 +6653,13 @@
       <c r="A51" t="s">
         <v>18</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="4" t="s">
         <v>172</v>
       </c>
       <c r="E51" t="s">
@@ -6678,13 +6690,13 @@
       <c r="A52" t="s">
         <v>3</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="4" t="s">
         <v>175</v>
       </c>
       <c r="E52" t="s">
@@ -6718,13 +6730,13 @@
       <c r="A53" t="s">
         <v>3</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="4" t="s">
         <v>178</v>
       </c>
       <c r="E53" t="s">
@@ -6758,13 +6770,13 @@
       <c r="A54" t="s">
         <v>20</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="4" t="s">
         <v>180</v>
       </c>
       <c r="E54" t="s">
@@ -6798,13 +6810,13 @@
       <c r="A55" t="s">
         <v>1</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="4" t="s">
         <v>183</v>
       </c>
       <c r="E55" t="s">
@@ -6838,13 +6850,13 @@
       <c r="A56" t="s">
         <v>3</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="4" t="s">
         <v>186</v>
       </c>
       <c r="E56" t="s">
@@ -6878,13 +6890,13 @@
       <c r="A57" t="s">
         <v>20</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="4" t="s">
         <v>189</v>
       </c>
       <c r="E57" t="s">
@@ -6918,13 +6930,13 @@
       <c r="A58" t="s">
         <v>18</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="4" t="s">
         <v>192</v>
       </c>
       <c r="E58" t="s">
@@ -6958,13 +6970,13 @@
       <c r="A59" t="s">
         <v>78</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E59" t="s">
@@ -7001,13 +7013,13 @@
       <c r="A60" t="s">
         <v>3</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="4" t="s">
         <v>199</v>
       </c>
       <c r="E60" t="s">
@@ -7041,13 +7053,13 @@
       <c r="A61" t="s">
         <v>407</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="4" t="s">
         <v>410</v>
       </c>
       <c r="H61" t="s">
@@ -7072,13 +7084,13 @@
       <c r="A62" t="s">
         <v>414</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="4" t="s">
         <v>417</v>
       </c>
       <c r="H62" t="s">
@@ -7103,13 +7115,13 @@
       <c r="A63" t="s">
         <v>78</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E63" t="s">
@@ -7140,13 +7152,13 @@
       <c r="A64" t="s">
         <v>3</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="4" t="s">
         <v>206</v>
       </c>
       <c r="E64" t="s">
@@ -7180,13 +7192,13 @@
       <c r="A65" t="s">
         <v>20</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="4" t="s">
         <v>206</v>
       </c>
       <c r="E65" t="s">
@@ -7220,13 +7232,13 @@
       <c r="A66" t="s">
         <v>3</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="4" t="s">
         <v>211</v>
       </c>
       <c r="E66" t="s">
@@ -7260,13 +7272,13 @@
       <c r="A67" t="s">
         <v>3</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="4" t="s">
         <v>214</v>
       </c>
       <c r="E67" t="s">
@@ -7300,13 +7312,13 @@
       <c r="A68" t="s">
         <v>20</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="4" t="s">
         <v>217</v>
       </c>
       <c r="E68" t="s">
@@ -7340,13 +7352,13 @@
       <c r="A69" t="s">
         <v>78</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="4" t="s">
         <v>221</v>
       </c>
       <c r="E69" t="s">
@@ -7377,13 +7389,13 @@
       <c r="A70" t="s">
         <v>1</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="4" t="s">
         <v>223</v>
       </c>
       <c r="E70" t="s">
@@ -7417,13 +7429,13 @@
       <c r="A71" t="s">
         <v>20</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="4" t="s">
         <v>226</v>
       </c>
       <c r="E71" t="s">
@@ -7457,13 +7469,13 @@
       <c r="A72" t="s">
         <v>1</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="4" t="s">
         <v>229</v>
       </c>
       <c r="E72" t="s">
@@ -7497,13 +7509,13 @@
       <c r="A73" t="s">
         <v>20</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="4" t="s">
         <v>231</v>
       </c>
       <c r="E73" t="s">
@@ -7537,13 +7549,13 @@
       <c r="A74" t="s">
         <v>20</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E74" t="s">
@@ -7577,13 +7589,13 @@
       <c r="A75" t="s">
         <v>3</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="4" t="s">
         <v>237</v>
       </c>
       <c r="E75" t="s">
@@ -7617,13 +7629,13 @@
       <c r="A76" t="s">
         <v>20</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="4" t="s">
         <v>240</v>
       </c>
       <c r="E76" t="s">
@@ -7657,13 +7669,13 @@
       <c r="A77" t="s">
         <v>18</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="4" t="s">
         <v>242</v>
       </c>
       <c r="E77" t="s">
@@ -7697,13 +7709,13 @@
       <c r="A78" t="s">
         <v>20</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="4" t="s">
         <v>244</v>
       </c>
       <c r="E78" t="s">
@@ -7737,13 +7749,13 @@
       <c r="A79" t="s">
         <v>1</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="4" t="s">
         <v>246</v>
       </c>
       <c r="E79" t="s">
@@ -7777,13 +7789,13 @@
       <c r="A80" t="s">
         <v>18</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="4" t="s">
         <v>249</v>
       </c>
       <c r="E80" t="s">
@@ -7817,13 +7829,13 @@
       <c r="A81" t="s">
         <v>78</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="4" t="s">
         <v>253</v>
       </c>
       <c r="E81" t="s">
@@ -7854,13 +7866,13 @@
       <c r="A82" t="s">
         <v>3</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="4" t="s">
         <v>256</v>
       </c>
       <c r="E82" t="s">
@@ -7894,13 +7906,13 @@
       <c r="A83" t="s">
         <v>3</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E83" t="s">
@@ -7934,13 +7946,13 @@
       <c r="A84" t="s">
         <v>20</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="4" t="s">
         <v>262</v>
       </c>
       <c r="E84" t="s">
@@ -7974,13 +7986,13 @@
       <c r="A85" t="s">
         <v>1</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="4" t="s">
         <v>265</v>
       </c>
       <c r="E85" t="s">
@@ -8014,13 +8026,13 @@
       <c r="A86" t="s">
         <v>18</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="4" t="s">
         <v>268</v>
       </c>
       <c r="E86" t="s">
@@ -8054,13 +8066,13 @@
       <c r="A87" t="s">
         <v>78</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="4" t="s">
         <v>272</v>
       </c>
       <c r="E87" t="s">
@@ -8091,13 +8103,13 @@
       <c r="A88" t="s">
         <v>3</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="4" t="s">
         <v>275</v>
       </c>
       <c r="E88" t="s">
@@ -8131,13 +8143,13 @@
       <c r="A89" t="s">
         <v>20</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="4" t="s">
         <v>275</v>
       </c>
       <c r="E89" t="s">
@@ -8171,13 +8183,13 @@
       <c r="A90" t="s">
         <v>20</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E90" t="s">
@@ -8211,13 +8223,13 @@
       <c r="A91" t="s">
         <v>1</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="4" t="s">
         <v>283</v>
       </c>
       <c r="E91" t="s">
@@ -8251,13 +8263,13 @@
       <c r="A92" t="s">
         <v>18</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="4" t="s">
         <v>286</v>
       </c>
       <c r="E92" t="s">
@@ -8291,13 +8303,13 @@
       <c r="A93" t="s">
         <v>1</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="4" t="s">
         <v>289</v>
       </c>
       <c r="E93" t="s">
@@ -8331,13 +8343,13 @@
       <c r="A94" t="s">
         <v>20</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="4" t="s">
         <v>292</v>
       </c>
       <c r="E94" t="s">
@@ -8371,13 +8383,13 @@
       <c r="A95" t="s">
         <v>3</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="4" t="s">
         <v>295</v>
       </c>
       <c r="E95" t="s">
@@ -8411,13 +8423,13 @@
       <c r="A96" t="s">
         <v>1</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="4" t="s">
         <v>298</v>
       </c>
       <c r="E96" t="s">
@@ -8451,13 +8463,13 @@
       <c r="A97" t="s">
         <v>3</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="4" t="s">
         <v>301</v>
       </c>
       <c r="E97" t="s">
@@ -8491,13 +8503,13 @@
       <c r="A98" t="s">
         <v>3</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="4" t="s">
         <v>304</v>
       </c>
       <c r="E98" t="s">
@@ -8531,13 +8543,13 @@
       <c r="A99" t="s">
         <v>18</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="4" t="s">
         <v>307</v>
       </c>
       <c r="E99" t="s">
@@ -8571,13 +8583,13 @@
       <c r="A100" t="s">
         <v>1</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="4" t="s">
         <v>310</v>
       </c>
       <c r="E100" t="s">
@@ -8611,13 +8623,13 @@
       <c r="A101" t="s">
         <v>118</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="4" t="s">
         <v>314</v>
       </c>
       <c r="E101" t="s">
@@ -8651,13 +8663,13 @@
       <c r="A102" t="s">
         <v>3</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="4" t="s">
         <v>317</v>
       </c>
       <c r="E102" t="s">
@@ -8691,13 +8703,13 @@
       <c r="A103" t="s">
         <v>20</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="4" t="s">
         <v>320</v>
       </c>
       <c r="E103" t="s">
@@ -8731,13 +8743,13 @@
       <c r="A104" t="s">
         <v>3</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="4" t="s">
         <v>323</v>
       </c>
       <c r="E104" t="s">
@@ -8771,13 +8783,13 @@
       <c r="A105" t="s">
         <v>118</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="4" t="s">
         <v>327</v>
       </c>
       <c r="E105" t="s">
@@ -8808,13 +8820,13 @@
       <c r="A106" t="s">
         <v>18</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="4" t="s">
         <v>330</v>
       </c>
       <c r="E106" t="s">
@@ -8848,13 +8860,13 @@
       <c r="A107" t="s">
         <v>78</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="4" t="s">
         <v>334</v>
       </c>
       <c r="E107" t="s">
@@ -8885,13 +8897,13 @@
       <c r="A108" t="s">
         <v>78</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="4" t="s">
         <v>338</v>
       </c>
       <c r="E108" t="s">
@@ -8922,13 +8934,13 @@
       <c r="A109" t="s">
         <v>1</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="4" t="s">
         <v>340</v>
       </c>
       <c r="E109" t="s">
@@ -8962,13 +8974,13 @@
       <c r="A110" t="s">
         <v>1</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="4" t="s">
         <v>343</v>
       </c>
       <c r="E110" t="s">
@@ -9002,13 +9014,13 @@
       <c r="A111" t="s">
         <v>18</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="4" t="s">
         <v>346</v>
       </c>
       <c r="E111" t="s">
@@ -9042,13 +9054,13 @@
       <c r="A112" t="s">
         <v>3</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="4" t="s">
         <v>349</v>
       </c>
       <c r="E112" t="s">
@@ -9082,13 +9094,13 @@
       <c r="A113" t="s">
         <v>1</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="4" t="s">
         <v>352</v>
       </c>
       <c r="E113" t="s">
@@ -9122,13 +9134,13 @@
       <c r="A114" t="s">
         <v>3</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E114" t="s">
@@ -9165,13 +9177,13 @@
       <c r="A115" t="s">
         <v>18</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="4" t="s">
         <v>358</v>
       </c>
       <c r="E115" t="s">
@@ -9205,13 +9217,13 @@
       <c r="A116" t="s">
         <v>3</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="4" t="s">
         <v>361</v>
       </c>
       <c r="E116" t="s">
@@ -9245,13 +9257,13 @@
       <c r="A117" t="s">
         <v>1</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="4" t="s">
         <v>364</v>
       </c>
       <c r="E117" t="s">
@@ -9285,13 +9297,13 @@
       <c r="A118" t="s">
         <v>118</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="4" t="s">
         <v>368</v>
       </c>
       <c r="E118" t="s">
@@ -9322,13 +9334,13 @@
       <c r="A119" t="s">
         <v>18</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="4" t="s">
         <v>371</v>
       </c>
       <c r="E119" t="s">
@@ -9362,13 +9374,13 @@
       <c r="A120" t="s">
         <v>78</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="4" t="s">
         <v>375</v>
       </c>
       <c r="E120" t="s">
@@ -9399,13 +9411,13 @@
       <c r="A121" t="s">
         <v>1</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="4" t="s">
         <v>378</v>
       </c>
       <c r="E121" t="s">
@@ -9439,13 +9451,13 @@
       <c r="A122" t="s">
         <v>78</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="4" t="s">
         <v>382</v>
       </c>
       <c r="E122" t="s">
@@ -9476,13 +9488,13 @@
       <c r="A123" t="s">
         <v>1</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="4" t="s">
         <v>385</v>
       </c>
       <c r="E123" t="s">
@@ -9516,13 +9528,13 @@
       <c r="A124" t="s">
         <v>18</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="4" t="s">
         <v>388</v>
       </c>
       <c r="E124" t="s">
@@ -9556,13 +9568,13 @@
       <c r="A125" t="s">
         <v>3</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="4" t="s">
         <v>391</v>
       </c>
       <c r="E125" t="s">
@@ -9596,13 +9608,13 @@
       <c r="A126" t="s">
         <v>3</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="4" t="s">
         <v>394</v>
       </c>
       <c r="E126" t="s">
@@ -9636,13 +9648,13 @@
       <c r="A127" t="s">
         <v>422</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="4" t="s">
         <v>419</v>
       </c>
       <c r="H127" t="s">
@@ -9667,13 +9679,13 @@
       <c r="A128" t="s">
         <v>436</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="4" t="s">
         <v>438</v>
       </c>
       <c r="E128" t="s">
@@ -9708,13 +9720,13 @@
       <c r="A129" t="s">
         <v>436</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="4" t="s">
         <v>440</v>
       </c>
       <c r="E129" t="s">
@@ -9749,13 +9761,13 @@
       <c r="A130" t="s">
         <v>436</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="4" t="s">
         <v>443</v>
       </c>
       <c r="E130" t="s">
@@ -9790,13 +9802,13 @@
       <c r="A131" t="s">
         <v>436</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="4" t="s">
         <v>447</v>
       </c>
       <c r="E131" t="s">
@@ -9831,13 +9843,13 @@
       <c r="A132" t="s">
         <v>449</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="4" t="s">
         <v>451</v>
       </c>
       <c r="E132" t="s">
@@ -9866,13 +9878,13 @@
       <c r="A133" t="s">
         <v>436</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="4" t="s">
         <v>455</v>
       </c>
       <c r="E133" t="s">
@@ -9907,13 +9919,13 @@
       <c r="A134" t="s">
         <v>436</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="4" t="s">
         <v>458</v>
       </c>
       <c r="E134" t="s">
@@ -9948,13 +9960,13 @@
       <c r="A135" t="s">
         <v>460</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="4" t="s">
         <v>462</v>
       </c>
       <c r="E135" t="s">
@@ -9986,13 +9998,13 @@
       <c r="A136" t="s">
         <v>436</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="4" t="s">
         <v>465</v>
       </c>
       <c r="E136" t="s">
@@ -10027,13 +10039,13 @@
       <c r="A137" t="s">
         <v>436</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="4" t="s">
         <v>468</v>
       </c>
       <c r="E137" t="s">
@@ -10068,13 +10080,13 @@
       <c r="A138" t="s">
         <v>436</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="4" t="s">
         <v>471</v>
       </c>
       <c r="E138" t="s">
@@ -10109,13 +10121,13 @@
       <c r="A139" t="s">
         <v>436</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="4" t="s">
         <v>474</v>
       </c>
       <c r="E139" t="s">
@@ -10150,13 +10162,13 @@
       <c r="A140" t="s">
         <v>436</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="4" t="s">
         <v>477</v>
       </c>
       <c r="E140" t="s">
@@ -10191,13 +10203,13 @@
       <c r="A141" t="s">
         <v>436</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="4" t="s">
         <v>479</v>
       </c>
       <c r="E141" t="s">
@@ -10235,13 +10247,13 @@
       <c r="A142" t="s">
         <v>436</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="4" t="s">
         <v>424</v>
       </c>
       <c r="E142" t="s">
@@ -10276,13 +10288,13 @@
       <c r="A143" t="s">
         <v>436</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="4" t="s">
         <v>425</v>
       </c>
       <c r="E143" t="s">
@@ -10317,13 +10329,13 @@
       <c r="A144" t="s">
         <v>436</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="4" t="s">
         <v>487</v>
       </c>
       <c r="E144" t="s">
@@ -10358,13 +10370,13 @@
       <c r="A145" t="s">
         <v>436</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="4" t="s">
         <v>427</v>
       </c>
       <c r="E145" t="s">
@@ -10399,13 +10411,13 @@
       <c r="A146" t="s">
         <v>436</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="4" t="s">
         <v>490</v>
       </c>
       <c r="E146" t="s">
@@ -10440,13 +10452,13 @@
       <c r="A147" t="s">
         <v>436</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="4" t="s">
         <v>493</v>
       </c>
       <c r="E147" t="s">
@@ -10478,13 +10490,13 @@
       <c r="A148" t="s">
         <v>436</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E148" t="s">
@@ -10519,13 +10531,13 @@
       <c r="A149" t="s">
         <v>449</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="4" t="s">
         <v>500</v>
       </c>
       <c r="E149" t="s">
@@ -10554,13 +10566,13 @@
       <c r="A150" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="4" t="s">
         <v>503</v>
       </c>
       <c r="E150" t="s">
@@ -10595,13 +10607,13 @@
       <c r="A151" t="s">
         <v>436</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="4" t="s">
         <v>506</v>
       </c>
       <c r="E151" t="s">
@@ -10636,13 +10648,13 @@
       <c r="A152" t="s">
         <v>436</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="4" t="s">
         <v>510</v>
       </c>
       <c r="E152" t="s">
@@ -10677,13 +10689,13 @@
       <c r="A153" t="s">
         <v>449</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="4" t="s">
         <v>513</v>
       </c>
       <c r="E153" t="s">
@@ -10712,13 +10724,13 @@
       <c r="A154" t="s">
         <v>436</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="4" t="s">
         <v>517</v>
       </c>
       <c r="E154" t="s">
@@ -10753,13 +10765,13 @@
       <c r="A155" t="s">
         <v>436</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="4" t="s">
         <v>520</v>
       </c>
       <c r="E155" t="s">
@@ -10794,13 +10806,13 @@
       <c r="A156" t="s">
         <v>436</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="4" t="s">
         <v>523</v>
       </c>
       <c r="E156" t="s">
@@ -10835,13 +10847,13 @@
       <c r="A157" t="s">
         <v>449</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="4" t="s">
         <v>525</v>
       </c>
       <c r="E157" t="s">
@@ -10870,13 +10882,13 @@
       <c r="A158" t="s">
         <v>436</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="4" t="s">
         <v>529</v>
       </c>
       <c r="E158" t="s">
@@ -10911,13 +10923,13 @@
       <c r="A159" t="s">
         <v>436</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="4" t="s">
         <v>532</v>
       </c>
       <c r="E159" t="s">
@@ -10952,13 +10964,13 @@
       <c r="A160" t="s">
         <v>436</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E160" t="s">
@@ -10993,13 +11005,13 @@
       <c r="A161" t="s">
         <v>436</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E161" t="s">
@@ -11034,13 +11046,13 @@
       <c r="A162" t="s">
         <v>436</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="4" t="s">
         <v>540</v>
       </c>
       <c r="E162" t="s">
@@ -11075,13 +11087,13 @@
       <c r="A163" t="s">
         <v>436</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="4" t="s">
         <v>544</v>
       </c>
       <c r="E163" t="s">
@@ -11116,13 +11128,13 @@
       <c r="A164" t="s">
         <v>436</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="4" t="s">
         <v>548</v>
       </c>
       <c r="E164" t="s">
@@ -11157,13 +11169,13 @@
       <c r="A165" t="s">
         <v>436</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="4" t="s">
         <v>551</v>
       </c>
       <c r="E165" t="s">
@@ -11198,13 +11210,13 @@
       <c r="A166" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="4" t="s">
         <v>555</v>
       </c>
       <c r="E166" t="s">
@@ -11239,13 +11251,13 @@
       <c r="A167" t="s">
         <v>436</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="4" t="s">
         <v>558</v>
       </c>
       <c r="E167" t="s">
@@ -11280,13 +11292,13 @@
       <c r="A168" t="s">
         <v>436</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="4" t="s">
         <v>562</v>
       </c>
       <c r="E168" t="s">
@@ -11318,13 +11330,13 @@
       <c r="A169" t="s">
         <v>436</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E169" t="s">
@@ -11362,13 +11374,13 @@
       <c r="A170" t="s">
         <v>436</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="4" t="s">
         <v>568</v>
       </c>
       <c r="E170" t="s">
@@ -11400,13 +11412,13 @@
       <c r="A171" t="s">
         <v>436</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E171" t="s">
@@ -11441,13 +11453,13 @@
       <c r="A172" t="s">
         <v>436</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="4" t="s">
         <v>571</v>
       </c>
       <c r="E172" t="s">
@@ -11479,13 +11491,13 @@
       <c r="A173" t="s">
         <v>436</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="4" t="s">
         <v>573</v>
       </c>
       <c r="E173" t="s">
@@ -11520,13 +11532,13 @@
       <c r="A174" t="s">
         <v>436</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="4" t="s">
         <v>577</v>
       </c>
       <c r="E174" t="s">
@@ -11561,13 +11573,13 @@
       <c r="A175" t="s">
         <v>436</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="4" t="s">
         <v>580</v>
       </c>
       <c r="E175" t="s">
@@ -11602,13 +11614,13 @@
       <c r="A176" t="s">
         <v>436</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E176" t="s">
@@ -11640,13 +11652,13 @@
       <c r="A177" t="s">
         <v>436</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="4" t="s">
         <v>585</v>
       </c>
       <c r="E177" t="s">
@@ -11681,13 +11693,13 @@
       <c r="A178" t="s">
         <v>436</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="4" t="s">
         <v>588</v>
       </c>
       <c r="E178" t="s">
@@ -11719,13 +11731,13 @@
       <c r="A179" t="s">
         <v>590</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="4" t="s">
         <v>592</v>
       </c>
       <c r="E179" t="s">
@@ -11754,13 +11766,13 @@
       <c r="A180" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="4" t="s">
         <v>596</v>
       </c>
       <c r="E180" t="s">
@@ -11798,13 +11810,13 @@
       <c r="A181" t="s">
         <v>436</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="4" t="s">
         <v>599</v>
       </c>
       <c r="E181" t="s">
@@ -11839,13 +11851,13 @@
       <c r="A182" t="s">
         <v>436</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="4" t="s">
         <v>602</v>
       </c>
       <c r="E182" t="s">
@@ -11880,13 +11892,13 @@
       <c r="A183" t="s">
         <v>449</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="4" t="s">
         <v>100</v>
       </c>
       <c r="E183" t="s">
@@ -11915,13 +11927,13 @@
       <c r="A184" t="s">
         <v>607</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="4" t="s">
         <v>610</v>
       </c>
       <c r="E184" t="s">
@@ -11953,13 +11965,13 @@
       <c r="A185" t="s">
         <v>607</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E185" t="s">
@@ -11991,13 +12003,13 @@
       <c r="A186" t="s">
         <v>436</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E186" t="s">
@@ -12032,13 +12044,13 @@
       <c r="A187" t="s">
         <v>436</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="4" t="s">
         <v>618</v>
       </c>
       <c r="E187" t="s">
@@ -12073,13 +12085,13 @@
       <c r="A188" t="s">
         <v>436</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="4" t="s">
         <v>622</v>
       </c>
       <c r="E188" t="s">
@@ -12114,13 +12126,13 @@
       <c r="A189" t="s">
         <v>436</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="4" t="s">
         <v>625</v>
       </c>
       <c r="E189" t="s">
@@ -12155,13 +12167,13 @@
       <c r="A190" t="s">
         <v>436</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="4" t="s">
         <v>628</v>
       </c>
       <c r="E190" t="s">
@@ -12196,13 +12208,13 @@
       <c r="A191" t="s">
         <v>449</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="4" t="s">
         <v>632</v>
       </c>
       <c r="E191" t="s">
@@ -12231,13 +12243,13 @@
       <c r="A192" t="s">
         <v>436</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="4" t="s">
         <v>636</v>
       </c>
       <c r="E192" t="s">
@@ -12269,13 +12281,13 @@
       <c r="A193" t="s">
         <v>436</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="4" t="s">
         <v>639</v>
       </c>
       <c r="E193" t="s">
@@ -12313,13 +12325,13 @@
       <c r="A194" t="s">
         <v>436</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="4" t="s">
         <v>642</v>
       </c>
       <c r="E194" t="s">
@@ -12354,13 +12366,13 @@
       <c r="A195" t="s">
         <v>436</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="4" t="s">
         <v>645</v>
       </c>
       <c r="E195" t="s">
@@ -12395,13 +12407,13 @@
       <c r="A196" t="s">
         <v>436</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="4" t="s">
         <v>648</v>
       </c>
       <c r="E196" t="s">
@@ -12436,13 +12448,13 @@
       <c r="A197" t="s">
         <v>436</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="4" t="s">
         <v>652</v>
       </c>
       <c r="E197" t="s">
@@ -12477,13 +12489,13 @@
       <c r="A198" t="s">
         <v>436</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="4" t="s">
         <v>655</v>
       </c>
       <c r="E198" t="s">
@@ -12518,13 +12530,13 @@
       <c r="A199" t="s">
         <v>436</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="4" t="s">
         <v>658</v>
       </c>
       <c r="E199" t="s">
@@ -12559,13 +12571,13 @@
       <c r="A200" t="s">
         <v>436</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="4" t="s">
         <v>661</v>
       </c>
       <c r="E200" t="s">
@@ -12600,13 +12612,13 @@
       <c r="A201" t="s">
         <v>590</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="4" t="s">
         <v>665</v>
       </c>
       <c r="E201" t="s">
@@ -12635,13 +12647,13 @@
       <c r="A202" t="s">
         <v>436</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="4" t="s">
         <v>669</v>
       </c>
       <c r="E202" t="s">
@@ -12676,13 +12688,13 @@
       <c r="A203" t="s">
         <v>436</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="4" t="s">
         <v>672</v>
       </c>
       <c r="E203" t="s">
@@ -12717,13 +12729,13 @@
       <c r="A204" t="s">
         <v>436</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="4" t="s">
         <v>675</v>
       </c>
       <c r="E204" t="s">
@@ -12758,13 +12770,13 @@
       <c r="A205" t="s">
         <v>436</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="4" t="s">
         <v>678</v>
       </c>
       <c r="E205" t="s">
@@ -12802,13 +12814,13 @@
       <c r="A206" t="s">
         <v>449</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="4" t="s">
         <v>682</v>
       </c>
       <c r="E206" t="s">
@@ -12837,13 +12849,13 @@
       <c r="A207" t="s">
         <v>436</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E207" t="s">
@@ -12875,13 +12887,13 @@
       <c r="A208" t="s">
         <v>436</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="4" t="s">
         <v>689</v>
       </c>
       <c r="E208" t="s">
@@ -12916,13 +12928,13 @@
       <c r="A209" t="s">
         <v>436</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="4" t="s">
         <v>692</v>
       </c>
       <c r="E209" t="s">
@@ -12957,13 +12969,13 @@
       <c r="A210" t="s">
         <v>436</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="4" t="s">
         <v>694</v>
       </c>
       <c r="E210" t="s">
@@ -12998,13 +13010,13 @@
       <c r="A211" t="s">
         <v>436</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="4" t="s">
         <v>697</v>
       </c>
       <c r="E211" t="s">
@@ -13039,13 +13051,13 @@
       <c r="A212" t="s">
         <v>436</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="4" t="s">
         <v>701</v>
       </c>
       <c r="E212" t="s">
@@ -13077,13 +13089,13 @@
       <c r="A213" t="s">
         <v>436</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="4" t="s">
         <v>703</v>
       </c>
       <c r="E213" t="s">
@@ -13118,13 +13130,13 @@
       <c r="A214" t="s">
         <v>460</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="4" t="s">
         <v>706</v>
       </c>
       <c r="E214" t="s">
@@ -13156,13 +13168,13 @@
       <c r="A215" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="4" t="s">
         <v>709</v>
       </c>
       <c r="E215" t="s">
@@ -13197,13 +13209,13 @@
       <c r="A216" t="s">
         <v>436</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="4" t="s">
         <v>713</v>
       </c>
       <c r="E216" t="s">
@@ -13238,13 +13250,13 @@
       <c r="A217" t="s">
         <v>436</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="4" t="s">
         <v>716</v>
       </c>
       <c r="E217" t="s">
@@ -13279,13 +13291,13 @@
       <c r="A218" t="s">
         <v>436</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="4" t="s">
         <v>720</v>
       </c>
       <c r="E218" t="s">
@@ -13320,13 +13332,13 @@
       <c r="A219" t="s">
         <v>449</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="4" t="s">
         <v>724</v>
       </c>
       <c r="E219" t="s">
@@ -13355,13 +13367,13 @@
       <c r="A220" t="s">
         <v>436</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="4" t="s">
         <v>727</v>
       </c>
       <c r="E220" t="s">
@@ -13396,13 +13408,13 @@
       <c r="A221" t="s">
         <v>436</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="4" t="s">
         <v>729</v>
       </c>
       <c r="E221" t="s">
@@ -13437,13 +13449,13 @@
       <c r="A222" t="s">
         <v>436</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="4" t="s">
         <v>143</v>
       </c>
       <c r="E222" t="s">
@@ -13475,13 +13487,13 @@
       <c r="A223" t="s">
         <v>460</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C223" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="4" t="s">
         <v>734</v>
       </c>
       <c r="E223" t="s">
@@ -13513,13 +13525,13 @@
       <c r="A224" t="s">
         <v>436</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="4" t="s">
         <v>737</v>
       </c>
       <c r="E224" t="s">
@@ -13551,13 +13563,13 @@
       <c r="A225" t="s">
         <v>449</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="4" t="s">
         <v>740</v>
       </c>
       <c r="E225" t="s">
@@ -13586,13 +13598,13 @@
       <c r="A226" t="s">
         <v>460</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="4" t="s">
         <v>743</v>
       </c>
       <c r="E226" t="s">
@@ -13624,13 +13636,13 @@
       <c r="A227" t="s">
         <v>436</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C227" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="4" t="s">
         <v>746</v>
       </c>
       <c r="E227" t="s">
@@ -13665,13 +13677,13 @@
       <c r="A228" t="s">
         <v>436</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C228" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="4" t="s">
         <v>748</v>
       </c>
       <c r="E228" t="s">
@@ -13706,13 +13718,13 @@
       <c r="A229" t="s">
         <v>449</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="4" t="s">
         <v>751</v>
       </c>
       <c r="E229" t="s">
@@ -13741,13 +13753,13 @@
       <c r="A230" t="s">
         <v>436</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="4" t="s">
         <v>754</v>
       </c>
       <c r="E230" t="s">
@@ -13782,13 +13794,13 @@
       <c r="A231" t="s">
         <v>590</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="4" t="s">
         <v>756</v>
       </c>
       <c r="E231" t="s">
@@ -13817,13 +13829,13 @@
       <c r="A232" t="s">
         <v>436</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="4" t="s">
         <v>760</v>
       </c>
       <c r="E232" t="s">
@@ -13858,13 +13870,13 @@
       <c r="A233" t="s">
         <v>449</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C233" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="4" t="s">
         <v>764</v>
       </c>
       <c r="E233" t="s">
@@ -13893,13 +13905,13 @@
       <c r="A234" t="s">
         <v>436</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="4" t="s">
         <v>768</v>
       </c>
       <c r="E234" t="s">
@@ -13934,13 +13946,13 @@
       <c r="A235" t="s">
         <v>436</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="4" t="s">
         <v>772</v>
       </c>
       <c r="E235" t="s">
@@ -13975,13 +13987,13 @@
       <c r="A236" t="s">
         <v>436</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C236" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="4" t="s">
         <v>776</v>
       </c>
       <c r="E236" t="s">
@@ -14016,13 +14028,13 @@
       <c r="A237" t="s">
         <v>436</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C237" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="4" t="s">
         <v>154</v>
       </c>
       <c r="E237" t="s">
@@ -14054,13 +14066,13 @@
       <c r="A238" t="s">
         <v>436</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C238" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="4" t="s">
         <v>782</v>
       </c>
       <c r="E238" t="s">
@@ -14095,13 +14107,13 @@
       <c r="A239" t="s">
         <v>590</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C239" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="4" t="s">
         <v>786</v>
       </c>
       <c r="E239" t="s">
@@ -14130,13 +14142,13 @@
       <c r="A240" t="s">
         <v>436</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C240" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="4" t="s">
         <v>788</v>
       </c>
       <c r="E240" t="s">
@@ -14174,13 +14186,13 @@
       <c r="A241" t="s">
         <v>436</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C241" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="4" t="s">
         <v>791</v>
       </c>
       <c r="E241" t="s">
@@ -14215,13 +14227,13 @@
       <c r="A242" t="s">
         <v>436</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C242" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" s="4" t="s">
         <v>795</v>
       </c>
       <c r="E242" t="s">
@@ -14253,13 +14265,13 @@
       <c r="A243" t="s">
         <v>436</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C243" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="4" t="s">
         <v>799</v>
       </c>
       <c r="E243" t="s">
@@ -14294,13 +14306,13 @@
       <c r="A244" t="s">
         <v>436</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="4" t="s">
         <v>801</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="4" t="s">
         <v>803</v>
       </c>
       <c r="E244" t="s">
@@ -14335,13 +14347,13 @@
       <c r="A245" t="s">
         <v>449</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C245" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="4" t="s">
         <v>806</v>
       </c>
       <c r="E245" t="s">
@@ -14370,13 +14382,13 @@
       <c r="A246" t="s">
         <v>436</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="4" t="s">
         <v>809</v>
       </c>
       <c r="E246" t="s">
@@ -14408,13 +14420,13 @@
       <c r="A247" t="s">
         <v>436</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C247" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="4" t="s">
         <v>174</v>
       </c>
       <c r="E247" t="s">
@@ -14449,13 +14461,13 @@
       <c r="A248" t="s">
         <v>449</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="4" t="s">
         <v>814</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C248" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="4" t="s">
         <v>816</v>
       </c>
       <c r="E248" t="s">
@@ -14484,13 +14496,13 @@
       <c r="A249" t="s">
         <v>436</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C249" s="4" t="s">
         <v>816</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" s="4" t="s">
         <v>819</v>
       </c>
       <c r="E249" t="s">
@@ -14525,13 +14537,13 @@
       <c r="A250" t="s">
         <v>436</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="4" t="s">
         <v>821</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" s="4" t="s">
         <v>823</v>
       </c>
       <c r="E250" t="s">
@@ -14566,13 +14578,13 @@
       <c r="A251" t="s">
         <v>436</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="4" t="s">
         <v>825</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C251" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" s="4" t="s">
         <v>827</v>
       </c>
       <c r="E251" t="s">
@@ -14607,13 +14619,13 @@
       <c r="A252" t="s">
         <v>436</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C252" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" s="4" t="s">
         <v>178</v>
       </c>
       <c r="E252" t="s">
@@ -14648,13 +14660,13 @@
       <c r="A253" t="s">
         <v>436</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="4" t="s">
         <v>830</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C253" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253" s="4" t="s">
         <v>831</v>
       </c>
       <c r="E253" t="s">
@@ -14689,13 +14701,13 @@
       <c r="A254" t="s">
         <v>436</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254" s="4" t="s">
         <v>834</v>
       </c>
       <c r="E254" t="s">
@@ -14730,13 +14742,13 @@
       <c r="A255" t="s">
         <v>436</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C255" s="4" t="s">
         <v>835</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255" s="4" t="s">
         <v>836</v>
       </c>
       <c r="E255" t="s">
@@ -14771,13 +14783,13 @@
       <c r="A256" t="s">
         <v>436</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="4" t="s">
         <v>836</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C256" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256" s="4" t="s">
         <v>839</v>
       </c>
       <c r="E256" t="s">
@@ -14812,13 +14824,13 @@
       <c r="A257" t="s">
         <v>449</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="4" t="s">
         <v>842</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257" s="4" t="s">
         <v>843</v>
       </c>
       <c r="E257" t="s">
@@ -14847,13 +14859,13 @@
       <c r="A258" t="s">
         <v>436</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C258" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="4" t="s">
         <v>186</v>
       </c>
       <c r="E258" t="s">
@@ -14888,13 +14900,13 @@
       <c r="A259" t="s">
         <v>607</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="4" t="s">
         <v>848</v>
       </c>
       <c r="E259" t="s">
@@ -14926,13 +14938,13 @@
       <c r="A260" t="s">
         <v>436</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="4" t="s">
         <v>850</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C260" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D260" s="4" t="s">
         <v>852</v>
       </c>
       <c r="E260" t="s">
@@ -14967,13 +14979,13 @@
       <c r="A261" t="s">
         <v>590</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C261" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261" s="4" t="s">
         <v>855</v>
       </c>
       <c r="E261" t="s">
@@ -15002,13 +15014,13 @@
       <c r="A262" t="s">
         <v>460</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C262" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D262" s="4" t="s">
         <v>858</v>
       </c>
       <c r="E262" t="s">
@@ -15037,13 +15049,13 @@
       <c r="A263" t="s">
         <v>436</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C263" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D263" s="4" t="s">
         <v>198</v>
       </c>
       <c r="E263" t="s">
@@ -15078,13 +15090,13 @@
       <c r="A264" t="s">
         <v>436</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D264" s="4" t="s">
         <v>864</v>
       </c>
       <c r="E264" t="s">
@@ -15119,13 +15131,13 @@
       <c r="A265" t="s">
         <v>436</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C265" s="4" t="s">
         <v>866</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D265" s="4" t="s">
         <v>867</v>
       </c>
       <c r="E265" t="s">
@@ -15160,13 +15172,13 @@
       <c r="A266" t="s">
         <v>436</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="4" t="s">
         <v>869</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C266" s="4" t="s">
         <v>870</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D266" s="4" t="s">
         <v>871</v>
       </c>
       <c r="E266" t="s">
@@ -15201,13 +15213,13 @@
       <c r="A267" t="s">
         <v>436</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="4" t="s">
         <v>870</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C267" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D267" s="4" t="s">
         <v>873</v>
       </c>
       <c r="E267" t="s">
@@ -15242,13 +15254,13 @@
       <c r="A268" t="s">
         <v>436</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C268" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D268" s="4" t="s">
         <v>876</v>
       </c>
       <c r="E268" t="s">
@@ -15283,13 +15295,13 @@
       <c r="A269" t="s">
         <v>407</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C269" s="4" t="s">
         <v>879</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D269" s="4" t="s">
         <v>880</v>
       </c>
       <c r="H269" t="s">
@@ -15312,13 +15324,13 @@
       <c r="A270" t="s">
         <v>881</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C270" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D270" s="4" t="s">
         <v>416</v>
       </c>
       <c r="H270" t="s">
@@ -15344,13 +15356,13 @@
       <c r="A271" t="s">
         <v>883</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C271" s="4" t="s">
         <v>880</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D271" s="4" t="s">
         <v>884</v>
       </c>
       <c r="H271" t="s">
@@ -15376,13 +15388,13 @@
       <c r="A272" t="s">
         <v>881</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C272" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D272" s="4" t="s">
         <v>887</v>
       </c>
       <c r="H272" t="s">
@@ -15408,13 +15420,13 @@
       <c r="A273" t="s">
         <v>883</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C273" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D273" s="4" t="s">
         <v>887</v>
       </c>
       <c r="H273" t="s">
@@ -15440,13 +15452,13 @@
       <c r="A274" t="s">
         <v>414</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C274" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D274" s="4" t="s">
         <v>888</v>
       </c>
       <c r="H274" t="s">
@@ -15469,13 +15481,13 @@
       <c r="A275" t="s">
         <v>436</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="4" t="s">
         <v>889</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C275" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D275" s="4" t="s">
         <v>884</v>
       </c>
       <c r="E275" t="s">
@@ -15510,13 +15522,13 @@
       <c r="A276" t="s">
         <v>436</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C276" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D276" s="4" t="s">
         <v>891</v>
       </c>
       <c r="E276" t="s">
@@ -15551,13 +15563,13 @@
       <c r="A277" t="s">
         <v>436</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C277" s="4" t="s">
         <v>888</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D277" s="4" t="s">
         <v>893</v>
       </c>
       <c r="E277" t="s">
@@ -15592,13 +15604,13 @@
       <c r="A278" t="s">
         <v>436</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C278" s="4" t="s">
         <v>896</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D278" s="4" t="s">
         <v>897</v>
       </c>
       <c r="E278" t="s">
@@ -15633,13 +15645,13 @@
       <c r="A279" t="s">
         <v>436</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C279" s="4" t="s">
         <v>893</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D279" s="4" t="s">
         <v>900</v>
       </c>
       <c r="E279" t="s">
@@ -15674,13 +15686,13 @@
       <c r="A280" t="s">
         <v>436</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C280" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D280" s="4" t="s">
         <v>904</v>
       </c>
       <c r="E280" t="s">
@@ -15715,13 +15727,13 @@
       <c r="A281" t="s">
         <v>436</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="4" t="s">
         <v>897</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C281" s="4" t="s">
         <v>906</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D281" s="4" t="s">
         <v>907</v>
       </c>
       <c r="E281" t="s">
@@ -15756,13 +15768,13 @@
       <c r="A282" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="4" t="s">
         <v>906</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C282" s="4" t="s">
         <v>909</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D282" s="4" t="s">
         <v>910</v>
       </c>
       <c r="E282" t="s">
@@ -15797,13 +15809,13 @@
       <c r="A283" t="s">
         <v>436</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C283" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D283" s="4" t="s">
         <v>913</v>
       </c>
       <c r="E283" t="s">
@@ -15835,13 +15847,13 @@
       <c r="A284" t="s">
         <v>881</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="4" t="s">
         <v>915</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C284" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D284" s="4" t="s">
         <v>917</v>
       </c>
       <c r="H284" t="s">
@@ -15867,13 +15879,13 @@
       <c r="A285" t="s">
         <v>883</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C285" s="4" t="s">
         <v>919</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D285" s="4" t="s">
         <v>920</v>
       </c>
       <c r="H285" t="s">
@@ -15899,13 +15911,13 @@
       <c r="A286" t="s">
         <v>449</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C286" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D286" s="4" t="s">
         <v>921</v>
       </c>
       <c r="E286" t="s">
@@ -15934,13 +15946,13 @@
       <c r="A287" t="s">
         <v>881</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C287" s="4" t="s">
         <v>924</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D287" s="4" t="s">
         <v>925</v>
       </c>
       <c r="H287" t="s">
@@ -15966,13 +15978,13 @@
       <c r="A288" t="s">
         <v>883</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C288" s="4" t="s">
         <v>927</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D288" s="4" t="s">
         <v>928</v>
       </c>
       <c r="H288" t="s">
@@ -15998,13 +16010,13 @@
       <c r="A289" t="s">
         <v>436</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="4" t="s">
         <v>924</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C289" s="4" t="s">
         <v>929</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D289" s="4" t="s">
         <v>930</v>
       </c>
       <c r="E289" t="s">
@@ -16042,13 +16054,13 @@
       <c r="A290" t="s">
         <v>607</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C290" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D290" s="4" t="s">
         <v>933</v>
       </c>
       <c r="E290" t="s">
@@ -16083,13 +16095,13 @@
       <c r="A291" t="s">
         <v>590</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="4" t="s">
         <v>935</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C291" s="4" t="s">
         <v>936</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D291" s="4" t="s">
         <v>937</v>
       </c>
       <c r="E291" t="s">
@@ -16118,13 +16130,13 @@
       <c r="A292" t="s">
         <v>436</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C292" s="4" t="s">
         <v>940</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D292" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E292" t="s">
@@ -16156,13 +16168,13 @@
       <c r="A293" t="s">
         <v>436</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="4" t="s">
         <v>942</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C293" s="4" t="s">
         <v>943</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D293" s="4" t="s">
         <v>206</v>
       </c>
       <c r="E293" t="s">
@@ -16197,13 +16209,13 @@
       <c r="A294" t="s">
         <v>436</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="4" t="s">
         <v>945</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C294" s="4" t="s">
         <v>946</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D294" s="4" t="s">
         <v>947</v>
       </c>
       <c r="E294" t="s">
@@ -16238,13 +16250,13 @@
       <c r="A295" t="s">
         <v>436</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="4" t="s">
         <v>946</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C295" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D295" s="4" t="s">
         <v>950</v>
       </c>
       <c r="E295" t="s">
@@ -16279,13 +16291,13 @@
       <c r="A296" t="s">
         <v>436</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C296" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="D296" t="s">
+      <c r="D296" s="4" t="s">
         <v>954</v>
       </c>
       <c r="E296" t="s">
@@ -16320,13 +16332,13 @@
       <c r="A297" t="s">
         <v>436</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C297" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D297" s="4" t="s">
         <v>958</v>
       </c>
       <c r="E297" t="s">
@@ -16361,13 +16373,13 @@
       <c r="A298" t="s">
         <v>436</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C298" s="4" t="s">
         <v>961</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D298" s="4" t="s">
         <v>962</v>
       </c>
       <c r="E298" t="s">
@@ -16399,13 +16411,13 @@
       <c r="A299" t="s">
         <v>436</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="4" t="s">
         <v>964</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C299" s="4" t="s">
         <v>965</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D299" s="4" t="s">
         <v>966</v>
       </c>
       <c r="E299" t="s">
@@ -16440,13 +16452,13 @@
       <c r="A300" t="s">
         <v>436</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="4" t="s">
         <v>968</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C300" s="4" t="s">
         <v>969</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D300" s="4" t="s">
         <v>970</v>
       </c>
       <c r="E300" t="s">
@@ -16481,13 +16493,13 @@
       <c r="A301" t="s">
         <v>436</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C301" s="4" t="s">
         <v>972</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D301" s="4" t="s">
         <v>214</v>
       </c>
       <c r="E301" t="s">
@@ -16519,13 +16531,13 @@
       <c r="A302" t="s">
         <v>436</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="4" t="s">
         <v>974</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C302" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D302" s="4" t="s">
         <v>976</v>
       </c>
       <c r="E302" t="s">
@@ -16560,13 +16572,13 @@
       <c r="A303" t="s">
         <v>436</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="4" t="s">
         <v>978</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C303" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D303" s="4" t="s">
         <v>979</v>
       </c>
       <c r="E303" t="s">
@@ -16598,13 +16610,13 @@
       <c r="A304" t="s">
         <v>436</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C304" s="4" t="s">
         <v>982</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D304" s="4" t="s">
         <v>983</v>
       </c>
       <c r="E304" t="s">
@@ -16639,13 +16651,13 @@
       <c r="A305" t="s">
         <v>436</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="4" t="s">
         <v>985</v>
       </c>
-      <c r="C305" t="s">
+      <c r="C305" s="4" t="s">
         <v>986</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D305" s="4" t="s">
         <v>987</v>
       </c>
       <c r="E305" t="s">
@@ -16677,13 +16689,13 @@
       <c r="A306" t="s">
         <v>436</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C306" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D306" s="4" t="s">
         <v>989</v>
       </c>
       <c r="E306" t="s">
@@ -16715,13 +16727,13 @@
       <c r="A307" t="s">
         <v>436</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C307" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D307" s="4" t="s">
         <v>992</v>
       </c>
       <c r="E307" t="s">
@@ -16756,13 +16768,13 @@
       <c r="A308" t="s">
         <v>436</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C308" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D308" s="4" t="s">
         <v>995</v>
       </c>
       <c r="E308" t="s">
@@ -16797,13 +16809,13 @@
       <c r="A309" t="s">
         <v>436</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="4" t="s">
         <v>997</v>
       </c>
-      <c r="C309" t="s">
+      <c r="C309" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D309" s="4" t="s">
         <v>998</v>
       </c>
       <c r="E309" t="s">
@@ -16838,13 +16850,13 @@
       <c r="A310" t="s">
         <v>436</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="4" t="s">
         <v>1000</v>
       </c>
-      <c r="C310" t="s">
+      <c r="C310" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D310" s="4" t="s">
         <v>1002</v>
       </c>
       <c r="E310" t="s">
@@ -16879,13 +16891,13 @@
       <c r="A311" t="s">
         <v>449</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="C311" t="s">
+      <c r="C311" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D311" s="4" t="s">
         <v>1005</v>
       </c>
       <c r="E311" t="s">
@@ -16914,13 +16926,13 @@
       <c r="A312" t="s">
         <v>436</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="C312" t="s">
+      <c r="C312" s="4" t="s">
         <v>1008</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D312" s="4" t="s">
         <v>1009</v>
       </c>
       <c r="E312" t="s">
@@ -16955,13 +16967,13 @@
       <c r="A313" t="s">
         <v>436</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="4" t="s">
         <v>1009</v>
       </c>
-      <c r="C313" t="s">
+      <c r="C313" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="D313" t="s">
+      <c r="D313" s="4" t="s">
         <v>1012</v>
       </c>
       <c r="E313" t="s">
@@ -16993,13 +17005,13 @@
       <c r="A314" t="s">
         <v>436</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="C314" t="s">
+      <c r="C314" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D314" s="4" t="s">
         <v>1015</v>
       </c>
       <c r="E314" t="s">
@@ -17031,13 +17043,13 @@
       <c r="A315" t="s">
         <v>436</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="4" t="s">
         <v>1017</v>
       </c>
-      <c r="C315" t="s">
+      <c r="C315" s="4" t="s">
         <v>1018</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D315" s="4" t="s">
         <v>1019</v>
       </c>
       <c r="E315" t="s">
@@ -17072,13 +17084,13 @@
       <c r="A316" t="s">
         <v>436</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C316" t="s">
+      <c r="C316" s="4" t="s">
         <v>1019</v>
       </c>
-      <c r="D316" t="s">
+      <c r="D316" s="4" t="s">
         <v>1021</v>
       </c>
       <c r="E316" t="s">
@@ -17113,13 +17125,13 @@
       <c r="A317" t="s">
         <v>436</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317" s="4" t="s">
         <v>1023</v>
       </c>
-      <c r="C317" t="s">
+      <c r="C317" s="4" t="s">
         <v>1024</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D317" s="4" t="s">
         <v>1021</v>
       </c>
       <c r="E317" t="s">
@@ -17154,13 +17166,13 @@
       <c r="A318" t="s">
         <v>590</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="4" t="s">
         <v>1023</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C318" s="4" t="s">
         <v>1026</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D318" s="4" t="s">
         <v>1027</v>
       </c>
       <c r="E318" t="s">
@@ -17189,13 +17201,13 @@
       <c r="A319" t="s">
         <v>436</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="4" t="s">
         <v>1029</v>
       </c>
-      <c r="C319" t="s">
+      <c r="C319" s="4" t="s">
         <v>1030</v>
       </c>
-      <c r="D319" t="s">
+      <c r="D319" s="4" t="s">
         <v>1031</v>
       </c>
       <c r="E319" t="s">
@@ -17233,13 +17245,13 @@
       <c r="A320" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320" s="4" t="s">
         <v>1033</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C320" s="4" t="s">
         <v>1031</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D320" s="4" t="s">
         <v>1034</v>
       </c>
       <c r="E320" t="s">
@@ -17274,13 +17286,13 @@
       <c r="A321" t="s">
         <v>436</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="4" t="s">
         <v>1036</v>
       </c>
-      <c r="C321" t="s">
+      <c r="C321" s="4" t="s">
         <v>1037</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D321" s="4" t="s">
         <v>1038</v>
       </c>
       <c r="E321" t="s">
@@ -17315,13 +17327,13 @@
       <c r="A322" t="s">
         <v>436</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="4" t="s">
         <v>1040</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C322" s="4" t="s">
         <v>1041</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D322" s="4" t="s">
         <v>1042</v>
       </c>
       <c r="E322" t="s">
@@ -17356,13 +17368,13 @@
       <c r="A323" t="s">
         <v>436</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="4" t="s">
         <v>1040</v>
       </c>
-      <c r="C323" t="s">
+      <c r="C323" s="4" t="s">
         <v>1041</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D323" s="4" t="s">
         <v>1042</v>
       </c>
       <c r="E323" t="s">
@@ -17397,13 +17409,13 @@
       <c r="A324" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="4" t="s">
         <v>1045</v>
       </c>
-      <c r="C324" t="s">
+      <c r="C324" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D324" s="4" t="s">
         <v>1046</v>
       </c>
       <c r="E324" t="s">
@@ -17438,13 +17450,13 @@
       <c r="A325" t="s">
         <v>449</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="4" t="s">
         <v>1048</v>
       </c>
-      <c r="C325" t="s">
+      <c r="C325" s="4" t="s">
         <v>1046</v>
       </c>
-      <c r="D325" t="s">
+      <c r="D325" s="4" t="s">
         <v>256</v>
       </c>
       <c r="E325" t="s">
@@ -17473,13 +17485,13 @@
       <c r="A326" t="s">
         <v>436</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326" s="4" t="s">
         <v>1042</v>
       </c>
-      <c r="C326" t="s">
+      <c r="C326" s="4" t="s">
         <v>1050</v>
       </c>
-      <c r="D326" t="s">
+      <c r="D326" s="4" t="s">
         <v>1051</v>
       </c>
       <c r="E326" t="s">
@@ -17514,13 +17526,13 @@
       <c r="A327" t="s">
         <v>436</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C327" t="s">
+      <c r="C327" s="4" t="s">
         <v>1053</v>
       </c>
-      <c r="D327" t="s">
+      <c r="D327" s="4" t="s">
         <v>1054</v>
       </c>
       <c r="E327" t="s">
@@ -17555,13 +17567,13 @@
       <c r="A328" t="s">
         <v>436</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="4" t="s">
         <v>1056</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C328" s="4" t="s">
         <v>1057</v>
       </c>
-      <c r="D328" t="s">
+      <c r="D328" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E328" t="s">
@@ -17593,13 +17605,13 @@
       <c r="A329" t="s">
         <v>436</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329" s="4" t="s">
         <v>1059</v>
       </c>
-      <c r="C329" t="s">
+      <c r="C329" s="4" t="s">
         <v>1060</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D329" s="4" t="s">
         <v>1061</v>
       </c>
       <c r="E329" t="s">
@@ -17634,13 +17646,13 @@
       <c r="A330" t="s">
         <v>436</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="4" t="s">
         <v>1053</v>
       </c>
-      <c r="C330" t="s">
+      <c r="C330" s="4" t="s">
         <v>1063</v>
       </c>
-      <c r="D330" t="s">
+      <c r="D330" s="4" t="s">
         <v>262</v>
       </c>
       <c r="E330" t="s">
@@ -17675,13 +17687,13 @@
       <c r="A331" t="s">
         <v>607</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331" s="4" t="s">
         <v>1057</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C331" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D331" s="4" t="s">
         <v>1065</v>
       </c>
       <c r="E331" t="s">
@@ -17713,13 +17725,13 @@
       <c r="A332" t="s">
         <v>436</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C332" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D332" s="4" t="s">
         <v>1068</v>
       </c>
       <c r="E332" t="s">
@@ -17754,13 +17766,13 @@
       <c r="A333" t="s">
         <v>436</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333" s="4" t="s">
         <v>1070</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C333" s="4" t="s">
         <v>1071</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D333" s="4" t="s">
         <v>1072</v>
       </c>
       <c r="E333" t="s">
@@ -17792,13 +17804,13 @@
       <c r="A334" t="s">
         <v>881</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334" s="4" t="s">
         <v>1074</v>
       </c>
-      <c r="C334" t="s">
+      <c r="C334" s="4" t="s">
         <v>1075</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D334" s="4" t="s">
         <v>1076</v>
       </c>
       <c r="H334" t="s">
@@ -17824,13 +17836,13 @@
       <c r="A335" t="s">
         <v>883</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="4" t="s">
         <v>1077</v>
       </c>
-      <c r="C335" t="s">
+      <c r="C335" s="4" t="s">
         <v>1078</v>
       </c>
-      <c r="D335" t="s">
+      <c r="D335" s="4" t="s">
         <v>1079</v>
       </c>
       <c r="H335" t="s">
@@ -17856,13 +17868,13 @@
       <c r="A336" t="s">
         <v>436</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336" s="4" t="s">
         <v>1080</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C336" s="4" t="s">
         <v>1081</v>
       </c>
-      <c r="D336" t="s">
+      <c r="D336" s="4" t="s">
         <v>1082</v>
       </c>
       <c r="E336" t="s">
@@ -17897,13 +17909,13 @@
       <c r="A337" t="s">
         <v>436</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="4" t="s">
         <v>1084</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C337" s="4" t="s">
         <v>1085</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D337" s="4" t="s">
         <v>1086</v>
       </c>
       <c r="E337" t="s">
@@ -17938,13 +17950,13 @@
       <c r="A338" t="s">
         <v>436</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="C338" t="s">
+      <c r="C338" s="4" t="s">
         <v>1089</v>
       </c>
-      <c r="D338" t="s">
+      <c r="D338" s="4" t="s">
         <v>279</v>
       </c>
       <c r="E338" t="s">
@@ -17976,13 +17988,13 @@
       <c r="A339" t="s">
         <v>449</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="4" t="s">
         <v>1091</v>
       </c>
-      <c r="C339" t="s">
+      <c r="C339" s="4" t="s">
         <v>1092</v>
       </c>
-      <c r="D339" t="s">
+      <c r="D339" s="4" t="s">
         <v>1093</v>
       </c>
       <c r="E339" t="s">
@@ -18011,13 +18023,13 @@
       <c r="A340" t="s">
         <v>436</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C340" t="s">
+      <c r="C340" s="4" t="s">
         <v>1095</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D340" s="4" t="s">
         <v>1096</v>
       </c>
       <c r="E340" t="s">
@@ -18049,13 +18061,13 @@
       <c r="A341" t="s">
         <v>436</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341" s="4" t="s">
         <v>1098</v>
       </c>
-      <c r="C341" t="s">
+      <c r="C341" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D341" s="4" t="s">
         <v>1099</v>
       </c>
       <c r="E341" t="s">
@@ -18090,13 +18102,13 @@
       <c r="A342" t="s">
         <v>436</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="4" t="s">
         <v>1101</v>
       </c>
-      <c r="C342" t="s">
+      <c r="C342" s="4" t="s">
         <v>1102</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D342" s="4" t="s">
         <v>1103</v>
       </c>
       <c r="E342" t="s">
@@ -18128,13 +18140,13 @@
       <c r="A343" t="s">
         <v>436</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="4" t="s">
         <v>1105</v>
       </c>
-      <c r="C343" t="s">
+      <c r="C343" s="4" t="s">
         <v>1106</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D343" s="4" t="s">
         <v>1107</v>
       </c>
       <c r="E343" t="s">
@@ -18169,13 +18181,13 @@
       <c r="A344" t="s">
         <v>436</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="4" t="s">
         <v>1109</v>
       </c>
-      <c r="C344" t="s">
+      <c r="C344" s="4" t="s">
         <v>1107</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D344" s="4" t="s">
         <v>1110</v>
       </c>
       <c r="E344" t="s">
@@ -18210,13 +18222,13 @@
       <c r="A345" t="s">
         <v>436</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345" s="4" t="s">
         <v>1112</v>
       </c>
-      <c r="C345" t="s">
+      <c r="C345" s="4" t="s">
         <v>1113</v>
       </c>
-      <c r="D345" t="s">
+      <c r="D345" s="4" t="s">
         <v>1114</v>
       </c>
       <c r="E345" t="s">
@@ -18248,13 +18260,13 @@
       <c r="A346" t="s">
         <v>436</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346" s="4" t="s">
         <v>1116</v>
       </c>
-      <c r="C346" t="s">
+      <c r="C346" s="4" t="s">
         <v>1117</v>
       </c>
-      <c r="D346" t="s">
+      <c r="D346" s="4" t="s">
         <v>1118</v>
       </c>
       <c r="E346" t="s">
@@ -18289,13 +18301,13 @@
       <c r="A347" t="s">
         <v>436</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347" s="4" t="s">
         <v>1120</v>
       </c>
-      <c r="C347" t="s">
+      <c r="C347" s="4" t="s">
         <v>1121</v>
       </c>
-      <c r="D347" t="s">
+      <c r="D347" s="4" t="s">
         <v>1122</v>
       </c>
       <c r="E347" t="s">
@@ -18327,13 +18339,13 @@
       <c r="A348" t="s">
         <v>460</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348" s="4" t="s">
         <v>1118</v>
       </c>
-      <c r="C348" t="s">
+      <c r="C348" s="4" t="s">
         <v>1124</v>
       </c>
-      <c r="D348" t="s">
+      <c r="D348" s="4" t="s">
         <v>1125</v>
       </c>
       <c r="E348" t="s">
@@ -18362,13 +18374,13 @@
       <c r="A349" t="s">
         <v>436</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C349" t="s">
+      <c r="C349" s="4" t="s">
         <v>1127</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D349" s="4" t="s">
         <v>1128</v>
       </c>
       <c r="E349" t="s">
@@ -18403,13 +18415,13 @@
       <c r="A350" t="s">
         <v>436</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B350" s="4" t="s">
         <v>1124</v>
       </c>
-      <c r="C350" t="s">
+      <c r="C350" s="4" t="s">
         <v>1130</v>
       </c>
-      <c r="D350" t="s">
+      <c r="D350" s="4" t="s">
         <v>1131</v>
       </c>
       <c r="E350" t="s">
@@ -18444,13 +18456,13 @@
       <c r="A351" t="s">
         <v>436</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351" s="4" t="s">
         <v>1125</v>
       </c>
-      <c r="C351" t="s">
+      <c r="C351" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="D351" t="s">
+      <c r="D351" s="4" t="s">
         <v>1133</v>
       </c>
       <c r="E351" t="s">
@@ -18485,13 +18497,13 @@
       <c r="A352" t="s">
         <v>449</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352" s="4" t="s">
         <v>1125</v>
       </c>
-      <c r="C352" t="s">
+      <c r="C352" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D352" s="4" t="s">
         <v>301</v>
       </c>
       <c r="E352" t="s">
@@ -18520,13 +18532,13 @@
       <c r="A353" t="s">
         <v>436</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C353" t="s">
+      <c r="C353" s="4" t="s">
         <v>1136</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D353" s="4" t="s">
         <v>1137</v>
       </c>
       <c r="E353" t="s">
@@ -18561,13 +18573,13 @@
       <c r="A354" t="s">
         <v>436</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354" s="4" t="s">
         <v>1139</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C354" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D354" s="4" t="s">
         <v>1140</v>
       </c>
       <c r="E354" t="s">
@@ -18602,13 +18614,13 @@
       <c r="A355" t="s">
         <v>449</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C355" t="s">
+      <c r="C355" s="4" t="s">
         <v>1142</v>
       </c>
-      <c r="D355" t="s">
+      <c r="D355" s="4" t="s">
         <v>1143</v>
       </c>
       <c r="E355" t="s">
@@ -18637,13 +18649,13 @@
       <c r="A356" t="s">
         <v>436</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C356" t="s">
+      <c r="C356" s="4" t="s">
         <v>1145</v>
       </c>
-      <c r="D356" t="s">
+      <c r="D356" s="4" t="s">
         <v>1146</v>
       </c>
       <c r="E356" t="s">
@@ -18678,13 +18690,13 @@
       <c r="A357" t="s">
         <v>460</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B357" s="4" t="s">
         <v>1148</v>
       </c>
-      <c r="C357" t="s">
+      <c r="C357" s="4" t="s">
         <v>1149</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D357" s="4" t="s">
         <v>1150</v>
       </c>
       <c r="E357" t="s">
@@ -18716,13 +18728,13 @@
       <c r="A358" t="s">
         <v>607</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358" s="4" t="s">
         <v>1152</v>
       </c>
-      <c r="C358" t="s">
+      <c r="C358" s="4" t="s">
         <v>1153</v>
       </c>
-      <c r="D358" t="s">
+      <c r="D358" s="4" t="s">
         <v>1154</v>
       </c>
       <c r="E358" t="s">
@@ -18757,13 +18769,13 @@
       <c r="A359" t="s">
         <v>436</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359" s="4" t="s">
         <v>1156</v>
       </c>
-      <c r="C359" t="s">
+      <c r="C359" s="4" t="s">
         <v>1157</v>
       </c>
-      <c r="D359" t="s">
+      <c r="D359" s="4" t="s">
         <v>1158</v>
       </c>
       <c r="E359" t="s">
@@ -18798,13 +18810,13 @@
       <c r="A360" t="s">
         <v>436</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360" s="4" t="s">
         <v>1160</v>
       </c>
-      <c r="C360" t="s">
+      <c r="C360" s="4" t="s">
         <v>1161</v>
       </c>
-      <c r="D360" t="s">
+      <c r="D360" s="4" t="s">
         <v>1162</v>
       </c>
       <c r="E360" t="s">
@@ -18839,13 +18851,13 @@
       <c r="A361" t="s">
         <v>436</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B361" s="4" t="s">
         <v>1164</v>
       </c>
-      <c r="C361" t="s">
+      <c r="C361" s="4" t="s">
         <v>1158</v>
       </c>
-      <c r="D361" t="s">
+      <c r="D361" s="4" t="s">
         <v>1165</v>
       </c>
       <c r="E361" t="s">
@@ -18880,13 +18892,13 @@
       <c r="A362" t="s">
         <v>436</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B362" s="4" t="s">
         <v>1161</v>
       </c>
-      <c r="C362" t="s">
+      <c r="C362" s="4" t="s">
         <v>1167</v>
       </c>
-      <c r="D362" t="s">
+      <c r="D362" s="4" t="s">
         <v>1168</v>
       </c>
       <c r="E362" t="s">
@@ -18918,13 +18930,13 @@
       <c r="A363" t="s">
         <v>436</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363" s="4" t="s">
         <v>1170</v>
       </c>
-      <c r="C363" t="s">
+      <c r="C363" s="4" t="s">
         <v>1171</v>
       </c>
-      <c r="D363" t="s">
+      <c r="D363" s="4" t="s">
         <v>1172</v>
       </c>
       <c r="E363" t="s">
@@ -18959,13 +18971,13 @@
       <c r="A364" t="s">
         <v>460</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364" s="4" t="s">
         <v>1174</v>
       </c>
-      <c r="C364" t="s">
+      <c r="C364" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="D364" t="s">
+      <c r="D364" s="4" t="s">
         <v>1172</v>
       </c>
       <c r="E364" t="s">
@@ -18997,13 +19009,13 @@
       <c r="A365" t="s">
         <v>881</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365" s="4" t="s">
         <v>1177</v>
       </c>
-      <c r="C365" t="s">
+      <c r="C365" s="4" t="s">
         <v>1178</v>
       </c>
-      <c r="D365" t="s">
+      <c r="D365" s="4" t="s">
         <v>1179</v>
       </c>
       <c r="H365" t="s">
@@ -19029,13 +19041,13 @@
       <c r="A366" t="s">
         <v>883</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B366" s="4" t="s">
         <v>1180</v>
       </c>
-      <c r="C366" t="s">
+      <c r="C366" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D366" t="s">
+      <c r="D366" s="4" t="s">
         <v>1181</v>
       </c>
       <c r="H366" t="s">
@@ -19061,13 +19073,13 @@
       <c r="A367" t="s">
         <v>460</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C367" t="s">
+      <c r="C367" s="4" t="s">
         <v>1179</v>
       </c>
-      <c r="D367" t="s">
+      <c r="D367" s="4" t="s">
         <v>1182</v>
       </c>
       <c r="E367" t="s">
@@ -19096,13 +19108,13 @@
       <c r="A368" t="s">
         <v>436</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B368" s="4" t="s">
         <v>1184</v>
       </c>
-      <c r="C368" t="s">
+      <c r="C368" s="4" t="s">
         <v>1185</v>
       </c>
-      <c r="D368" t="s">
+      <c r="D368" s="4" t="s">
         <v>1186</v>
       </c>
       <c r="E368" t="s">
@@ -19134,13 +19146,13 @@
       <c r="A369" t="s">
         <v>590</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369" s="4" t="s">
         <v>1188</v>
       </c>
-      <c r="C369" t="s">
+      <c r="C369" s="4" t="s">
         <v>1189</v>
       </c>
-      <c r="D369" t="s">
+      <c r="D369" s="4" t="s">
         <v>1190</v>
       </c>
       <c r="E369" t="s">
@@ -19169,13 +19181,13 @@
       <c r="A370" t="s">
         <v>436</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C370" t="s">
+      <c r="C370" s="4" t="s">
         <v>1190</v>
       </c>
-      <c r="D370" t="s">
+      <c r="D370" s="4" t="s">
         <v>1191</v>
       </c>
       <c r="E370" t="s">
@@ -19210,13 +19222,13 @@
       <c r="A371" t="s">
         <v>449</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B371" s="4" t="s">
         <v>1193</v>
       </c>
-      <c r="C371" t="s">
+      <c r="C371" s="4" t="s">
         <v>1194</v>
       </c>
-      <c r="D371" t="s">
+      <c r="D371" s="4" t="s">
         <v>1195</v>
       </c>
       <c r="E371" t="s">
@@ -19245,13 +19257,13 @@
       <c r="A372" t="s">
         <v>436</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B372" s="4" t="s">
         <v>1197</v>
       </c>
-      <c r="C372" t="s">
+      <c r="C372" s="4" t="s">
         <v>1191</v>
       </c>
-      <c r="D372" t="s">
+      <c r="D372" s="4" t="s">
         <v>1198</v>
       </c>
       <c r="E372" t="s">
@@ -19286,13 +19298,13 @@
       <c r="A373" t="s">
         <v>460</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B373" s="4" t="s">
         <v>1200</v>
       </c>
-      <c r="C373" t="s">
+      <c r="C373" s="4" t="s">
         <v>1198</v>
       </c>
-      <c r="D373" t="s">
+      <c r="D373" s="4" t="s">
         <v>323</v>
       </c>
       <c r="E373" t="s">
@@ -19324,13 +19336,13 @@
       <c r="A374" t="s">
         <v>436</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B374" s="4" t="s">
         <v>1202</v>
       </c>
-      <c r="C374" t="s">
+      <c r="C374" s="4" t="s">
         <v>1203</v>
       </c>
-      <c r="D374" t="s">
+      <c r="D374" s="4" t="s">
         <v>1204</v>
       </c>
       <c r="E374" t="s">
@@ -19368,13 +19380,13 @@
       <c r="A375" t="s">
         <v>449</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B375" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C375" t="s">
+      <c r="C375" s="4" t="s">
         <v>1206</v>
       </c>
-      <c r="D375" t="s">
+      <c r="D375" s="4" t="s">
         <v>1207</v>
       </c>
       <c r="E375" t="s">
@@ -19403,13 +19415,13 @@
       <c r="A376" t="s">
         <v>436</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B376" s="4" t="s">
         <v>1209</v>
       </c>
-      <c r="C376" t="s">
+      <c r="C376" s="4" t="s">
         <v>1210</v>
       </c>
-      <c r="D376" t="s">
+      <c r="D376" s="4" t="s">
         <v>329</v>
       </c>
       <c r="E376" t="s">
@@ -19444,13 +19456,13 @@
       <c r="A377" t="s">
         <v>436</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B377" s="4" t="s">
         <v>1212</v>
       </c>
-      <c r="C377" t="s">
+      <c r="C377" s="4" t="s">
         <v>1213</v>
       </c>
-      <c r="D377" t="s">
+      <c r="D377" s="4" t="s">
         <v>340</v>
       </c>
       <c r="E377" t="s">
@@ -19482,13 +19494,13 @@
       <c r="A378" t="s">
         <v>436</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B378" s="4" t="s">
         <v>1215</v>
       </c>
-      <c r="C378" t="s">
+      <c r="C378" s="4" t="s">
         <v>1216</v>
       </c>
-      <c r="D378" t="s">
+      <c r="D378" s="4" t="s">
         <v>1217</v>
       </c>
       <c r="E378" t="s">
@@ -19520,13 +19532,13 @@
       <c r="A379" t="s">
         <v>436</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B379" s="4" t="s">
         <v>1219</v>
       </c>
-      <c r="C379" t="s">
+      <c r="C379" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D379" t="s">
+      <c r="D379" s="4" t="s">
         <v>1220</v>
       </c>
       <c r="E379" t="s">
@@ -19558,13 +19570,13 @@
       <c r="A380" t="s">
         <v>436</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B380" s="4" t="s">
         <v>1222</v>
       </c>
-      <c r="C380" t="s">
+      <c r="C380" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D380" t="s">
+      <c r="D380" s="4" t="s">
         <v>1223</v>
       </c>
       <c r="E380" t="s">
@@ -19596,13 +19608,13 @@
       <c r="A381" t="s">
         <v>436</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B381" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C381" t="s">
+      <c r="C381" s="4" t="s">
         <v>1225</v>
       </c>
-      <c r="D381" t="s">
+      <c r="D381" s="4" t="s">
         <v>1226</v>
       </c>
       <c r="E381" t="s">
@@ -19637,13 +19649,13 @@
       <c r="A382" t="s">
         <v>436</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B382" s="4" t="s">
         <v>1228</v>
       </c>
-      <c r="C382" t="s">
+      <c r="C382" s="4" t="s">
         <v>1229</v>
       </c>
-      <c r="D382" t="s">
+      <c r="D382" s="4" t="s">
         <v>1230</v>
       </c>
       <c r="E382" t="s">
@@ -19678,13 +19690,13 @@
       <c r="A383" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B383" s="4" t="s">
         <v>1229</v>
       </c>
-      <c r="C383" t="s">
+      <c r="C383" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="D383" t="s">
+      <c r="D383" s="4" t="s">
         <v>1233</v>
       </c>
       <c r="E383" t="s">
@@ -19719,13 +19731,13 @@
       <c r="A384" t="s">
         <v>436</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B384" s="4" t="s">
         <v>1235</v>
       </c>
-      <c r="C384" t="s">
+      <c r="C384" s="4" t="s">
         <v>1236</v>
       </c>
-      <c r="D384" t="s">
+      <c r="D384" s="4" t="s">
         <v>1237</v>
       </c>
       <c r="E384" t="s">
@@ -19757,13 +19769,13 @@
       <c r="A385" t="s">
         <v>436</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B385" s="4" t="s">
         <v>1239</v>
       </c>
-      <c r="C385" t="s">
+      <c r="C385" s="4" t="s">
         <v>1240</v>
       </c>
-      <c r="D385" t="s">
+      <c r="D385" s="4" t="s">
         <v>1241</v>
       </c>
       <c r="E385" t="s">
@@ -19798,13 +19810,13 @@
       <c r="A386" t="s">
         <v>436</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B386" s="4" t="s">
         <v>1243</v>
       </c>
-      <c r="C386" t="s">
+      <c r="C386" s="4" t="s">
         <v>1244</v>
       </c>
-      <c r="D386" t="s">
+      <c r="D386" s="4" t="s">
         <v>1245</v>
       </c>
       <c r="E386" t="s">
@@ -19842,13 +19854,13 @@
       <c r="A387" t="s">
         <v>436</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B387" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C387" t="s">
+      <c r="C387" s="4" t="s">
         <v>1247</v>
       </c>
-      <c r="D387" t="s">
+      <c r="D387" s="4" t="s">
         <v>1248</v>
       </c>
       <c r="E387" t="s">
@@ -19883,13 +19895,13 @@
       <c r="A388" t="s">
         <v>436</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B388" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="C388" t="s">
+      <c r="C388" s="4" t="s">
         <v>1251</v>
       </c>
-      <c r="D388" t="s">
+      <c r="D388" s="4" t="s">
         <v>1252</v>
       </c>
       <c r="E388" t="s">
@@ -19924,13 +19936,13 @@
       <c r="A389" t="s">
         <v>436</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B389" s="4" t="s">
         <v>1245</v>
       </c>
-      <c r="C389" t="s">
+      <c r="C389" s="4" t="s">
         <v>1254</v>
       </c>
-      <c r="D389" t="s">
+      <c r="D389" s="4" t="s">
         <v>1255</v>
       </c>
       <c r="E389" t="s">
@@ -19965,13 +19977,13 @@
       <c r="A390" t="s">
         <v>436</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B390" s="4" t="s">
         <v>1251</v>
       </c>
-      <c r="C390" t="s">
+      <c r="C390" s="4" t="s">
         <v>1257</v>
       </c>
-      <c r="D390" t="s">
+      <c r="D390" s="4" t="s">
         <v>1258</v>
       </c>
       <c r="E390" t="s">
@@ -20009,13 +20021,13 @@
       <c r="A391" t="s">
         <v>607</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B391" s="4" t="s">
         <v>1260</v>
       </c>
-      <c r="C391" t="s">
+      <c r="C391" s="4" t="s">
         <v>1252</v>
       </c>
-      <c r="D391" t="s">
+      <c r="D391" s="4" t="s">
         <v>1258</v>
       </c>
       <c r="E391" t="s">
@@ -20050,13 +20062,13 @@
       <c r="A392" t="s">
         <v>436</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B392" s="4" t="s">
         <v>1262</v>
       </c>
-      <c r="C392" t="s">
+      <c r="C392" s="4" t="s">
         <v>1263</v>
       </c>
-      <c r="D392" t="s">
+      <c r="D392" s="4" t="s">
         <v>1264</v>
       </c>
       <c r="E392" t="s">
@@ -20094,13 +20106,13 @@
       <c r="A393" t="s">
         <v>449</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B393" s="4" t="s">
         <v>1266</v>
       </c>
-      <c r="C393" t="s">
+      <c r="C393" s="4" t="s">
         <v>1267</v>
       </c>
-      <c r="D393" t="s">
+      <c r="D393" s="4" t="s">
         <v>1268</v>
       </c>
       <c r="E393" t="s">
@@ -20129,13 +20141,13 @@
       <c r="A394" t="s">
         <v>436</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B394" s="4" t="s">
         <v>1270</v>
       </c>
-      <c r="C394" t="s">
+      <c r="C394" s="4" t="s">
         <v>1271</v>
       </c>
-      <c r="D394" t="s">
+      <c r="D394" s="4" t="s">
         <v>1272</v>
       </c>
       <c r="E394" t="s">
@@ -20170,13 +20182,13 @@
       <c r="A395" t="s">
         <v>436</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B395" s="4" t="s">
         <v>1264</v>
       </c>
-      <c r="C395" t="s">
+      <c r="C395" s="4" t="s">
         <v>1274</v>
       </c>
-      <c r="D395" t="s">
+      <c r="D395" s="4" t="s">
         <v>1275</v>
       </c>
       <c r="E395" t="s">
@@ -20211,13 +20223,13 @@
       <c r="A396" t="s">
         <v>436</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B396" s="4" t="s">
         <v>1277</v>
       </c>
-      <c r="C396" t="s">
+      <c r="C396" s="4" t="s">
         <v>1278</v>
       </c>
-      <c r="D396" t="s">
+      <c r="D396" s="4" t="s">
         <v>1279</v>
       </c>
       <c r="E396" t="s">
@@ -20252,13 +20264,13 @@
       <c r="A397" t="s">
         <v>436</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B397" s="4" t="s">
         <v>1281</v>
       </c>
-      <c r="C397" t="s">
+      <c r="C397" s="4" t="s">
         <v>1279</v>
       </c>
-      <c r="D397" t="s">
+      <c r="D397" s="4" t="s">
         <v>1282</v>
       </c>
       <c r="E397" t="s">
@@ -20293,13 +20305,13 @@
       <c r="A398" t="s">
         <v>590</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B398" s="4" t="s">
         <v>1272</v>
       </c>
-      <c r="C398" t="s">
+      <c r="C398" s="4" t="s">
         <v>1284</v>
       </c>
-      <c r="D398" t="s">
+      <c r="D398" s="4" t="s">
         <v>1285</v>
       </c>
       <c r="E398" t="s">
@@ -20328,13 +20340,13 @@
       <c r="A399" t="s">
         <v>436</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B399" s="4" t="s">
         <v>1287</v>
       </c>
-      <c r="C399" t="s">
+      <c r="C399" s="4" t="s">
         <v>1288</v>
       </c>
-      <c r="D399" t="s">
+      <c r="D399" s="4" t="s">
         <v>1289</v>
       </c>
       <c r="E399" t="s">
@@ -20369,13 +20381,13 @@
       <c r="A400" t="s">
         <v>460</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B400" s="4" t="s">
         <v>1285</v>
       </c>
-      <c r="C400" t="s">
+      <c r="C400" s="4" t="s">
         <v>1291</v>
       </c>
-      <c r="D400" t="s">
+      <c r="D400" s="4" t="s">
         <v>1292</v>
       </c>
       <c r="E400" t="s">
@@ -20407,13 +20419,13 @@
       <c r="A401" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B401" s="4" t="s">
         <v>1294</v>
       </c>
-      <c r="C401" t="s">
+      <c r="C401" s="4" t="s">
         <v>1295</v>
       </c>
-      <c r="D401" t="s">
+      <c r="D401" s="4" t="s">
         <v>1296</v>
       </c>
       <c r="E401" t="s">
@@ -20451,13 +20463,13 @@
       <c r="A402" t="s">
         <v>436</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B402" s="4" t="s">
         <v>1298</v>
       </c>
-      <c r="C402" t="s">
+      <c r="C402" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="D402" t="s">
+      <c r="D402" s="4" t="s">
         <v>1299</v>
       </c>
       <c r="E402" t="s">
@@ -20492,13 +20504,13 @@
       <c r="A403" t="s">
         <v>436</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B403" s="4" t="s">
         <v>1301</v>
       </c>
-      <c r="C403" t="s">
+      <c r="C403" s="4" t="s">
         <v>1299</v>
       </c>
-      <c r="D403" t="s">
+      <c r="D403" s="4" t="s">
         <v>1302</v>
       </c>
       <c r="E403" t="s">
@@ -20533,13 +20545,13 @@
       <c r="A404" t="s">
         <v>436</v>
       </c>
-      <c r="B404" t="s">
+      <c r="B404" s="4" t="s">
         <v>1304</v>
       </c>
-      <c r="C404" t="s">
+      <c r="C404" s="4" t="s">
         <v>1305</v>
       </c>
-      <c r="D404" t="s">
+      <c r="D404" s="4" t="s">
         <v>1306</v>
       </c>
       <c r="E404" t="s">
@@ -20574,13 +20586,13 @@
       <c r="A405" t="s">
         <v>436</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B405" s="4" t="s">
         <v>1308</v>
       </c>
-      <c r="C405" t="s">
+      <c r="C405" s="4" t="s">
         <v>1309</v>
       </c>
-      <c r="D405" t="s">
+      <c r="D405" s="4" t="s">
         <v>1310</v>
       </c>
       <c r="E405" t="s">
@@ -20618,13 +20630,13 @@
       <c r="A406" t="s">
         <v>607</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B406" s="4" t="s">
         <v>1312</v>
       </c>
-      <c r="C406" t="s">
+      <c r="C406" s="4" t="s">
         <v>1306</v>
       </c>
-      <c r="D406" t="s">
+      <c r="D406" s="4" t="s">
         <v>1313</v>
       </c>
       <c r="E406" t="s">
@@ -20656,13 +20668,13 @@
       <c r="A407" t="s">
         <v>436</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B407" s="4" t="s">
         <v>1314</v>
       </c>
-      <c r="C407" t="s">
+      <c r="C407" s="4" t="s">
         <v>1315</v>
       </c>
-      <c r="D407" t="s">
+      <c r="D407" s="4" t="s">
         <v>1316</v>
       </c>
       <c r="E407" t="s">
@@ -20697,13 +20709,13 @@
       <c r="A408" t="s">
         <v>436</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B408" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C408" t="s">
+      <c r="C408" s="4" t="s">
         <v>1318</v>
       </c>
-      <c r="D408" t="s">
+      <c r="D408" s="4" t="s">
         <v>1319</v>
       </c>
       <c r="E408" t="s">
@@ -20735,13 +20747,13 @@
       <c r="A409" t="s">
         <v>436</v>
       </c>
-      <c r="B409" t="s">
+      <c r="B409" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C409" t="s">
+      <c r="C409" s="4" t="s">
         <v>1319</v>
       </c>
-      <c r="D409" t="s">
+      <c r="D409" s="4" t="s">
         <v>1321</v>
       </c>
       <c r="E409" t="s">
@@ -20779,13 +20791,13 @@
       <c r="A410" t="s">
         <v>607</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B410" s="4" t="s">
         <v>1323</v>
       </c>
-      <c r="C410" t="s">
+      <c r="C410" s="4" t="s">
         <v>1324</v>
       </c>
-      <c r="D410" t="s">
+      <c r="D410" s="4" t="s">
         <v>1325</v>
       </c>
       <c r="E410" t="s">
@@ -20820,13 +20832,13 @@
       <c r="A411" t="s">
         <v>436</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B411" s="4" t="s">
         <v>1327</v>
       </c>
-      <c r="C411" t="s">
+      <c r="C411" s="4" t="s">
         <v>1328</v>
       </c>
-      <c r="D411" t="s">
+      <c r="D411" s="4" t="s">
         <v>1329</v>
       </c>
       <c r="E411" t="s">
@@ -20861,13 +20873,13 @@
       <c r="A412" t="s">
         <v>436</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B412" s="4" t="s">
         <v>1331</v>
       </c>
-      <c r="C412" t="s">
+      <c r="C412" s="4" t="s">
         <v>1332</v>
       </c>
-      <c r="D412" t="s">
+      <c r="D412" s="4" t="s">
         <v>1333</v>
       </c>
       <c r="E412" t="s">
@@ -20902,13 +20914,13 @@
       <c r="A413" t="s">
         <v>436</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B413" s="4" t="s">
         <v>1335</v>
       </c>
-      <c r="C413" t="s">
+      <c r="C413" s="4" t="s">
         <v>1336</v>
       </c>
-      <c r="D413" t="s">
+      <c r="D413" s="4" t="s">
         <v>1337</v>
       </c>
       <c r="E413" t="s">
@@ -20940,13 +20952,13 @@
       <c r="A414" t="s">
         <v>436</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B414" s="4" t="s">
         <v>1328</v>
       </c>
-      <c r="C414" t="s">
+      <c r="C414" s="4" t="s">
         <v>1339</v>
       </c>
-      <c r="D414" t="s">
+      <c r="D414" s="4" t="s">
         <v>378</v>
       </c>
       <c r="E414" t="s">
@@ -20981,13 +20993,13 @@
       <c r="A415" t="s">
         <v>436</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B415" s="4" t="s">
         <v>1341</v>
       </c>
-      <c r="C415" t="s">
+      <c r="C415" s="4" t="s">
         <v>1337</v>
       </c>
-      <c r="D415" t="s">
+      <c r="D415" s="4" t="s">
         <v>1342</v>
       </c>
       <c r="E415" t="s">
@@ -21019,13 +21031,13 @@
       <c r="A416" t="s">
         <v>436</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B416" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C416" t="s">
+      <c r="C416" s="4" t="s">
         <v>1344</v>
       </c>
-      <c r="D416" t="s">
+      <c r="D416" s="4" t="s">
         <v>1345</v>
       </c>
       <c r="E416" t="s">
@@ -21060,13 +21072,13 @@
       <c r="A417" t="s">
         <v>436</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B417" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C417" t="s">
+      <c r="C417" s="4" t="s">
         <v>1347</v>
       </c>
-      <c r="D417" t="s">
+      <c r="D417" s="4" t="s">
         <v>1348</v>
       </c>
       <c r="E417" t="s">
@@ -21101,13 +21113,13 @@
       <c r="A418" t="s">
         <v>460</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B418" s="4" t="s">
         <v>1344</v>
       </c>
-      <c r="C418" t="s">
+      <c r="C418" s="4" t="s">
         <v>1350</v>
       </c>
-      <c r="D418" t="s">
+      <c r="D418" s="4" t="s">
         <v>1351</v>
       </c>
       <c r="E418" t="s">
@@ -21139,13 +21151,13 @@
       <c r="A419" t="s">
         <v>436</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B419" s="4" t="s">
         <v>1344</v>
       </c>
-      <c r="C419" t="s">
+      <c r="C419" s="4" t="s">
         <v>1353</v>
       </c>
-      <c r="D419" t="s">
+      <c r="D419" s="4" t="s">
         <v>1354</v>
       </c>
       <c r="E419" t="s">
@@ -21180,13 +21192,13 @@
       <c r="A420" t="s">
         <v>436</v>
       </c>
-      <c r="B420" t="s">
+      <c r="B420" s="4" t="s">
         <v>1347</v>
       </c>
-      <c r="C420" t="s">
+      <c r="C420" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="D420" t="s">
+      <c r="D420" s="4" t="s">
         <v>1356</v>
       </c>
       <c r="E420" t="s">
@@ -21221,13 +21233,13 @@
       <c r="A421" t="s">
         <v>436</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B421" s="4" t="s">
         <v>1351</v>
       </c>
-      <c r="C421" t="s">
+      <c r="C421" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="D421" t="s">
+      <c r="D421" s="4" t="s">
         <v>1358</v>
       </c>
       <c r="E421" t="s">
@@ -21259,13 +21271,13 @@
       <c r="A422" t="s">
         <v>436</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B422" s="4" t="s">
         <v>1360</v>
       </c>
-      <c r="C422" t="s">
+      <c r="C422" s="4" t="s">
         <v>1361</v>
       </c>
-      <c r="D422" t="s">
+      <c r="D422" s="4" t="s">
         <v>1362</v>
       </c>
       <c r="E422" t="s">
@@ -21300,13 +21312,13 @@
       <c r="A423" t="s">
         <v>449</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B423" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C423" t="s">
+      <c r="C423" s="4" t="s">
         <v>1364</v>
       </c>
-      <c r="D423" t="s">
+      <c r="D423" s="4" t="s">
         <v>1365</v>
       </c>
       <c r="E423" t="s">
@@ -21335,13 +21347,13 @@
       <c r="A424" t="s">
         <v>436</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B424" s="4" t="s">
         <v>1367</v>
       </c>
-      <c r="C424" t="s">
+      <c r="C424" s="4" t="s">
         <v>1368</v>
       </c>
-      <c r="D424" t="s">
+      <c r="D424" s="4" t="s">
         <v>1369</v>
       </c>
       <c r="E424" t="s">
@@ -21373,13 +21385,13 @@
       <c r="A425" t="s">
         <v>436</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B425" s="4" t="s">
         <v>1364</v>
       </c>
-      <c r="C425" t="s">
+      <c r="C425" s="4" t="s">
         <v>1365</v>
       </c>
-      <c r="D425" t="s">
+      <c r="D425" s="4" t="s">
         <v>1371</v>
       </c>
       <c r="E425" t="s">
@@ -21411,13 +21423,13 @@
       <c r="A426" t="s">
         <v>436</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B426" s="4" t="s">
         <v>1371</v>
       </c>
-      <c r="C426" t="s">
+      <c r="C426" s="4" t="s">
         <v>1373</v>
       </c>
-      <c r="D426" t="s">
+      <c r="D426" s="4" t="s">
         <v>418</v>
       </c>
       <c r="E426" t="s">
@@ -21452,13 +21464,13 @@
       <c r="A427" t="s">
         <v>436</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C427" t="s">
+      <c r="C427" s="4" t="s">
         <v>1375</v>
       </c>
-      <c r="D427" t="s">
+      <c r="D427" s="4" t="s">
         <v>1376</v>
       </c>
       <c r="E427" t="s">
@@ -21493,13 +21505,13 @@
       <c r="A428" t="s">
         <v>590</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B428" s="4" t="s">
         <v>1373</v>
       </c>
-      <c r="C428" t="s">
+      <c r="C428" s="4" t="s">
         <v>1378</v>
       </c>
-      <c r="D428" t="s">
+      <c r="D428" s="4" t="s">
         <v>419</v>
       </c>
       <c r="E428" t="s">
@@ -21528,13 +21540,13 @@
       <c r="A429" t="s">
         <v>436</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B429" s="4" t="s">
         <v>1380</v>
       </c>
-      <c r="C429" t="s">
+      <c r="C429" s="4" t="s">
         <v>1381</v>
       </c>
-      <c r="D429" t="s">
+      <c r="D429" s="4" t="s">
         <v>1382</v>
       </c>
       <c r="E429" t="s">

--- a/events.xlsx
+++ b/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\streamlit_tiznados\tiznados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3D8543-3CE5-4BFD-B2C1-80A8E776159C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8409FAE-4B46-41A9-B623-F4D7BE5D7DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5264" uniqueCount="1412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5264" uniqueCount="1413">
   <si>
     <t>XY</t>
   </si>
@@ -4256,6 +4256,9 @@
   </si>
   <si>
     <t>55;90 35;80</t>
+  </si>
+  <si>
+    <t>(5)Cassa</t>
   </si>
 </sst>
 </file>
@@ -4349,7 +4352,7 @@
   <autoFilter ref="A1:O429" xr:uid="{C1975CA6-E80E-40A4-A9D5-728F867A63BD}">
     <filterColumn colId="9">
       <filters>
-        <filter val="(22)Suparo"/>
+        <filter val="(5)Mediocentro"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4664,7 +4667,7 @@
   <dimension ref="A1:O429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D303" sqref="D303"/>
+      <selection activeCell="I442" sqref="I442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10038,7 +10041,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>436</v>
       </c>
@@ -10922,7 +10925,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>436</v>
       </c>
@@ -14899,7 +14902,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>607</v>
       </c>
@@ -16571,7 +16574,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>436</v>
       </c>
@@ -17449,7 +17452,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>449</v>
       </c>
@@ -17484,7 +17487,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>436</v>
       </c>
@@ -18300,7 +18303,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>436</v>
       </c>
@@ -19040,7 +19043,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>882</v>
       </c>
@@ -19060,7 +19063,7 @@
         <v>434</v>
       </c>
       <c r="J366" t="s">
-        <v>1401</v>
+        <v>1412</v>
       </c>
       <c r="M366" t="s">
         <v>420</v>
@@ -19297,7 +19300,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>460</v>
       </c>
@@ -19379,7 +19382,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>449</v>
       </c>
@@ -19414,7 +19417,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>436</v>
       </c>
@@ -19455,7 +19458,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="377" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>436</v>
       </c>
@@ -19481,7 +19484,7 @@
         <v>434</v>
       </c>
       <c r="J377" t="s">
-        <v>1401</v>
+        <v>1412</v>
       </c>
       <c r="M377" t="s">
         <v>420</v>
@@ -19730,7 +19733,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>436</v>
       </c>
@@ -19756,7 +19759,7 @@
         <v>434</v>
       </c>
       <c r="J384" t="s">
-        <v>1401</v>
+        <v>1412</v>
       </c>
       <c r="M384" t="s">
         <v>420</v>
@@ -19894,7 +19897,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="388" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>436</v>
       </c>
@@ -19920,7 +19923,7 @@
         <v>434</v>
       </c>
       <c r="J388" t="s">
-        <v>1401</v>
+        <v>1412</v>
       </c>
       <c r="K388" t="s">
         <v>1386</v>
@@ -20339,7 +20342,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>436</v>
       </c>
@@ -20629,7 +20632,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="406" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>607</v>
       </c>
@@ -20655,7 +20658,7 @@
         <v>434</v>
       </c>
       <c r="J406" t="s">
-        <v>1401</v>
+        <v>1412</v>
       </c>
       <c r="M406" t="s">
         <v>420</v>
@@ -20708,7 +20711,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="408" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>436</v>
       </c>
@@ -20734,7 +20737,7 @@
         <v>434</v>
       </c>
       <c r="J408" t="s">
-        <v>1401</v>
+        <v>1412</v>
       </c>
       <c r="M408" t="s">
         <v>420</v>
@@ -20790,7 +20793,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>607</v>
       </c>
@@ -20951,7 +20954,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="414" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>436</v>
       </c>
@@ -20977,7 +20980,7 @@
         <v>434</v>
       </c>
       <c r="J414" t="s">
-        <v>1401</v>
+        <v>1412</v>
       </c>
       <c r="K414" t="s">
         <v>1390</v>
@@ -21030,7 +21033,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="416" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>436</v>
       </c>
@@ -21056,7 +21059,7 @@
         <v>434</v>
       </c>
       <c r="J416" t="s">
-        <v>1401</v>
+        <v>1412</v>
       </c>
       <c r="K416" t="s">
         <v>1397</v>
@@ -21071,7 +21074,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="417" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>436</v>
       </c>
@@ -21097,7 +21100,7 @@
         <v>434</v>
       </c>
       <c r="J417" t="s">
-        <v>1401</v>
+        <v>1412</v>
       </c>
       <c r="K417" t="s">
         <v>1399</v>
@@ -21270,7 +21273,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="422" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>436</v>
       </c>
@@ -21296,7 +21299,7 @@
         <v>434</v>
       </c>
       <c r="J422" t="s">
-        <v>1401</v>
+        <v>1412</v>
       </c>
       <c r="K422" t="s">
         <v>1397</v>
